--- a/data/report_data_01_08_2025/museums-over-time.xlsx
+++ b/data/report_data_01_08_2025/museums-over-time.xlsx
@@ -2573,13 +2573,13 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>2.837573385518591</v>
+        <v>2.834799608993157</v>
       </c>
       <c r="L2">
-        <v>2.429543245869777</v>
+        <v>2.43427458617332</v>
       </c>
       <c r="M2">
-        <v>3.339882121807466</v>
+        <v>3.336604514229637</v>
       </c>
       <c r="N2">
         <v>0.09765625</v>
@@ -2639,7 +2639,7 @@
         <v>381</v>
       </c>
       <c r="AG2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH2">
         <v>35</v>
@@ -2786,7 +2786,7 @@
         <v>1.055408970976253</v>
       </c>
       <c r="CD2">
-        <v>5.172413793103448</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="CE2">
         <v>8.571428571428571</v>
@@ -2828,13 +2828,13 @@
         <v>1.578947368421053</v>
       </c>
       <c r="CR2">
-        <v>8.928571428571429</v>
+        <v>8.849557522123893</v>
       </c>
       <c r="CS2">
         <v>8.571428571428571</v>
       </c>
       <c r="CT2">
-        <v>14.28571428571428</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="CU2">
         <v>6.25</v>
@@ -2938,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3.038936372269706</v>
+        <v>3.04038073366337</v>
       </c>
       <c r="L3">
-        <v>2.671755725190839</v>
+        <v>2.669208770257388</v>
       </c>
       <c r="M3">
         <v>3.431839847473785</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.09496676163342831</v>
+        <v>0.09505703422053231</v>
       </c>
       <c r="Q3">
         <v>427</v>
@@ -3193,7 +3193,7 @@
         <v>2.34375</v>
       </c>
       <c r="CR3">
-        <v>4.880047980807684</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="CS3">
         <v>2.702702702702703</v>
@@ -3288,7 +3288,7 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -3303,13 +3303,13 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>3.321033210332104</v>
+        <v>3.317972350230415</v>
       </c>
       <c r="L4">
-        <v>3.013698630136986</v>
+        <v>2.971078530171248</v>
       </c>
       <c r="M4">
-        <v>3.703703703703703</v>
+        <v>3.710575139146568</v>
       </c>
       <c r="N4">
         <v>0.09225092250922509</v>
@@ -3318,7 +3318,7 @@
         <v>0.09157509157509157</v>
       </c>
       <c r="P4">
-        <v>0.184331797235023</v>
+        <v>0.1845018450184502</v>
       </c>
       <c r="Q4">
         <v>447</v>
@@ -3558,7 +3558,7 @@
         <v>2.295918367346939</v>
       </c>
       <c r="CR4">
-        <v>6.299212598425196</v>
+        <v>6.301712285964263</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="DH4">
-        <v>2.941176470588235</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="DO4">
-        <v>3.703703703703703</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="DP4">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>1120</v>
       </c>
       <c r="C5">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D5">
         <v>1128</v>
@@ -3656,7 +3656,7 @@
         <v>35</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3668,19 +3668,19 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>3.401969561324977</v>
+        <v>3.398926654740608</v>
       </c>
       <c r="L5">
-        <v>3.091736345235608</v>
+        <v>3.105590062111801</v>
       </c>
       <c r="M5">
-        <v>3.825622775800712</v>
+        <v>3.787366574108135</v>
       </c>
       <c r="N5">
         <v>0.08936550491510277</v>
       </c>
       <c r="O5">
-        <v>0.08865248226950355</v>
+        <v>0.08873114463176575</v>
       </c>
       <c r="P5">
         <v>0.1787310098302055</v>
@@ -3917,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>4.516129032258064</v>
+        <v>4.496788008565311</v>
       </c>
       <c r="CQ5">
         <v>2.005012531328321</v>
       </c>
       <c r="CR5">
-        <v>8.333333333333332</v>
+        <v>8.461538461538462</v>
       </c>
       <c r="CS5">
         <v>2.631578947368421</v>
@@ -4033,7 +4033,7 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>2.424242424242424</v>
+        <v>2.4263431542461</v>
       </c>
       <c r="L6">
         <v>2.145922746781116</v>
@@ -4045,10 +4045,10 @@
         <v>0.1730103806228374</v>
       </c>
       <c r="O6">
-        <v>0.1715265866209262</v>
+        <v>0.1716738197424893</v>
       </c>
       <c r="P6">
-        <v>0.259515570934256</v>
+        <v>0.2592912705272256</v>
       </c>
       <c r="Q6">
         <v>488</v>
@@ -4093,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="AE6">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF6">
         <v>408</v>
@@ -4240,13 +4240,13 @@
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.240325865580448</v>
+        <v>2.244897959183673</v>
       </c>
       <c r="CC6">
         <v>1.481481481481482</v>
       </c>
       <c r="CD6">
-        <v>4.25531914893617</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="CE6">
         <v>2.564102564102564</v>
@@ -4267,7 +4267,7 @@
         <v>1.470588235294118</v>
       </c>
       <c r="CK6">
-        <v>2.222222222222222</v>
+        <v>2.255639097744361</v>
       </c>
       <c r="CL6">
         <v>2.564102564102564</v>
@@ -4294,7 +4294,7 @@
         <v>2.564102564102564</v>
       </c>
       <c r="CT6">
-        <v>16</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="CU6">
         <v>3.773584905660377</v>
@@ -4377,7 +4377,7 @@
         <v>1175</v>
       </c>
       <c r="D7">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -4398,13 +4398,13 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2.354920100925147</v>
+        <v>2.356902356902357</v>
       </c>
       <c r="L7">
-        <v>2.021903959561921</v>
+        <v>2.023608768971332</v>
       </c>
       <c r="M7">
-        <v>2.714164546225615</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="N7">
         <v>0.08460236886632826</v>
@@ -4413,7 +4413,7 @@
         <v>0.08389261744966443</v>
       </c>
       <c r="P7">
-        <v>0.1693480101608806</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="Q7">
         <v>499</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="CB7">
-        <v>1.612903225806452</v>
+        <v>1.611280586746284</v>
       </c>
       <c r="CC7">
         <v>0.9732360097323601</v>
@@ -4626,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="CI7">
-        <v>1.20712225158178</v>
+        <v>1.204819277108434</v>
       </c>
       <c r="CJ7">
         <v>0.9638554216867471</v>
       </c>
       <c r="CK7">
-        <v>4.316546762589928</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="CL7">
         <v>0</v>
@@ -4647,19 +4647,19 @@
         <v>0</v>
       </c>
       <c r="CP7">
-        <v>2.21327967806841</v>
+        <v>2.208835341365462</v>
       </c>
       <c r="CQ7">
         <v>1.456310679611651</v>
       </c>
       <c r="CR7">
-        <v>8.148148148148149</v>
+        <v>8.088235294117647</v>
       </c>
       <c r="CS7">
         <v>0</v>
       </c>
       <c r="CT7">
-        <v>20.68965517241379</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="CU7">
         <v>3.703703703703703</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="DM7">
-        <v>0.6993006993006993</v>
+        <v>0.699546931941299</v>
       </c>
       <c r="DN7">
         <v>0</v>
@@ -4763,13 +4763,13 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>3.045267489711935</v>
+        <v>3.047775947281713</v>
       </c>
       <c r="L8">
         <v>2.725020644095789</v>
       </c>
       <c r="M8">
-        <v>3.40531561461794</v>
+        <v>3.405457148932763</v>
       </c>
       <c r="N8">
         <v>0.1654259718775848</v>
@@ -4787,7 +4787,7 @@
         <v>417</v>
       </c>
       <c r="S8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T8">
         <v>40</v>
@@ -4991,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="CI8">
-        <v>3.564356435643564</v>
+        <v>3.557312252964427</v>
       </c>
       <c r="CJ8">
         <v>1.431980906921241</v>
       </c>
       <c r="CK8">
-        <v>2.564102564102564</v>
+        <v>2.563285970929283</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -5012,19 +5012,19 @@
         <v>0</v>
       </c>
       <c r="CP8">
-        <v>4.545454545454546</v>
+        <v>4.554455445544554</v>
       </c>
       <c r="CQ8">
         <v>1.923076923076923</v>
       </c>
       <c r="CR8">
-        <v>6</v>
+        <v>6.04026845637584</v>
       </c>
       <c r="CS8">
         <v>0</v>
       </c>
       <c r="CT8">
-        <v>10.25641025641026</v>
+        <v>10</v>
       </c>
       <c r="CU8">
         <v>5.454545454545454</v>
@@ -5078,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="DL8">
-        <v>0.2421307506053269</v>
+        <v>0.2415458937198068</v>
       </c>
       <c r="DM8">
-        <v>1.324503311258278</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="DN8">
         <v>0</v>
@@ -5131,16 +5131,16 @@
         <v>3.04975922953451</v>
       </c>
       <c r="L9">
-        <v>2.728731942215088</v>
+        <v>2.730923694779117</v>
       </c>
       <c r="M9">
-        <v>3.40080971659919</v>
+        <v>3.40632603406326</v>
       </c>
       <c r="N9">
         <v>0.2413515687851971</v>
       </c>
       <c r="O9">
-        <v>0.2392344497607655</v>
+        <v>0.239224918507787</v>
       </c>
       <c r="P9">
         <v>0.3225806451612903</v>
@@ -5203,7 +5203,7 @@
         <v>44</v>
       </c>
       <c r="AJ9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK9">
         <v>5</v>
@@ -5341,7 +5341,7 @@
         <v>1.187648456057007</v>
       </c>
       <c r="CD9">
-        <v>5.128205128205128</v>
+        <v>5.095541401273886</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>1.176470588235294</v>
       </c>
       <c r="CK9">
-        <v>3.401360544217687</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="CL9">
         <v>0</v>
@@ -5383,13 +5383,13 @@
         <v>1.658767772511848</v>
       </c>
       <c r="CR9">
-        <v>7.096774193548387</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="CS9">
         <v>0</v>
       </c>
       <c r="CT9">
-        <v>9.302325581395349</v>
+        <v>10</v>
       </c>
       <c r="CU9">
         <v>5.263157894736842</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="DM9">
-        <v>1.923076923076923</v>
+        <v>1.899338869628318</v>
       </c>
       <c r="DN9">
         <v>0</v>
@@ -5466,16 +5466,16 @@
         <v>1968</v>
       </c>
       <c r="B10">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C10">
-        <v>1270</v>
+        <v>1269.95</v>
       </c>
       <c r="D10">
         <v>1290</v>
       </c>
       <c r="E10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -5493,13 +5493,13 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>3.391167192429022</v>
+        <v>3.401103926594017</v>
       </c>
       <c r="L10">
         <v>3.115264797507788</v>
       </c>
       <c r="M10">
-        <v>3.761755485893417</v>
+        <v>3.764853633761197</v>
       </c>
       <c r="N10">
         <v>0.3129890453834116</v>
@@ -5523,7 +5523,7 @@
         <v>40</v>
       </c>
       <c r="U10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V10">
         <v>61</v>
@@ -5544,7 +5544,7 @@
         <v>40</v>
       </c>
       <c r="AB10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC10">
         <v>59</v>
@@ -5715,7 +5715,7 @@
         <v>11.62790697674419</v>
       </c>
       <c r="CG10">
-        <v>3.278688524590164</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="CH10">
         <v>0</v>
@@ -5724,10 +5724,10 @@
         <v>3.839122486288848</v>
       </c>
       <c r="CJ10">
-        <v>1.160092807424594</v>
+        <v>1.162790697674419</v>
       </c>
       <c r="CK10">
-        <v>3.267973856209151</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="CL10">
         <v>0</v>
@@ -5742,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="CP10">
-        <v>4.744525547445255</v>
+        <v>4.735883424408015</v>
       </c>
       <c r="CQ10">
         <v>1.639344262295082</v>
       </c>
       <c r="CR10">
-        <v>6.790123456790123</v>
+        <v>6.833148983238326</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="CW10">
-        <v>0.1831501831501831</v>
+        <v>0.1833182108411466</v>
       </c>
       <c r="CX10">
         <v>0.2336448598130841</v>
@@ -5811,7 +5811,7 @@
         <v>0.2358490566037736</v>
       </c>
       <c r="DM10">
-        <v>1.840490797546012</v>
+        <v>1.863354037267081</v>
       </c>
       <c r="DN10">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>1330</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>41</v>
@@ -5858,19 +5858,19 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>3.36906584992343</v>
+        <v>3.378378378378379</v>
       </c>
       <c r="L11">
-        <v>3.096676737160121</v>
+        <v>3.094339622641509</v>
       </c>
       <c r="M11">
-        <v>3.726235741444866</v>
+        <v>3.717895317794731</v>
       </c>
       <c r="N11">
         <v>0.1518602885345482</v>
       </c>
       <c r="O11">
-        <v>0.1504890895410083</v>
+        <v>0.150483432056439</v>
       </c>
       <c r="P11">
         <v>0.2281368821292776</v>
@@ -5912,7 +5912,7 @@
         <v>42</v>
       </c>
       <c r="AC11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD11">
         <v>4</v>
@@ -5984,7 +5984,7 @@
         <v>25</v>
       </c>
       <c r="BA11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB11">
         <v>10</v>
@@ -6065,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="CB11">
-        <v>3.873239436619718</v>
+        <v>3.866432337434095</v>
       </c>
       <c r="CC11">
-        <v>2.083333333333333</v>
+        <v>2.078521939953811</v>
       </c>
       <c r="CD11">
         <v>4.347826086956522</v>
@@ -6092,7 +6092,7 @@
         <v>1.84331797235023</v>
       </c>
       <c r="CK11">
-        <v>3.048780487804878</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="CL11">
         <v>2.5</v>
@@ -6107,10 +6107,10 @@
         <v>20</v>
       </c>
       <c r="CP11">
-        <v>4.385964912280701</v>
+        <v>4.378283712784588</v>
       </c>
       <c r="CQ11">
-        <v>2.528735632183908</v>
+        <v>2.336722186959663</v>
       </c>
       <c r="CR11">
         <v>6.25</v>
@@ -6134,7 +6134,7 @@
         <v>0.2314814814814815</v>
       </c>
       <c r="CY11">
-        <v>0.6060606060606061</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="CZ11">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>0.2336448598130841</v>
       </c>
       <c r="DM11">
-        <v>1.19047619047619</v>
+        <v>1.183431952662722</v>
       </c>
       <c r="DN11">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>1351</v>
       </c>
       <c r="D12">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -6226,10 +6226,10 @@
         <v>2.932551319648094</v>
       </c>
       <c r="L12">
-        <v>2.645113886847906</v>
+        <v>2.639296187683284</v>
       </c>
       <c r="M12">
-        <v>3.254437869822485</v>
+        <v>3.252032520325204</v>
       </c>
       <c r="N12">
         <v>0.07358351729212656</v>
@@ -6268,7 +6268,7 @@
         <v>437</v>
       </c>
       <c r="Z12">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA12">
         <v>41</v>
@@ -6286,7 +6286,7 @@
         <v>596</v>
       </c>
       <c r="AF12">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG12">
         <v>179</v>
@@ -6295,7 +6295,7 @@
         <v>41</v>
       </c>
       <c r="AI12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ12">
         <v>66</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA12">
         <v>4</v>
@@ -6436,13 +6436,13 @@
         <v>0.6802721088435374</v>
       </c>
       <c r="CD12">
-        <v>9.142857142857142</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="CE12">
         <v>2.439024390243902</v>
       </c>
       <c r="CF12">
-        <v>10</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="CG12">
         <v>1.5625</v>
@@ -6457,7 +6457,7 @@
         <v>0.4514672686230248</v>
       </c>
       <c r="CK12">
-        <v>7.738095238095238</v>
+        <v>7.734806629834254</v>
       </c>
       <c r="CL12">
         <v>2.439024390243902</v>
@@ -6472,13 +6472,13 @@
         <v>0</v>
       </c>
       <c r="CP12">
-        <v>2.753872633390706</v>
+        <v>2.866779089376054</v>
       </c>
       <c r="CQ12">
         <v>0.9153318077803204</v>
       </c>
       <c r="CR12">
-        <v>11.04651162790698</v>
+        <v>10.98265895953757</v>
       </c>
       <c r="CS12">
         <v>2.439024390243902</v>
@@ -6588,22 +6588,22 @@
         <v>4</v>
       </c>
       <c r="K13">
-        <v>3.158650394831299</v>
+        <v>3.154121863799284</v>
       </c>
       <c r="L13">
-        <v>2.914001421464108</v>
+        <v>2.903682719546742</v>
       </c>
       <c r="M13">
-        <v>3.492516037063435</v>
+        <v>3.49002849002849</v>
       </c>
       <c r="N13">
         <v>0.2147458840372226</v>
       </c>
       <c r="O13">
-        <v>0.2127659574468085</v>
+        <v>0.2126151665485471</v>
       </c>
       <c r="P13">
-        <v>0.2877697841726619</v>
+        <v>0.2881844380403458</v>
       </c>
       <c r="Q13">
         <v>604</v>
@@ -6654,7 +6654,7 @@
         <v>446</v>
       </c>
       <c r="AG13">
-        <v>193.0500000000002</v>
+        <v>194</v>
       </c>
       <c r="AH13">
         <v>42</v>
@@ -6801,7 +6801,7 @@
         <v>2.036199095022624</v>
       </c>
       <c r="CD13">
-        <v>6.315789473684211</v>
+        <v>6.282722513089005</v>
       </c>
       <c r="CE13">
         <v>2.380952380952381</v>
@@ -6816,13 +6816,13 @@
         <v>0</v>
       </c>
       <c r="CI13">
-        <v>2.975206611570248</v>
+        <v>2.97029702970297</v>
       </c>
       <c r="CJ13">
         <v>2.017937219730942</v>
       </c>
       <c r="CK13">
-        <v>4.945054945054945</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="CL13">
         <v>2.380952380952381</v>
@@ -6837,13 +6837,13 @@
         <v>0</v>
       </c>
       <c r="CP13">
-        <v>3.758477477188367</v>
+        <v>3.789126853377265</v>
       </c>
       <c r="CQ13">
-        <v>2.477477477477477</v>
+        <v>2.472188480615448</v>
       </c>
       <c r="CR13">
-        <v>8.001069518716582</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="CS13">
         <v>2.380952380952381</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="DM13">
-        <v>1.639344262295082</v>
+        <v>1.639794631597912</v>
       </c>
       <c r="DN13">
         <v>0</v>
@@ -6965,10 +6965,10 @@
         <v>0.1390820584144645</v>
       </c>
       <c r="O14">
-        <v>0.1378359751895245</v>
+        <v>0.1377410468319559</v>
       </c>
       <c r="P14">
-        <v>0.2097902097902098</v>
+        <v>0.209643605870021</v>
       </c>
       <c r="Q14">
         <v>623</v>
@@ -6977,7 +6977,7 @@
         <v>452</v>
       </c>
       <c r="S14">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T14">
         <v>43</v>
@@ -7019,7 +7019,7 @@
         <v>456</v>
       </c>
       <c r="AG14">
-        <v>203</v>
+        <v>203.0500000000002</v>
       </c>
       <c r="AH14">
         <v>43</v>
@@ -7166,7 +7166,7 @@
         <v>3.325942350332594</v>
       </c>
       <c r="CD14">
-        <v>7.000000000000001</v>
+        <v>6.930693069306932</v>
       </c>
       <c r="CE14">
         <v>4.651162790697675</v>
@@ -7187,13 +7187,13 @@
         <v>3.289473684210526</v>
       </c>
       <c r="CK14">
-        <v>5.699481865284974</v>
+        <v>5.759162303664922</v>
       </c>
       <c r="CL14">
         <v>4.651162790697675</v>
       </c>
       <c r="CM14">
-        <v>8.474576271186439</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="CN14">
         <v>0</v>
@@ -7202,19 +7202,19 @@
         <v>0</v>
       </c>
       <c r="CP14">
-        <v>4.846526655896607</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="CQ14">
-        <v>3.744493392070484</v>
+        <v>3.752759381898454</v>
       </c>
       <c r="CR14">
-        <v>8.629441624365482</v>
+        <v>8.60215053763441</v>
       </c>
       <c r="CS14">
         <v>4.651162790697675</v>
       </c>
       <c r="CT14">
-        <v>14.81481481481481</v>
+        <v>14.54545454545454</v>
       </c>
       <c r="CU14">
         <v>1.538461538461539</v>
@@ -7321,19 +7321,19 @@
         <v>3.402268178785857</v>
       </c>
       <c r="L15">
-        <v>3.141711229946524</v>
+        <v>3.139612558450234</v>
       </c>
       <c r="M15">
-        <v>3.728362183754994</v>
+        <v>3.725881570192947</v>
       </c>
       <c r="N15">
         <v>0.2666666666666667</v>
       </c>
       <c r="O15">
-        <v>0.264026402640264</v>
+        <v>0.2642007926023778</v>
       </c>
       <c r="P15">
-        <v>0.3348961821835231</v>
+        <v>0.3351206434316354</v>
       </c>
       <c r="Q15">
         <v>650</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="CI15">
-        <v>4.006163328197227</v>
+        <v>4.012345679012346</v>
       </c>
       <c r="CJ15">
         <v>1.279317697228145</v>
@@ -7636,13 +7636,13 @@
         <v>0.2164502164502164</v>
       </c>
       <c r="DM15">
-        <v>0.9803921568627451</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="DN15">
         <v>0</v>
       </c>
       <c r="DO15">
-        <v>1.785714285714286</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="DP15">
         <v>0</v>
@@ -7683,13 +7683,13 @@
         <v>4</v>
       </c>
       <c r="K16">
-        <v>5.775470473718364</v>
+        <v>5.776636713735559</v>
       </c>
       <c r="L16">
-        <v>5.509288917360666</v>
+        <v>5.512820512820513</v>
       </c>
       <c r="M16">
-        <v>6.084227395516524</v>
+        <v>6.100012211706817</v>
       </c>
       <c r="N16">
         <v>0.193923723335488</v>
@@ -7698,7 +7698,7 @@
         <v>0.1920614596670935</v>
       </c>
       <c r="P16">
-        <v>0.2600780234070221</v>
+        <v>0.2604166666666666</v>
       </c>
       <c r="Q16">
         <v>678</v>
@@ -7743,13 +7743,13 @@
         <v>5</v>
       </c>
       <c r="AE16">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF16">
         <v>476</v>
       </c>
       <c r="AG16">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH16">
         <v>45</v>
@@ -7905,7 +7905,7 @@
         <v>10.60606060606061</v>
       </c>
       <c r="CG16">
-        <v>1.492537313432836</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>5.894736842105263</v>
       </c>
       <c r="CK16">
-        <v>8.071748878923767</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="CL16">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>6.382978723404255</v>
       </c>
       <c r="CR16">
-        <v>10.7981220657277</v>
+        <v>10.74766355140187</v>
       </c>
       <c r="CS16">
         <v>0</v>
@@ -8048,13 +8048,13 @@
         <v>4</v>
       </c>
       <c r="K17">
-        <v>4.900181488203267</v>
+        <v>4.892966360856269</v>
       </c>
       <c r="L17">
-        <v>4.63980463980464</v>
+        <v>4.628501827040195</v>
       </c>
       <c r="M17">
-        <v>5.198776758409786</v>
+        <v>5.217925107427869</v>
       </c>
       <c r="N17">
         <v>0.1228501228501229</v>
@@ -8063,13 +8063,13 @@
         <v>0.1214329083181542</v>
       </c>
       <c r="P17">
-        <v>0.2444987775061125</v>
+        <v>0.2443494196701283</v>
       </c>
       <c r="Q17">
         <v>710</v>
       </c>
       <c r="R17">
-        <v>498</v>
+        <v>498.5</v>
       </c>
       <c r="S17">
         <v>237</v>
@@ -8276,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="CI17">
-        <v>3.055343658498998</v>
+        <v>3.05980528511822</v>
       </c>
       <c r="CJ17">
         <v>4.790419161676647</v>
@@ -8297,10 +8297,10 @@
         <v>14.28571428571428</v>
       </c>
       <c r="CP17">
-        <v>3.802816901408451</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="CQ17">
-        <v>5.252525252525253</v>
+        <v>5.241935483870968</v>
       </c>
       <c r="CR17">
         <v>8.658008658008658</v>
@@ -8366,7 +8366,7 @@
         <v>0.4048582995951417</v>
       </c>
       <c r="DM17">
-        <v>0.4273504273504274</v>
+        <v>0.4291845493562232</v>
       </c>
       <c r="DN17">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <v>5.263157894736842</v>
+        <v>5.26623756582797</v>
       </c>
       <c r="L18">
-        <v>5.014577259475218</v>
+        <v>5.029239766081871</v>
       </c>
       <c r="M18">
-        <v>5.548999906211036</v>
+        <v>5.552308591466979</v>
       </c>
       <c r="N18">
         <v>0.3490401396160558</v>
       </c>
       <c r="O18">
-        <v>0.2901915264074289</v>
+        <v>0.2901831101798649</v>
       </c>
       <c r="P18">
-        <v>0.4621873307452073</v>
+        <v>0.4619071062529103</v>
       </c>
       <c r="Q18">
         <v>734</v>
@@ -8443,7 +8443,7 @@
         <v>47</v>
       </c>
       <c r="U18">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V18">
         <v>69</v>
@@ -8452,7 +8452,7 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Y18">
         <v>518</v>
@@ -8551,7 +8551,7 @@
         <v>8</v>
       </c>
       <c r="BE18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF18">
         <v>0</v>
@@ -8620,19 +8620,19 @@
         <v>1</v>
       </c>
       <c r="CB18">
-        <v>5.47945205479452</v>
+        <v>5.494505494505495</v>
       </c>
       <c r="CC18">
         <v>4.406130268199234</v>
       </c>
       <c r="CD18">
-        <v>5.283018867924529</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="CE18">
         <v>10.63829787234043</v>
       </c>
       <c r="CF18">
-        <v>7.058823529411764</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="CG18">
         <v>2.941176470588235</v>
@@ -8641,13 +8641,13 @@
         <v>0</v>
       </c>
       <c r="CI18">
-        <v>5.177111716621254</v>
+        <v>5.191256830601093</v>
       </c>
       <c r="CJ18">
         <v>4.198473282442748</v>
       </c>
       <c r="CK18">
-        <v>4.382470119521913</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="CL18">
         <v>10.63829787234043</v>
@@ -8662,13 +8662,13 @@
         <v>0</v>
       </c>
       <c r="CP18">
-        <v>5.890814965142719</v>
+        <v>5.898491083676269</v>
       </c>
       <c r="CQ18">
         <v>4.633204633204633</v>
       </c>
       <c r="CR18">
-        <v>6.50453228670218</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="CS18">
         <v>10.63829787234043</v>
@@ -8677,7 +8677,7 @@
         <v>9.75609756097561</v>
       </c>
       <c r="CU18">
-        <v>5.637826961770639</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="CV18">
         <v>0</v>
@@ -8728,7 +8728,7 @@
         <v>0.1377410468319559</v>
       </c>
       <c r="DL18">
-        <v>0.1937984496124031</v>
+        <v>0.1934235976789168</v>
       </c>
       <c r="DM18">
         <v>1.195219123505976</v>
@@ -8754,7 +8754,7 @@
         <v>1800</v>
       </c>
       <c r="C19">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D19">
         <v>1812</v>
@@ -8778,22 +8778,22 @@
         <v>6</v>
       </c>
       <c r="K19">
-        <v>3.929164360819037</v>
+        <v>3.93569844789357</v>
       </c>
       <c r="L19">
-        <v>3.71191135734072</v>
+        <v>3.715925846673382</v>
       </c>
       <c r="M19">
-        <v>4.180602006688964</v>
+        <v>4.178272980501393</v>
       </c>
       <c r="N19">
-        <v>0.2219755826859046</v>
+        <v>0.2218524681087077</v>
       </c>
       <c r="O19">
         <v>0.165929203539823</v>
       </c>
       <c r="P19">
-        <v>0.330760749724366</v>
+        <v>0.3316749585406302</v>
       </c>
       <c r="Q19">
         <v>774</v>
@@ -8823,7 +8823,7 @@
         <v>540</v>
       </c>
       <c r="Z19">
-        <v>257.95</v>
+        <v>257</v>
       </c>
       <c r="AA19">
         <v>52</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="CB19">
-        <v>4.935064935064935</v>
+        <v>4.94148244473342</v>
       </c>
       <c r="CC19">
         <v>2.398523985239852</v>
@@ -9012,7 +9012,7 @@
         <v>2.376599634369287</v>
       </c>
       <c r="CK19">
-        <v>2.651515151515151</v>
+        <v>2.671247786840043</v>
       </c>
       <c r="CL19">
         <v>1.923076923076923</v>
@@ -9054,7 +9054,7 @@
         <v>0.1841620626151013</v>
       </c>
       <c r="CY19">
-        <v>0.3787878787878788</v>
+        <v>0.3802281368821293</v>
       </c>
       <c r="CZ19">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="DD19">
-        <v>0.1282051282051282</v>
+        <v>0.1280409731113956</v>
       </c>
       <c r="DE19">
         <v>0.1828153564899452</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="DK19">
-        <v>0.130718954248366</v>
+        <v>0.1305483028720627</v>
       </c>
       <c r="DL19">
         <v>0.3669724770642202</v>
@@ -9116,16 +9116,16 @@
         <v>1978</v>
       </c>
       <c r="B20">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C20">
         <v>1854</v>
       </c>
       <c r="D20">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E20">
-        <v>71.5</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <v>68</v>
@@ -9143,22 +9143,22 @@
         <v>5</v>
       </c>
       <c r="K20">
-        <v>3.829672473547705</v>
+        <v>3.823371028540657</v>
       </c>
       <c r="L20">
-        <v>3.630539241857981</v>
+        <v>3.632478632478633</v>
       </c>
       <c r="M20">
-        <v>4.072883172561629</v>
+        <v>4.07725321888412</v>
       </c>
       <c r="N20">
-        <v>0.1605136436597111</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="O20">
         <v>0.1067235859124867</v>
       </c>
       <c r="P20">
-        <v>0.2658231248656781</v>
+        <v>0.2665316275764037</v>
       </c>
       <c r="Q20">
         <v>811</v>
@@ -9167,7 +9167,7 @@
         <v>556</v>
       </c>
       <c r="S20">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T20">
         <v>53</v>
@@ -9188,7 +9188,7 @@
         <v>552</v>
       </c>
       <c r="Z20">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA20">
         <v>53</v>
@@ -9377,7 +9377,7 @@
         <v>3.041144901610018</v>
       </c>
       <c r="CK20">
-        <v>5.128205128205128</v>
+        <v>5.147058823529411</v>
       </c>
       <c r="CL20">
         <v>0</v>
@@ -9392,13 +9392,13 @@
         <v>0</v>
       </c>
       <c r="CP20">
-        <v>4.069050554870531</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="CQ20">
-        <v>3.41726618705036</v>
+        <v>3.411131059245961</v>
       </c>
       <c r="CR20">
-        <v>7.142857142857142</v>
+        <v>7.116104868913857</v>
       </c>
       <c r="CS20">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>8.163265306122449</v>
       </c>
       <c r="CU20">
-        <v>2.941176470588235</v>
+        <v>2.898550724637681</v>
       </c>
       <c r="CV20">
         <v>0</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="DL20">
-        <v>0.1792114695340502</v>
+        <v>0.1795332136445242</v>
       </c>
       <c r="DM20">
         <v>0.7407407407407408</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="DO20">
-        <v>2.222222222222222</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="DP20">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>68</v>
       </c>
       <c r="G21">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -9511,13 +9511,13 @@
         <v>3.669250645994832</v>
       </c>
       <c r="L21">
-        <v>3.484139365574622</v>
+        <v>3.487179487179487</v>
       </c>
       <c r="M21">
-        <v>3.91147709727226</v>
+        <v>3.909465020576132</v>
       </c>
       <c r="N21">
-        <v>0.1553599171413775</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="O21">
         <v>0.1030396702730551</v>
@@ -9553,7 +9553,7 @@
         <v>569</v>
       </c>
       <c r="Z21">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA21">
         <v>53</v>
@@ -9568,7 +9568,7 @@
         <v>5</v>
       </c>
       <c r="AE21">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF21">
         <v>577</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="CB21">
-        <v>5.119047619047619</v>
+        <v>5.112960760998811</v>
       </c>
       <c r="CC21">
         <v>1.223776223776224</v>
@@ -9727,7 +9727,7 @@
         <v>1.886792452830189</v>
       </c>
       <c r="CF21">
-        <v>3.92156862745098</v>
+        <v>3.96039603960396</v>
       </c>
       <c r="CG21">
         <v>1.36986301369863</v>
@@ -9739,10 +9739,10 @@
         <v>4.863582443653618</v>
       </c>
       <c r="CJ21">
-        <v>1.215277777777778</v>
+        <v>1.215172467745042</v>
       </c>
       <c r="CK21">
-        <v>3.832752613240418</v>
+        <v>3.819444444444445</v>
       </c>
       <c r="CL21">
         <v>1.886792452830189</v>
@@ -9757,19 +9757,19 @@
         <v>14.28571428571428</v>
       </c>
       <c r="CP21">
-        <v>5.469678953626635</v>
+        <v>5.476190476190476</v>
       </c>
       <c r="CQ21">
-        <v>1.56794425087108</v>
+        <v>1.570680628272251</v>
       </c>
       <c r="CR21">
-        <v>5.653710247349824</v>
+        <v>5.673758865248227</v>
       </c>
       <c r="CS21">
         <v>1.886792452830189</v>
       </c>
       <c r="CT21">
-        <v>5.88235294117647</v>
+        <v>5.940594059405941</v>
       </c>
       <c r="CU21">
         <v>2.777777777777778</v>
@@ -9805,7 +9805,7 @@
         <v>0.1733102253032929</v>
       </c>
       <c r="DF21">
-        <v>0.3367003367003367</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="DG21">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="DO21">
-        <v>1.052631578947368</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="DP21">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>2003</v>
       </c>
       <c r="C22">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D22">
         <v>2016</v>
@@ -9873,22 +9873,22 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>4.020100502512562</v>
+        <v>4.027846842366982</v>
       </c>
       <c r="L22">
-        <v>3.832752613240418</v>
+        <v>3.82894082545997</v>
       </c>
       <c r="M22">
-        <v>4.25</v>
+        <v>4.254254254254255</v>
       </c>
       <c r="N22">
         <v>0.399002493765586</v>
       </c>
       <c r="O22">
-        <v>0.2994011976047904</v>
+        <v>0.2992518703241895</v>
       </c>
       <c r="P22">
-        <v>0.5007511266900351</v>
+        <v>0.501002004008016</v>
       </c>
       <c r="Q22">
         <v>884</v>
@@ -9939,7 +9939,7 @@
         <v>583</v>
       </c>
       <c r="AG22">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH22">
         <v>54</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="AZ22">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA22">
         <v>16</v>
@@ -10086,13 +10086,13 @@
         <v>2.4263431542461</v>
       </c>
       <c r="CD22">
-        <v>6.333333333333334</v>
+        <v>6.354515050167224</v>
       </c>
       <c r="CE22">
         <v>3.703703703703703</v>
       </c>
       <c r="CF22">
-        <v>5.607476635514018</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="CG22">
         <v>1.351351351351351</v>
@@ -10107,7 +10107,7 @@
         <v>2.401372212692967</v>
       </c>
       <c r="CK22">
-        <v>5.51948051948052</v>
+        <v>5.537459283387622</v>
       </c>
       <c r="CL22">
         <v>3.703703703703703</v>
@@ -10122,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="CP22">
-        <v>4.561003420752566</v>
+        <v>4.606741573033708</v>
       </c>
       <c r="CQ22">
-        <v>2.763385146804836</v>
+        <v>2.768166089965398</v>
       </c>
       <c r="CR22">
         <v>7.482993197278912</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="DF22">
-        <v>1.623376623376623</v>
+        <v>1.628664495114007</v>
       </c>
       <c r="DG22">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>0.3454231433506045</v>
       </c>
       <c r="DM22">
-        <v>2.348993288590604</v>
+        <v>2.356902356902357</v>
       </c>
       <c r="DN22">
         <v>0</v>
       </c>
       <c r="DO22">
-        <v>1.98019801980198</v>
+        <v>1.981188118811885</v>
       </c>
       <c r="DP22">
         <v>0</v>
@@ -10238,22 +10238,22 @@
         <v>7</v>
       </c>
       <c r="K23">
-        <v>3.205741626794258</v>
+        <v>3.204824023213805</v>
       </c>
       <c r="L23">
-        <v>3.027390677558866</v>
+        <v>3.028846153846154</v>
       </c>
       <c r="M23">
-        <v>3.424987940183309</v>
+        <v>3.428295509415741</v>
       </c>
       <c r="N23">
-        <v>0.2406159769008662</v>
+        <v>0.2405002405002405</v>
       </c>
       <c r="O23">
-        <v>0.1444390948483389</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="P23">
-        <v>0.3380009657170449</v>
+        <v>0.3376748673420164</v>
       </c>
       <c r="Q23">
         <v>922</v>
@@ -10289,7 +10289,7 @@
         <v>56</v>
       </c>
       <c r="AB23">
-        <v>103.95</v>
+        <v>103</v>
       </c>
       <c r="AC23">
         <v>73</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA23">
         <v>14</v>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="CF23">
-        <v>6.306306306306306</v>
+        <v>6.363636363636363</v>
       </c>
       <c r="CG23">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>2.010050251256281</v>
       </c>
       <c r="CK23">
-        <v>3.125</v>
+        <v>3.115264797507788</v>
       </c>
       <c r="CL23">
         <v>0</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="CP23">
-        <v>4.099244875943906</v>
+        <v>4.052573932092004</v>
       </c>
       <c r="CQ23">
         <v>2.360876897133221</v>
@@ -10499,10 +10499,10 @@
         <v>0</v>
       </c>
       <c r="CT23">
-        <v>7.692307692307693</v>
+        <v>7.766990291262135</v>
       </c>
       <c r="CU23">
-        <v>1.351351351351351</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="CV23">
         <v>0</v>
@@ -10514,7 +10514,7 @@
         <v>0.1694915254237288</v>
       </c>
       <c r="CY23">
-        <v>0.6211180124223602</v>
+        <v>0.6230529595015576</v>
       </c>
       <c r="CZ23">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="DH23">
-        <v>0.8928571428571428</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="DI23">
         <v>0</v>
@@ -10550,13 +10550,13 @@
         <v>0</v>
       </c>
       <c r="DK23">
-        <v>0.109051254089422</v>
+        <v>0.1089324618736384</v>
       </c>
       <c r="DL23">
         <v>0.5059021922428331</v>
       </c>
       <c r="DM23">
-        <v>0.9615384615384616</v>
+        <v>0.964630225080386</v>
       </c>
       <c r="DN23">
         <v>0</v>
@@ -10579,7 +10579,7 @@
         <v>2138</v>
       </c>
       <c r="C24">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="D24">
         <v>2151</v>
@@ -10603,25 +10603,25 @@
         <v>11</v>
       </c>
       <c r="K24">
-        <v>2.954971857410882</v>
+        <v>2.950819672131148</v>
       </c>
       <c r="L24">
-        <v>2.795899347623485</v>
+        <v>2.793296089385475</v>
       </c>
       <c r="M24">
-        <v>3.173121791880541</v>
+        <v>3.171641791044776</v>
       </c>
       <c r="N24">
         <v>0.4197761194029851</v>
       </c>
       <c r="O24">
-        <v>0.3258769615246969</v>
+        <v>0.3258845437616387</v>
       </c>
       <c r="P24">
-        <v>0.5164319248826291</v>
+        <v>0.5159474671669794</v>
       </c>
       <c r="Q24">
-        <v>957</v>
+        <v>956.5</v>
       </c>
       <c r="R24">
         <v>604</v>
@@ -10675,7 +10675,7 @@
         <v>56</v>
       </c>
       <c r="AI24">
-        <v>117</v>
+        <v>117.0500000000002</v>
       </c>
       <c r="AJ24">
         <v>78</v>
@@ -10696,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AZ24">
-        <v>33</v>
+        <v>32.05000000000018</v>
       </c>
       <c r="BA24">
         <v>13</v>
@@ -10816,13 +10816,13 @@
         <v>1.827242524916944</v>
       </c>
       <c r="CD24">
-        <v>4.281345565749235</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="CE24">
         <v>3.571428571428571</v>
       </c>
       <c r="CF24">
-        <v>2.830188679245283</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CG24">
         <v>0</v>
@@ -10831,13 +10831,13 @@
         <v>28.57142857142857</v>
       </c>
       <c r="CI24">
-        <v>2.91970802919708</v>
+        <v>2.922755741127348</v>
       </c>
       <c r="CJ24">
         <v>1.80921052631579</v>
       </c>
       <c r="CK24">
-        <v>3.560830860534125</v>
+        <v>3.592814371257485</v>
       </c>
       <c r="CL24">
         <v>3.571428571428571</v>
@@ -10852,13 +10852,13 @@
         <v>25</v>
       </c>
       <c r="CP24">
-        <v>3.433922996878252</v>
+        <v>3.394915802396349</v>
       </c>
       <c r="CQ24">
         <v>2.152317880794702</v>
       </c>
       <c r="CR24">
-        <v>5.263157894736842</v>
+        <v>5.279503105590062</v>
       </c>
       <c r="CS24">
         <v>3.571428571428571</v>
@@ -10867,7 +10867,7 @@
         <v>4.545454545454546</v>
       </c>
       <c r="CU24">
-        <v>1.334234234234238</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="CV24">
         <v>33.33333333333333</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="DF24">
-        <v>0.911854103343465</v>
+        <v>0.9146341463414633</v>
       </c>
       <c r="DG24">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0.1054852320675105</v>
       </c>
       <c r="DL24">
-        <v>0.4942339373970346</v>
+        <v>0.4934616968698519</v>
       </c>
       <c r="DM24">
         <v>1.857585139318885</v>
@@ -10968,13 +10968,13 @@
         <v>17</v>
       </c>
       <c r="K25">
-        <v>3.205862316031808</v>
+        <v>3.209536909674461</v>
       </c>
       <c r="L25">
-        <v>3.044070876874148</v>
+        <v>3.046839472487494</v>
       </c>
       <c r="M25">
-        <v>3.421532846715329</v>
+        <v>3.419972640218878</v>
       </c>
       <c r="N25">
         <v>0.6381039197812215</v>
@@ -11019,7 +11019,7 @@
         <v>58</v>
       </c>
       <c r="AB25">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC25">
         <v>73</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="BY25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ25">
         <v>0</v>
@@ -11175,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="CB25">
-        <v>2.950152594099695</v>
+        <v>2.947154471544716</v>
       </c>
       <c r="CC25">
-        <v>2.610114192495922</v>
+        <v>2.61437908496732</v>
       </c>
       <c r="CD25">
         <v>3.560830860534125</v>
@@ -11196,13 +11196,13 @@
         <v>0</v>
       </c>
       <c r="CI25">
-        <v>2.741116751269036</v>
+        <v>2.738336713995943</v>
       </c>
       <c r="CJ25">
         <v>2.588996763754046</v>
       </c>
       <c r="CK25">
-        <v>2.898550724637681</v>
+        <v>2.906976744186046</v>
       </c>
       <c r="CL25">
         <v>3.448275862068965</v>
@@ -11241,7 +11241,7 @@
         <v>0.3045685279187817</v>
       </c>
       <c r="CX25">
-        <v>0.3252032520325203</v>
+        <v>0.3257328990228013</v>
       </c>
       <c r="CY25">
         <v>1.21580547112462</v>
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="DK25">
-        <v>0.3073770491803279</v>
+        <v>0.3070624360286591</v>
       </c>
       <c r="DL25">
         <v>0.6472491909385114</v>
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="DO25">
-        <v>4.672897196261682</v>
+        <v>4.958677685950414</v>
       </c>
       <c r="DP25">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>87</v>
       </c>
       <c r="G26">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26">
         <v>16</v>
@@ -11333,22 +11333,22 @@
         <v>18</v>
       </c>
       <c r="K26">
-        <v>4.048042704626335</v>
+        <v>4.044444444444444</v>
       </c>
       <c r="L26">
-        <v>3.866666666666667</v>
+        <v>3.871829105473965</v>
       </c>
       <c r="M26">
-        <v>4.250608822124864</v>
+        <v>4.256319091783293</v>
       </c>
       <c r="N26">
         <v>0.7070260715863897</v>
       </c>
       <c r="O26">
-        <v>0.5834567791902489</v>
+        <v>0.5819158460161146</v>
       </c>
       <c r="P26">
-        <v>0.8024966562639322</v>
+        <v>0.8021390374331552</v>
       </c>
       <c r="Q26">
         <v>1012</v>
@@ -11357,7 +11357,7 @@
         <v>629</v>
       </c>
       <c r="S26">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T26">
         <v>60</v>
@@ -11372,7 +11372,7 @@
         <v>9</v>
       </c>
       <c r="X26">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Y26">
         <v>625</v>
@@ -11399,7 +11399,7 @@
         <v>633</v>
       </c>
       <c r="AG26">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH26">
         <v>60</v>
@@ -11540,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="CB26">
-        <v>4.970178926441352</v>
+        <v>4.965243296921549</v>
       </c>
       <c r="CC26">
         <v>2.535657686212361</v>
@@ -11552,7 +11552,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="CF26">
-        <v>6.03448275862069</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CG26">
         <v>0</v>
@@ -11582,19 +11582,19 @@
         <v>0</v>
       </c>
       <c r="CP26">
-        <v>5.268389662027833</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="CQ26">
-        <v>2.715654952076677</v>
+        <v>2.72</v>
       </c>
       <c r="CR26">
-        <v>5.590794994411773</v>
+        <v>5.571847507331378</v>
       </c>
       <c r="CS26">
         <v>1.666666666666667</v>
       </c>
       <c r="CT26">
-        <v>7.692307692307693</v>
+        <v>7.627118644067797</v>
       </c>
       <c r="CU26">
         <v>1.31578947368421</v>
@@ -11651,7 +11651,7 @@
         <v>0.7987220447284344</v>
       </c>
       <c r="DM26">
-        <v>2.071005917159764</v>
+        <v>2.064896755162242</v>
       </c>
       <c r="DN26">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>1985</v>
       </c>
       <c r="B27">
-        <v>2324</v>
+        <v>2324.5</v>
       </c>
       <c r="C27">
         <v>2311</v>
@@ -11686,7 +11686,7 @@
         <v>74</v>
       </c>
       <c r="G27">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27">
         <v>17</v>
@@ -11698,25 +11698,25 @@
         <v>20</v>
       </c>
       <c r="K27">
-        <v>3.359173126614987</v>
+        <v>3.356282271944923</v>
       </c>
       <c r="L27">
-        <v>3.186907838070629</v>
+        <v>3.188280913399397</v>
       </c>
       <c r="M27">
-        <v>3.56989247311828</v>
+        <v>3.550042771599657</v>
       </c>
       <c r="N27">
-        <v>0.7308684436801376</v>
+        <v>0.7307114027597078</v>
       </c>
       <c r="O27">
-        <v>0.6435006435006435</v>
+        <v>0.6423982869379015</v>
       </c>
       <c r="P27">
-        <v>0.8591249887396868</v>
+        <v>0.8576329331046313</v>
       </c>
       <c r="Q27">
-        <v>1061.5</v>
+        <v>1061</v>
       </c>
       <c r="R27">
         <v>641</v>
@@ -11743,7 +11743,7 @@
         <v>637</v>
       </c>
       <c r="Z27">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA27">
         <v>61</v>
@@ -11827,7 +11827,7 @@
         <v>13</v>
       </c>
       <c r="BB27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="CB27">
-        <v>3.932584269662921</v>
+        <v>3.936269915651359</v>
       </c>
       <c r="CC27">
         <v>1.866251944012442</v>
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="CF27">
-        <v>4.8</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="CG27">
         <v>2.597402597402597</v>
@@ -11926,13 +11926,13 @@
         <v>0</v>
       </c>
       <c r="CI27">
-        <v>3.68968779564806</v>
+        <v>3.686200378071833</v>
       </c>
       <c r="CJ27">
         <v>1.708074534161491</v>
       </c>
       <c r="CK27">
-        <v>4.022988505747127</v>
+        <v>4.011461318051576</v>
       </c>
       <c r="CL27">
         <v>0</v>
@@ -11947,13 +11947,13 @@
         <v>0</v>
       </c>
       <c r="CP27">
-        <v>4.186489058039962</v>
+        <v>4.174573055028463</v>
       </c>
       <c r="CQ27">
         <v>2.040816326530612</v>
       </c>
       <c r="CR27">
-        <v>5.602240896358544</v>
+        <v>5.540166204986149</v>
       </c>
       <c r="CS27">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0.1555209953343701</v>
       </c>
       <c r="DF27">
-        <v>0.8426966292134831</v>
+        <v>0.842578604475498</v>
       </c>
       <c r="DG27">
         <v>0</v>
@@ -12013,10 +12013,10 @@
         <v>0.285171102661597</v>
       </c>
       <c r="DL27">
-        <v>0.62402496099844</v>
+        <v>0.6230529595015576</v>
       </c>
       <c r="DM27">
-        <v>1.704545454545454</v>
+        <v>1.69971671388102</v>
       </c>
       <c r="DN27">
         <v>0</v>
@@ -12066,19 +12066,19 @@
         <v>4.238355014687369</v>
       </c>
       <c r="L28">
-        <v>4.073918521629567</v>
+        <v>4.07563025210084</v>
       </c>
       <c r="M28">
-        <v>4.444444444444445</v>
+        <v>4.435146443514645</v>
       </c>
       <c r="N28">
         <v>0.5448449287510477</v>
       </c>
       <c r="O28">
-        <v>0.4594820384294068</v>
+        <v>0.4590984974958264</v>
       </c>
       <c r="P28">
-        <v>0.6691760769552488</v>
+        <v>0.6697362913352868</v>
       </c>
       <c r="Q28">
         <v>1100</v>
@@ -12087,13 +12087,13 @@
         <v>651</v>
       </c>
       <c r="S28">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T28">
         <v>61</v>
       </c>
       <c r="U28">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V28">
         <v>79</v>
@@ -12102,7 +12102,7 @@
         <v>9</v>
       </c>
       <c r="X28">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Y28">
         <v>646</v>
@@ -12117,7 +12117,7 @@
         <v>116</v>
       </c>
       <c r="AC28">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28">
         <v>8</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="BV28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW28">
         <v>9</v>
@@ -12270,13 +12270,13 @@
         <v>0</v>
       </c>
       <c r="CB28">
-        <v>4.904632152588556</v>
+        <v>4.909090909090909</v>
       </c>
       <c r="CC28">
-        <v>4.134762633996937</v>
+        <v>4.141104294478527</v>
       </c>
       <c r="CD28">
-        <v>3.314917127071823</v>
+        <v>3.32409972299169</v>
       </c>
       <c r="CE28">
         <v>0</v>
@@ -12291,13 +12291,13 @@
         <v>0</v>
       </c>
       <c r="CI28">
-        <v>4.701627486437613</v>
+        <v>4.705669609615998</v>
       </c>
       <c r="CJ28">
         <v>3.975535168195719</v>
       </c>
       <c r="CK28">
-        <v>2.73972602739726</v>
+        <v>2.747252747252747</v>
       </c>
       <c r="CL28">
         <v>0</v>
@@ -12312,10 +12312,10 @@
         <v>0</v>
       </c>
       <c r="CP28">
-        <v>5.182053933327819</v>
+        <v>5.191256830601093</v>
       </c>
       <c r="CQ28">
-        <v>4.3343653250774</v>
+        <v>4.327666151468315</v>
       </c>
       <c r="CR28">
         <v>4.155124653739612</v>
@@ -12339,7 +12339,7 @@
         <v>0.3067484662576687</v>
       </c>
       <c r="CY28">
-        <v>2.144772117962467</v>
+        <v>2.13903743315508</v>
       </c>
       <c r="CZ28">
         <v>1.639344262295082</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="DL28">
-        <v>0.4658747331510874</v>
+        <v>0.610733711511077</v>
       </c>
       <c r="DM28">
         <v>2.486187845303867</v>
@@ -12387,7 +12387,7 @@
         <v>1.639344262295082</v>
       </c>
       <c r="DO28">
-        <v>3.333333333333333</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="DP28">
         <v>0</v>
@@ -12416,7 +12416,7 @@
         <v>59</v>
       </c>
       <c r="G29">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -12425,25 +12425,25 @@
         <v>12</v>
       </c>
       <c r="J29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>2.547513141932875</v>
+        <v>2.544426494345719</v>
       </c>
       <c r="L29">
-        <v>2.38673139158576</v>
+        <v>2.38480194017785</v>
       </c>
       <c r="M29">
-        <v>2.733173919170685</v>
+        <v>2.727711727255869</v>
       </c>
       <c r="N29">
-        <v>0.6030150997405156</v>
+        <v>0.6036217303822937</v>
       </c>
       <c r="O29">
-        <v>0.4854270784668595</v>
+        <v>0.4854368932038834</v>
       </c>
       <c r="P29">
-        <v>0.6905095608470202</v>
+        <v>0.7237635705669482</v>
       </c>
       <c r="Q29">
         <v>1154</v>
@@ -12473,13 +12473,13 @@
         <v>671</v>
       </c>
       <c r="Z29">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AA29">
         <v>60</v>
       </c>
       <c r="AB29">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC29">
         <v>78</v>
@@ -12656,13 +12656,13 @@
         <v>0</v>
       </c>
       <c r="CI29">
-        <v>2.847282139775669</v>
+        <v>2.844827586206897</v>
       </c>
       <c r="CJ29">
-        <v>1.914580265095729</v>
+        <v>1.911764705882353</v>
       </c>
       <c r="CK29">
-        <v>2.432432432432432</v>
+        <v>2.425876010781671</v>
       </c>
       <c r="CL29">
         <v>1.666666666666667</v>
@@ -12677,19 +12677,19 @@
         <v>0</v>
       </c>
       <c r="CP29">
-        <v>3.307223672758921</v>
+        <v>3.304491618420555</v>
       </c>
       <c r="CQ29">
         <v>2.222222222222222</v>
       </c>
       <c r="CR29">
-        <v>3.825136612021858</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CS29">
         <v>1.666666666666667</v>
       </c>
       <c r="CT29">
-        <v>2.479338842975207</v>
+        <v>2.5</v>
       </c>
       <c r="CU29">
         <v>1.265822784810127</v>
@@ -12698,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="CW29">
-        <v>0.3439380911435941</v>
+        <v>0.3436426116838488</v>
       </c>
       <c r="CX29">
         <v>0.2958579881656805</v>
@@ -12725,7 +12725,7 @@
         <v>0.1474926253687316</v>
       </c>
       <c r="DF29">
-        <v>1.061007957559682</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="DG29">
         <v>3.333333333333333</v>
@@ -12743,16 +12743,16 @@
         <v>0.3487358326068004</v>
       </c>
       <c r="DL29">
-        <v>0.5882352941176471</v>
+        <v>0.5873715124816447</v>
       </c>
       <c r="DM29">
-        <v>1.639344262295082</v>
+        <v>1.643835616438356</v>
       </c>
       <c r="DN29">
         <v>3.333333333333333</v>
       </c>
       <c r="DO29">
-        <v>3.252032520325204</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="DP29">
         <v>0</v>
@@ -12769,7 +12769,7 @@
         <v>2522</v>
       </c>
       <c r="C30">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="D30">
         <v>2536</v>
@@ -12781,10 +12781,10 @@
         <v>65</v>
       </c>
       <c r="G30">
-        <v>73</v>
+        <v>72.05000000000018</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30">
         <v>9</v>
@@ -12793,22 +12793,22 @@
         <v>15</v>
       </c>
       <c r="K30">
-        <v>2.700555996822875</v>
+        <v>2.699483922191346</v>
       </c>
       <c r="L30">
-        <v>2.564102564102564</v>
+        <v>2.567140600315956</v>
       </c>
       <c r="M30">
-        <v>2.884292480748599</v>
+        <v>2.880820836621941</v>
       </c>
       <c r="N30">
-        <v>0.438421681944998</v>
+        <v>0.4729996058336618</v>
       </c>
       <c r="O30">
-        <v>0.3570011900039667</v>
+        <v>0.3568596352101507</v>
       </c>
       <c r="P30">
-        <v>0.5907954119052473</v>
+        <v>0.5903187721369539</v>
       </c>
       <c r="Q30">
         <v>1186</v>
@@ -13012,7 +13012,7 @@
         <v>3.389830508474576</v>
       </c>
       <c r="CF30">
-        <v>6.349206349206349</v>
+        <v>6.299212598425196</v>
       </c>
       <c r="CG30">
         <v>1.25</v>
@@ -13042,13 +13042,13 @@
         <v>0</v>
       </c>
       <c r="CP30">
-        <v>2.968617472434266</v>
+        <v>2.971137521222411</v>
       </c>
       <c r="CQ30">
         <v>2.183406113537118</v>
       </c>
       <c r="CR30">
-        <v>3.723404255319149</v>
+        <v>3.74331550802139</v>
       </c>
       <c r="CS30">
         <v>3.389830508474576</v>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="CW30">
-        <v>0.1673640167364017</v>
+        <v>0.1675041876046901</v>
       </c>
       <c r="CX30">
         <v>0.1447178002894356</v>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="DK30">
-        <v>0.1696352841391009</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="DL30">
         <v>0.2915451895043732</v>
@@ -13134,7 +13134,7 @@
         <v>2579</v>
       </c>
       <c r="C31">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D31">
         <v>2592</v>
@@ -13158,22 +13158,22 @@
         <v>19</v>
       </c>
       <c r="K31">
-        <v>3.056092843326886</v>
+        <v>3.057275541795665</v>
       </c>
       <c r="L31">
-        <v>2.904725019364833</v>
+        <v>2.901353965183752</v>
       </c>
       <c r="M31">
-        <v>3.229571984435798</v>
+        <v>3.229634841033393</v>
       </c>
       <c r="N31">
-        <v>0.6196746707978312</v>
+        <v>0.6194347657762291</v>
       </c>
       <c r="O31">
         <v>0.5050505050505051</v>
       </c>
       <c r="P31">
-        <v>0.7361630459920289</v>
+        <v>0.7361487795428129</v>
       </c>
       <c r="Q31">
         <v>1217</v>
@@ -13266,7 +13266,7 @@
         <v>18</v>
       </c>
       <c r="AU31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>43</v>
+        <v>43.05000000000018</v>
       </c>
       <c r="BA31">
         <v>20</v>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>3.341483292583537</v>
+        <v>3.352412101390025</v>
       </c>
       <c r="CC31">
         <v>2.578796561604585</v>
@@ -13386,13 +13386,13 @@
         <v>0</v>
       </c>
       <c r="CI31">
-        <v>3.127572016460905</v>
+        <v>3.130148270181219</v>
       </c>
       <c r="CJ31">
         <v>2.556818181818182</v>
       </c>
       <c r="CK31">
-        <v>3.816793893129771</v>
+        <v>3.713527851458886</v>
       </c>
       <c r="CL31">
         <v>0</v>
@@ -13407,13 +13407,13 @@
         <v>0</v>
       </c>
       <c r="CP31">
-        <v>3.553719008264463</v>
+        <v>3.578094332574963</v>
       </c>
       <c r="CQ31">
         <v>2.861230329041488</v>
       </c>
       <c r="CR31">
-        <v>5.135135135135135</v>
+        <v>5.221932114882506</v>
       </c>
       <c r="CS31">
         <v>0</v>
@@ -13428,13 +13428,13 @@
         <v>0</v>
       </c>
       <c r="CW31">
-        <v>0.1639344262295082</v>
+        <v>0.1638001638001638</v>
       </c>
       <c r="CX31">
         <v>0.1422475106685633</v>
       </c>
       <c r="CY31">
-        <v>2.887139107611548</v>
+        <v>2.894736842105263</v>
       </c>
       <c r="CZ31">
         <v>0</v>
@@ -13470,19 +13470,19 @@
         <v>0</v>
       </c>
       <c r="DK31">
-        <v>0.2467105263157895</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="DL31">
-        <v>0.2865329512893983</v>
+        <v>0.2861230329041488</v>
       </c>
       <c r="DM31">
-        <v>3.39425587467363</v>
+        <v>3.403141361256544</v>
       </c>
       <c r="DN31">
         <v>0</v>
       </c>
       <c r="DO31">
-        <v>3.053435114503817</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="DP31">
         <v>0</v>
@@ -13499,7 +13499,7 @@
         <v>2642</v>
       </c>
       <c r="C32">
-        <v>2628.95</v>
+        <v>2629</v>
       </c>
       <c r="D32">
         <v>2655</v>
@@ -13523,22 +13523,22 @@
         <v>16</v>
       </c>
       <c r="K32">
-        <v>2.766723616505322</v>
+        <v>2.766199317923456</v>
       </c>
       <c r="L32">
-        <v>2.637528259231349</v>
+        <v>2.632568634825122</v>
       </c>
       <c r="M32">
-        <v>2.929984779299847</v>
+        <v>2.932216298552933</v>
       </c>
       <c r="N32">
-        <v>0.4564473183720046</v>
+        <v>0.4561003420752566</v>
       </c>
       <c r="O32">
         <v>0.3782148260211801</v>
       </c>
       <c r="P32">
-        <v>0.603318250377074</v>
+        <v>0.6001838424307543</v>
       </c>
       <c r="Q32">
         <v>1256</v>
@@ -13547,7 +13547,7 @@
         <v>718</v>
       </c>
       <c r="S32">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T32">
         <v>61</v>
@@ -13583,7 +13583,7 @@
         <v>8</v>
       </c>
       <c r="AE32">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="AF32">
         <v>722</v>
@@ -13598,7 +13598,7 @@
         <v>133</v>
       </c>
       <c r="AJ32">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK32">
         <v>10</v>
@@ -13733,10 +13733,10 @@
         <v>3.117505995203837</v>
       </c>
       <c r="CC32">
-        <v>1.256983240223464</v>
+        <v>1.258741258741259</v>
       </c>
       <c r="CD32">
-        <v>4.473684210526316</v>
+        <v>4.485488126649076</v>
       </c>
       <c r="CE32">
         <v>0</v>
@@ -13751,13 +13751,13 @@
         <v>0</v>
       </c>
       <c r="CI32">
-        <v>2.950558213716108</v>
+        <v>2.948207171314741</v>
       </c>
       <c r="CJ32">
         <v>1.248266296809986</v>
       </c>
       <c r="CK32">
-        <v>3.90625</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="CL32">
         <v>0</v>
@@ -13772,13 +13772,13 @@
         <v>0</v>
       </c>
       <c r="CP32">
-        <v>3.354632587859425</v>
+        <v>3.357314148681055</v>
       </c>
       <c r="CQ32">
         <v>1.534170153417015</v>
       </c>
       <c r="CR32">
-        <v>5.208333333333334</v>
+        <v>5.221932114882506</v>
       </c>
       <c r="CS32">
         <v>0</v>
@@ -13796,10 +13796,10 @@
         <v>0.0794912559618442</v>
       </c>
       <c r="CX32">
-        <v>0.2793296089385475</v>
+        <v>0.2789400278940028</v>
       </c>
       <c r="CY32">
-        <v>1.310618240782729</v>
+        <v>1.312335958005249</v>
       </c>
       <c r="CZ32">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0.2773925104022191</v>
       </c>
       <c r="DF32">
-        <v>1.020408163265306</v>
+        <v>1.023017902813299</v>
       </c>
       <c r="DG32">
         <v>0</v>
@@ -13841,7 +13841,7 @@
         <v>0.4195804195804196</v>
       </c>
       <c r="DM32">
-        <v>2.030456852791878</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="DN32">
         <v>0</v>
@@ -13864,7 +13864,7 @@
         <v>2703</v>
       </c>
       <c r="C33">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D33">
         <v>2716</v>
@@ -13888,22 +13888,22 @@
         <v>15</v>
       </c>
       <c r="K33">
-        <v>1.853911753800519</v>
+        <v>1.85459940652819</v>
       </c>
       <c r="L33">
         <v>1.736239379386775</v>
       </c>
       <c r="M33">
-        <v>2.006726262262063</v>
+        <v>2.011922503725782</v>
       </c>
       <c r="N33">
         <v>0.4434589800443459</v>
       </c>
       <c r="O33">
-        <v>0.3677822728944465</v>
+        <v>0.368052999631947</v>
       </c>
       <c r="P33">
-        <v>0.5545389045051352</v>
+        <v>0.5541189508681197</v>
       </c>
       <c r="Q33">
         <v>1295</v>
@@ -13912,7 +13912,7 @@
         <v>725</v>
       </c>
       <c r="S33">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T33">
         <v>61</v>
@@ -13954,7 +13954,7 @@
         <v>729</v>
       </c>
       <c r="AG33">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AH33">
         <v>61</v>
@@ -14101,7 +14101,7 @@
         <v>1.659751037344398</v>
       </c>
       <c r="CD33">
-        <v>2.227722772277227</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="CE33">
         <v>0</v>
@@ -14119,7 +14119,7 @@
         <v>1.698841698841699</v>
       </c>
       <c r="CJ33">
-        <v>1.648351648351648</v>
+        <v>1.646090534979424</v>
       </c>
       <c r="CK33">
         <v>1.732673267326733</v>
@@ -14137,13 +14137,13 @@
         <v>0</v>
       </c>
       <c r="CP33">
-        <v>2.088167053364269</v>
+        <v>2.093023255813954</v>
       </c>
       <c r="CQ33">
-        <v>1.933701657458563</v>
+        <v>1.931034482758621</v>
       </c>
       <c r="CR33">
-        <v>2.784810126582278</v>
+        <v>2.785163528882607</v>
       </c>
       <c r="CS33">
         <v>0</v>
@@ -14152,7 +14152,7 @@
         <v>4.724409448818897</v>
       </c>
       <c r="CU33">
-        <v>1.204819277108434</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="CV33">
         <v>0</v>
@@ -14164,13 +14164,13 @@
         <v>0.6915629322268326</v>
       </c>
       <c r="CY33">
-        <v>1.007556675062972</v>
+        <v>1.01010101010101</v>
       </c>
       <c r="CZ33">
         <v>0</v>
       </c>
       <c r="DA33">
-        <v>1.515151515151515</v>
+        <v>1.526717557251908</v>
       </c>
       <c r="DB33">
         <v>0</v>
@@ -14203,7 +14203,7 @@
         <v>0.07763975155279502</v>
       </c>
       <c r="DL33">
-        <v>0.8333912841910063</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="DM33">
         <v>1.530612244897959</v>
@@ -14232,7 +14232,7 @@
         <v>2728</v>
       </c>
       <c r="D34">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E34">
         <v>65</v>
@@ -14241,7 +14241,7 @@
         <v>62</v>
       </c>
       <c r="G34">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H34">
         <v>14</v>
@@ -14253,13 +14253,13 @@
         <v>17</v>
       </c>
       <c r="K34">
-        <v>2.375730994152047</v>
+        <v>2.377903865914742</v>
       </c>
       <c r="L34">
         <v>2.258652094717668</v>
       </c>
       <c r="M34">
-        <v>2.530299434932489</v>
+        <v>2.548280836592975</v>
       </c>
       <c r="N34">
         <v>0.5105762217359592</v>
@@ -14268,7 +14268,7 @@
         <v>0.4363636363636364</v>
       </c>
       <c r="P34">
-        <v>0.6202116016052536</v>
+        <v>0.6206644760861628</v>
       </c>
       <c r="Q34">
         <v>1319</v>
@@ -14445,7 +14445,7 @@
         <v>2</v>
       </c>
       <c r="BW34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX34">
         <v>0</v>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="CB34">
-        <v>2.429764616552772</v>
+        <v>2.43161094224924</v>
       </c>
       <c r="CC34">
         <v>2.054794520547945</v>
@@ -14517,7 +14517,7 @@
         <v>5.384615384615385</v>
       </c>
       <c r="CU34">
-        <v>1.204819277108434</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="CV34">
         <v>0</v>
@@ -14535,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="DA34">
-        <v>2.962962962962963</v>
+        <v>2.985074626865671</v>
       </c>
       <c r="DB34">
         <v>0</v>
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="DF34">
-        <v>0.9779951100244498</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="DG34">
         <v>0</v>
@@ -14571,7 +14571,7 @@
         <v>0.2728512960436562</v>
       </c>
       <c r="DM34">
-        <v>1.758793969849246</v>
+        <v>1.937046004842615</v>
       </c>
       <c r="DN34">
         <v>0</v>
@@ -14621,16 +14621,16 @@
         <v>2.436402723038337</v>
       </c>
       <c r="L35">
-        <v>2.316464718460442</v>
+        <v>2.317249260878459</v>
       </c>
       <c r="M35">
-        <v>2.587182681748823</v>
+        <v>2.586206896551724</v>
       </c>
       <c r="N35">
-        <v>0.6075768406004289</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="O35">
-        <v>0.5016123253314224</v>
+        <v>0.5017831252271445</v>
       </c>
       <c r="P35">
         <v>0.7158196134574087</v>
@@ -14642,7 +14642,7 @@
         <v>747</v>
       </c>
       <c r="S35">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T35">
         <v>61</v>
@@ -14651,7 +14651,7 @@
         <v>134</v>
       </c>
       <c r="V35">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W35">
         <v>9</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="CB35">
-        <v>3.050595238095238</v>
+        <v>3.048327137546468</v>
       </c>
       <c r="CC35">
         <v>1.208053691275168</v>
@@ -14870,10 +14870,10 @@
         <v>3.273809523809524</v>
       </c>
       <c r="CQ35">
-        <v>1.472556894243641</v>
+        <v>1.474530831099196</v>
       </c>
       <c r="CR35">
-        <v>2.941176470588235</v>
+        <v>2.93398533007335</v>
       </c>
       <c r="CS35">
         <v>3.278688524590164</v>
@@ -14882,7 +14882,7 @@
         <v>3.846153846153846</v>
       </c>
       <c r="CU35">
-        <v>3.658536585365853</v>
+        <v>3.614457831325301</v>
       </c>
       <c r="CV35">
         <v>0</v>
@@ -14915,7 +14915,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="DF35">
-        <v>1.21654501216545</v>
+        <v>1.213592233009709</v>
       </c>
       <c r="DG35">
         <v>0</v>
@@ -14930,13 +14930,13 @@
         <v>0</v>
       </c>
       <c r="DK35">
-        <v>0.2237219940565628</v>
+        <v>0.2237136465324385</v>
       </c>
       <c r="DL35">
-        <v>0.5340453938584779</v>
+        <v>0.53475935828877</v>
       </c>
       <c r="DM35">
-        <v>2.200488997555012</v>
+        <v>2.195121951219512</v>
       </c>
       <c r="DN35">
         <v>0</v>
@@ -14968,7 +14968,7 @@
         <v>60</v>
       </c>
       <c r="F36">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G36">
         <v>64</v>
@@ -14983,22 +14983,22 @@
         <v>17</v>
       </c>
       <c r="K36">
-        <v>2.109704641350211</v>
+        <v>2.10896309314587</v>
       </c>
       <c r="L36">
-        <v>1.976005645730416</v>
+        <v>1.993006993006993</v>
       </c>
       <c r="M36">
-        <v>2.259887005649718</v>
+        <v>2.257495590828924</v>
       </c>
       <c r="N36">
-        <v>0.4914004914004914</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="O36">
-        <v>0.3863716192483316</v>
+        <v>0.3865073787772312</v>
       </c>
       <c r="P36">
-        <v>0.5979704215670525</v>
+        <v>0.5983808518127419</v>
       </c>
       <c r="Q36">
         <v>1386</v>
@@ -15076,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -15190,19 +15190,19 @@
         <v>0</v>
       </c>
       <c r="CB36">
-        <v>2.595529920692141</v>
+        <v>2.597402597402597</v>
       </c>
       <c r="CC36">
         <v>1.19047619047619</v>
       </c>
       <c r="CD36">
-        <v>2.682926829268293</v>
+        <v>2.67639902676399</v>
       </c>
       <c r="CE36">
         <v>1.587301587301587</v>
       </c>
       <c r="CF36">
-        <v>1.45985401459854</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="CG36">
         <v>1.176470588235294</v>
@@ -15217,7 +15217,7 @@
         <v>1.056803170409511</v>
       </c>
       <c r="CK36">
-        <v>2.173913043478261</v>
+        <v>2.179176755447942</v>
       </c>
       <c r="CL36">
         <v>1.587301587301587</v>
@@ -15238,13 +15238,13 @@
         <v>1.33155792276964</v>
       </c>
       <c r="CR36">
-        <v>3.398058252427184</v>
+        <v>3.40632603406326</v>
       </c>
       <c r="CS36">
         <v>1.587301587301587</v>
       </c>
       <c r="CT36">
-        <v>2.325581395348837</v>
+        <v>2.307692307692308</v>
       </c>
       <c r="CU36">
         <v>2.352941176470588</v>
@@ -15259,13 +15259,13 @@
         <v>0.2659574468085106</v>
       </c>
       <c r="CY36">
-        <v>1.199040767386091</v>
+        <v>1.201923076923077</v>
       </c>
       <c r="CZ36">
         <v>0</v>
       </c>
       <c r="DA36">
-        <v>3.816793893129771</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="DB36">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="DO36">
-        <v>5.303030303030303</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="DP36">
         <v>0</v>
@@ -15348,31 +15348,31 @@
         <v>16</v>
       </c>
       <c r="K37">
-        <v>2.006920415224913</v>
+        <v>2.007615091727241</v>
       </c>
       <c r="L37">
-        <v>1.891984864121087</v>
+        <v>1.895244658855961</v>
       </c>
       <c r="M37">
-        <v>2.15203054494967</v>
+        <v>2.154273801250869</v>
       </c>
       <c r="N37">
-        <v>0.4488950276243094</v>
+        <v>0.4490500863557859</v>
       </c>
       <c r="O37">
         <v>0.3456619426201175</v>
       </c>
       <c r="P37">
-        <v>0.5540262155214848</v>
+        <v>0.5546023359622323</v>
       </c>
       <c r="Q37">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="R37">
         <v>760</v>
       </c>
       <c r="S37">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T37">
         <v>64</v>
@@ -15408,7 +15408,7 @@
         <v>8</v>
       </c>
       <c r="AE37">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="AF37">
         <v>765</v>
@@ -15558,7 +15558,7 @@
         <v>1.897399859451862</v>
       </c>
       <c r="CC37">
-        <v>1.71957671957672</v>
+        <v>1.717305151915456</v>
       </c>
       <c r="CD37">
         <v>2.60047281323877</v>
@@ -15567,7 +15567,7 @@
         <v>1.5625</v>
       </c>
       <c r="CF37">
-        <v>4.477611940298507</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="CG37">
         <v>0</v>
@@ -15582,7 +15582,7 @@
         <v>1.574803149606299</v>
       </c>
       <c r="CK37">
-        <v>2.127659574468085</v>
+        <v>2.122641509433962</v>
       </c>
       <c r="CL37">
         <v>1.5625</v>
@@ -15597,10 +15597,10 @@
         <v>0</v>
       </c>
       <c r="CP37">
-        <v>2.050919377652051</v>
+        <v>2.052443518201084</v>
       </c>
       <c r="CQ37">
-        <v>1.984126984126984</v>
+        <v>1.981505944517834</v>
       </c>
       <c r="CR37">
         <v>3.16301703163017</v>
@@ -15621,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="CX37">
-        <v>0.1322751322751323</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="CY37">
         <v>1.682692307692308</v>
@@ -15630,7 +15630,7 @@
         <v>3.125</v>
       </c>
       <c r="DA37">
-        <v>1.5625</v>
+        <v>1.550387596899225</v>
       </c>
       <c r="DB37">
         <v>0</v>
@@ -15666,7 +15666,7 @@
         <v>0.3963011889035667</v>
       </c>
       <c r="DM37">
-        <v>2.173913043478261</v>
+        <v>2.179176755447942</v>
       </c>
       <c r="DN37">
         <v>3.125</v>
@@ -15692,7 +15692,7 @@
         <v>2922</v>
       </c>
       <c r="D38">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="E38">
         <v>67</v>
@@ -15713,22 +15713,22 @@
         <v>22</v>
       </c>
       <c r="K38">
-        <v>2.274656320849427</v>
+        <v>2.275815217391304</v>
       </c>
       <c r="L38">
-        <v>2.14431586113002</v>
+        <v>2.144279380764911</v>
       </c>
       <c r="M38">
-        <v>2.419904567143831</v>
+        <v>2.421555252387449</v>
       </c>
       <c r="N38">
-        <v>0.6462585034013605</v>
+        <v>0.6464783940115686</v>
       </c>
       <c r="O38">
-        <v>0.5445881552076242</v>
+        <v>0.5447735784814436</v>
       </c>
       <c r="P38">
-        <v>0.7505970658478335</v>
+        <v>0.7511095937179925</v>
       </c>
       <c r="Q38">
         <v>1447</v>
@@ -15758,7 +15758,7 @@
         <v>768</v>
       </c>
       <c r="Z38">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA38">
         <v>63</v>
@@ -15767,7 +15767,7 @@
         <v>128</v>
       </c>
       <c r="AC38">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD38">
         <v>8</v>
@@ -15779,7 +15779,7 @@
         <v>777</v>
       </c>
       <c r="AG38">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AH38">
         <v>64</v>
@@ -15968,7 +15968,7 @@
         <v>2.34375</v>
       </c>
       <c r="CR38">
-        <v>2.15311004784689</v>
+        <v>2.168674698795181</v>
       </c>
       <c r="CS38">
         <v>1.587301587301587</v>
@@ -15983,13 +15983,13 @@
         <v>0</v>
       </c>
       <c r="CW38">
-        <v>0.1378359751895245</v>
+        <v>0.1377410468319559</v>
       </c>
       <c r="CX38">
         <v>0.648508430609598</v>
       </c>
       <c r="CY38">
-        <v>1.891252955082742</v>
+        <v>1.895734597156398</v>
       </c>
       <c r="CZ38">
         <v>1.587301587301587</v>
@@ -16010,7 +16010,7 @@
         <v>0.516795865633075</v>
       </c>
       <c r="DF38">
-        <v>1.635514018691589</v>
+        <v>1.639152750114907</v>
       </c>
       <c r="DG38">
         <v>1.587301587301587</v>
@@ -16025,19 +16025,19 @@
         <v>0</v>
       </c>
       <c r="DK38">
-        <v>0.2071823204419889</v>
+        <v>0.2070393374741201</v>
       </c>
       <c r="DL38">
-        <v>0.9079118028534372</v>
+        <v>0.9067357512953367</v>
       </c>
       <c r="DM38">
-        <v>2.364066193853428</v>
+        <v>2.369668246445498</v>
       </c>
       <c r="DN38">
         <v>3.125</v>
       </c>
       <c r="DO38">
-        <v>2.985074626865671</v>
+        <v>2.986196835372016</v>
       </c>
       <c r="DP38">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>2983</v>
       </c>
       <c r="C39">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D39">
         <v>2996</v>
@@ -16078,22 +16078,22 @@
         <v>18</v>
       </c>
       <c r="K39">
-        <v>1.681802892700976</v>
+        <v>1.683501683501683</v>
       </c>
       <c r="L39">
-        <v>1.571354549387914</v>
+        <v>1.57190635451505</v>
       </c>
       <c r="M39">
-        <v>1.842546063651591</v>
+        <v>1.843781428092524</v>
       </c>
       <c r="N39">
         <v>0.5028494803888702</v>
       </c>
       <c r="O39">
-        <v>0.4047217537942664</v>
+        <v>0.4034969737726967</v>
       </c>
       <c r="P39">
-        <v>0.6042296072507553</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="Q39">
         <v>1483</v>
@@ -16108,7 +16108,7 @@
         <v>63</v>
       </c>
       <c r="U39">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V39">
         <v>88</v>
@@ -16117,7 +16117,7 @@
         <v>9</v>
       </c>
       <c r="X39">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="Y39">
         <v>779</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="CM39">
-        <v>2.173913043478261</v>
+        <v>2.18978102189781</v>
       </c>
       <c r="CN39">
         <v>1.111111111111111</v>
@@ -16333,7 +16333,7 @@
         <v>1.149425287356322</v>
       </c>
       <c r="CR39">
-        <v>2.403846153846154</v>
+        <v>2.398081534772182</v>
       </c>
       <c r="CS39">
         <v>0</v>
@@ -16348,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="CW39">
-        <v>0.06720430107526883</v>
+        <v>0.06724949562878278</v>
       </c>
       <c r="CX39">
         <v>0.6385696040868455</v>
@@ -16360,7 +16360,7 @@
         <v>1.587301587301587</v>
       </c>
       <c r="DA39">
-        <v>2.238805970149254</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="DB39">
         <v>0</v>
@@ -16372,16 +16372,16 @@
         <v>0</v>
       </c>
       <c r="DE39">
-        <v>0.5089058524173028</v>
+        <v>0.5095541401273885</v>
       </c>
       <c r="DF39">
-        <v>0.936768149882904</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="DG39">
         <v>1.587301587301587</v>
       </c>
       <c r="DH39">
-        <v>1.45985401459854</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="DI39">
         <v>0</v>
@@ -16390,13 +16390,13 @@
         <v>0</v>
       </c>
       <c r="DK39">
-        <v>0.1346801346801347</v>
+        <v>0.1347708894878706</v>
       </c>
       <c r="DL39">
         <v>0.8928571428571428</v>
       </c>
       <c r="DM39">
-        <v>1.666666666666667</v>
+        <v>1.66270783847981</v>
       </c>
       <c r="DN39">
         <v>1.587301587301587</v>
@@ -16437,28 +16437,28 @@
         <v>15</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40">
         <v>1.588877855014896</v>
       </c>
       <c r="L40">
-        <v>1.456471367096988</v>
+        <v>1.457436237164624</v>
       </c>
       <c r="M40">
-        <v>1.728148886673313</v>
+        <v>1.728723404255319</v>
       </c>
       <c r="N40">
-        <v>0.4975124378109453</v>
+        <v>0.4973474801061007</v>
       </c>
       <c r="O40">
-        <v>0.3999933355548151</v>
+        <v>0.4287598944591029</v>
       </c>
       <c r="P40">
-        <v>0.6266594138493266</v>
+        <v>0.5978080371969445</v>
       </c>
       <c r="Q40">
         <v>1512</v>
@@ -16473,7 +16473,7 @@
         <v>62</v>
       </c>
       <c r="U40">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V40">
         <v>89</v>
@@ -16509,7 +16509,7 @@
         <v>790</v>
       </c>
       <c r="AG40">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AH40">
         <v>62</v>
@@ -16566,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="AZ40">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA40">
         <v>7</v>
@@ -16650,13 +16650,13 @@
         <v>1</v>
       </c>
       <c r="CB40">
-        <v>1.782178217821782</v>
+        <v>1.781002638522428</v>
       </c>
       <c r="CC40">
         <v>0.6369426751592357</v>
       </c>
       <c r="CD40">
-        <v>2.093023255813954</v>
+        <v>2.102803738317757</v>
       </c>
       <c r="CE40">
         <v>0</v>
@@ -16671,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="CI40">
-        <v>1.643655489809336</v>
+        <v>1.64257555847569</v>
       </c>
       <c r="CJ40">
         <v>0.5069708491761723</v>
@@ -16692,10 +16692,10 @@
         <v>0</v>
       </c>
       <c r="CP40">
-        <v>1.932045303131246</v>
+        <v>1.976349722903276</v>
       </c>
       <c r="CQ40">
-        <v>0.8928571428571428</v>
+        <v>0.89171974522293</v>
       </c>
       <c r="CR40">
         <v>2.631578947368421</v>
@@ -16719,7 +16719,7 @@
         <v>0.6369426751592357</v>
       </c>
       <c r="CY40">
-        <v>0.9302325581395349</v>
+        <v>0.9280742459396751</v>
       </c>
       <c r="CZ40">
         <v>1.612903225806452</v>
@@ -16787,7 +16787,7 @@
         <v>3039</v>
       </c>
       <c r="D41">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="E41">
         <v>58</v>
@@ -16808,22 +16808,22 @@
         <v>25</v>
       </c>
       <c r="K41">
-        <v>1.899770717327219</v>
+        <v>1.901016060308096</v>
       </c>
       <c r="L41">
-        <v>1.792114695340502</v>
+        <v>1.794453507340946</v>
       </c>
       <c r="M41">
-        <v>2.038166318261429</v>
+        <v>2.036793692509855</v>
       </c>
       <c r="N41">
         <v>0.6898817345597897</v>
       </c>
       <c r="O41">
-        <v>0.6213211249182472</v>
+        <v>0.6213109692934529</v>
       </c>
       <c r="P41">
-        <v>0.8169934640522877</v>
+        <v>0.8161932745674175</v>
       </c>
       <c r="Q41">
         <v>1539</v>
@@ -16850,7 +16850,7 @@
         <v>1532</v>
       </c>
       <c r="Y41">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Z41">
         <v>422</v>
@@ -16871,10 +16871,10 @@
         <v>1546</v>
       </c>
       <c r="AF41">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AG41">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AH41">
         <v>61</v>
@@ -17018,7 +17018,7 @@
         <v>2.214983713355049</v>
       </c>
       <c r="CC41">
-        <v>1.267427122940431</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="CD41">
         <v>1.84331797235023</v>
@@ -17042,7 +17042,7 @@
         <v>1.140684410646388</v>
       </c>
       <c r="CK41">
-        <v>1.382488479262673</v>
+        <v>1.38568129330254</v>
       </c>
       <c r="CL41">
         <v>1.639344262295082</v>
@@ -17069,7 +17069,7 @@
         <v>1.639344262295082</v>
       </c>
       <c r="CT41">
-        <v>4.964539007092199</v>
+        <v>5.035971223021583</v>
       </c>
       <c r="CU41">
         <v>1.123595505617978</v>
@@ -17105,7 +17105,7 @@
         <v>0.6345177664974619</v>
       </c>
       <c r="DF41">
-        <v>0.9195402298850575</v>
+        <v>0.9174311926605505</v>
       </c>
       <c r="DG41">
         <v>0</v>
@@ -17126,7 +17126,7 @@
         <v>0.8928571428571428</v>
       </c>
       <c r="DM41">
-        <v>1.86046511627907</v>
+        <v>1.85614849187935</v>
       </c>
       <c r="DN41">
         <v>0</v>
@@ -17173,10 +17173,10 @@
         <v>25</v>
       </c>
       <c r="K42">
-        <v>2.131782945736434</v>
+        <v>2.133160956690368</v>
       </c>
       <c r="L42">
-        <v>2.031602708803612</v>
+        <v>2.032913843175218</v>
       </c>
       <c r="M42">
         <v>2.263174911089557</v>
@@ -17185,16 +17185,16 @@
         <v>0.7147498375568551</v>
       </c>
       <c r="O42">
-        <v>0.6478677086427959</v>
+        <v>0.6474587245063127</v>
       </c>
       <c r="P42">
-        <v>0.8108984755108661</v>
+        <v>0.8106355382619975</v>
       </c>
       <c r="Q42">
         <v>1567</v>
       </c>
       <c r="R42">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="S42">
         <v>433</v>
@@ -17212,7 +17212,7 @@
         <v>8</v>
       </c>
       <c r="X42">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="Y42">
         <v>786</v>
@@ -17239,7 +17239,7 @@
         <v>793</v>
       </c>
       <c r="AG42">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH42">
         <v>62</v>
@@ -17380,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="CB42">
-        <v>2.036919159770846</v>
+        <v>2.035623409669211</v>
       </c>
       <c r="CC42">
         <v>1.269035532994924</v>
@@ -17407,7 +17407,7 @@
         <v>1.261034047919294</v>
       </c>
       <c r="CK42">
-        <v>3.211009174311927</v>
+        <v>3.218390804597701</v>
       </c>
       <c r="CL42">
         <v>1.612903225806452</v>
@@ -17422,13 +17422,13 @@
         <v>0</v>
       </c>
       <c r="CP42">
-        <v>2.17530390275112</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="CQ42">
-        <v>1.511430304839894</v>
+        <v>1.517067003792667</v>
       </c>
       <c r="CR42">
-        <v>4.285714285714286</v>
+        <v>4.235294117647059</v>
       </c>
       <c r="CS42">
         <v>1.612903225806452</v>
@@ -17449,7 +17449,7 @@
         <v>0.8894536213468869</v>
       </c>
       <c r="CY42">
-        <v>2.083333333333333</v>
+        <v>2.078521939953811</v>
       </c>
       <c r="CZ42">
         <v>0</v>
@@ -17470,7 +17470,7 @@
         <v>0.8838383838383838</v>
       </c>
       <c r="DF42">
-        <v>1.639344262295082</v>
+        <v>1.631511898953759</v>
       </c>
       <c r="DG42">
         <v>0</v>
@@ -17485,13 +17485,13 @@
         <v>0</v>
       </c>
       <c r="DK42">
-        <v>0.1283697047496791</v>
+        <v>0.1283738270908721</v>
       </c>
       <c r="DL42">
-        <v>1.136363636363636</v>
+        <v>1.133501259445844</v>
       </c>
       <c r="DM42">
-        <v>2.54041570438799</v>
+        <v>2.534562211981567</v>
       </c>
       <c r="DN42">
         <v>0</v>
@@ -17514,16 +17514,16 @@
         <v>3132</v>
       </c>
       <c r="C43">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D43">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="E43">
         <v>47</v>
       </c>
       <c r="F43">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>50</v>
@@ -17535,25 +17535,25 @@
         <v>15</v>
       </c>
       <c r="J43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K43">
-        <v>1.496815286624204</v>
+        <v>1.495862507956715</v>
       </c>
       <c r="L43">
-        <v>1.379089159717768</v>
+        <v>1.398156974896727</v>
       </c>
       <c r="M43">
-        <v>1.606193489942253</v>
+        <v>1.606735466485919</v>
       </c>
       <c r="N43">
-        <v>0.5426109160548994</v>
+        <v>0.5424377791959157</v>
       </c>
       <c r="O43">
-        <v>0.4781638508128785</v>
+        <v>0.4778591908251035</v>
       </c>
       <c r="P43">
-        <v>0.6357380154171599</v>
+        <v>0.6097854786771447</v>
       </c>
       <c r="Q43">
         <v>1598</v>
@@ -17583,7 +17583,7 @@
         <v>789</v>
       </c>
       <c r="Z43">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA43">
         <v>63</v>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="CB43">
-        <v>1.807980049875312</v>
+        <v>1.807416816214914</v>
       </c>
       <c r="CC43">
         <v>0.6321112515802781</v>
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="CP43">
-        <v>1.944792973651192</v>
+        <v>1.943573667711599</v>
       </c>
       <c r="CQ43">
         <v>0.8816120906801008</v>
@@ -17802,7 +17802,7 @@
         <v>3.623188405797102</v>
       </c>
       <c r="CU43">
-        <v>3.333333333333333</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="CV43">
         <v>0</v>
@@ -17820,7 +17820,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>2.877697841726619</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="DB43">
         <v>0</v>
@@ -17850,19 +17850,19 @@
         <v>0</v>
       </c>
       <c r="DK43">
-        <v>0.2518891687657431</v>
+        <v>0.2520478890989288</v>
       </c>
       <c r="DL43">
-        <v>0.7528230865746549</v>
+        <v>0.7537688442211055</v>
       </c>
       <c r="DM43">
-        <v>1.395348837209302</v>
+        <v>1.38568129330254</v>
       </c>
       <c r="DN43">
         <v>0</v>
       </c>
       <c r="DO43">
-        <v>4.25531914893617</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="DP43">
         <v>0</v>
@@ -17903,22 +17903,22 @@
         <v>17</v>
       </c>
       <c r="K44">
-        <v>1.491116751269036</v>
+        <v>1.490171211160431</v>
       </c>
       <c r="L44">
-        <v>1.391084413531458</v>
+        <v>1.390644753476612</v>
       </c>
       <c r="M44">
-        <v>1.619561765639886</v>
+        <v>1.618533798794033</v>
       </c>
       <c r="N44">
-        <v>0.4433185560481318</v>
+        <v>0.4435994930291508</v>
       </c>
       <c r="O44">
         <v>0.3792667509481669</v>
       </c>
       <c r="P44">
-        <v>0.5371248025276461</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="Q44">
         <v>1623</v>
@@ -17963,7 +17963,7 @@
         <v>7</v>
       </c>
       <c r="AE44">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AF44">
         <v>797</v>
@@ -18029,7 +18029,7 @@
         <v>34</v>
       </c>
       <c r="BA44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB44">
         <v>13</v>
@@ -18116,7 +18116,7 @@
         <v>0.2525252525252525</v>
       </c>
       <c r="CD44">
-        <v>2.293577981651376</v>
+        <v>2.288329519450801</v>
       </c>
       <c r="CE44">
         <v>1.5625</v>
@@ -18137,7 +18137,7 @@
         <v>0.2509410288582183</v>
       </c>
       <c r="CK44">
-        <v>1.818181818181818</v>
+        <v>1.822323462414579</v>
       </c>
       <c r="CL44">
         <v>1.5625</v>
@@ -18152,13 +18152,13 @@
         <v>0</v>
       </c>
       <c r="CP44">
-        <v>2.087170042971148</v>
+        <v>2.085953594173097</v>
       </c>
       <c r="CQ44">
-        <v>0.3802281368821293</v>
+        <v>0.5025125628140703</v>
       </c>
       <c r="CR44">
-        <v>2.981651376146789</v>
+        <v>2.974828375286041</v>
       </c>
       <c r="CS44">
         <v>1.5625</v>
@@ -18179,7 +18179,7 @@
         <v>0.7547169811320755</v>
       </c>
       <c r="CY44">
-        <v>0.6928406466512702</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="CZ44">
         <v>0</v>
@@ -18215,7 +18215,7 @@
         <v>0</v>
       </c>
       <c r="DK44">
-        <v>0.3090234857849197</v>
+        <v>0.3088326127239036</v>
       </c>
       <c r="DL44">
         <v>0.8827238335435058</v>
@@ -18268,22 +18268,22 @@
         <v>27</v>
       </c>
       <c r="K45">
-        <v>1.417769516913128</v>
+        <v>1.415539477823215</v>
       </c>
       <c r="L45">
-        <v>1.314142678347935</v>
+        <v>1.314965560425798</v>
       </c>
       <c r="M45">
-        <v>1.562011871290222</v>
+        <v>1.559575795383656</v>
       </c>
       <c r="N45">
-        <v>0.7818608478907387</v>
+        <v>0.7817385866166353</v>
       </c>
       <c r="O45">
-        <v>0.71875</v>
+        <v>0.718525460793502</v>
       </c>
       <c r="P45">
-        <v>0.850125944584383</v>
+        <v>0.8488163886729549</v>
       </c>
       <c r="Q45">
         <v>1650</v>
@@ -18298,7 +18298,7 @@
         <v>65</v>
       </c>
       <c r="U45">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V45">
         <v>93</v>
@@ -18481,13 +18481,13 @@
         <v>0.3802281368821293</v>
       </c>
       <c r="CD45">
-        <v>2.247191011235955</v>
+        <v>2.252252252252252</v>
       </c>
       <c r="CE45">
         <v>0</v>
       </c>
       <c r="CF45">
-        <v>1.449275362318841</v>
+        <v>1.43884892086331</v>
       </c>
       <c r="CG45">
         <v>0</v>
@@ -18502,7 +18502,7 @@
         <v>0.3783102143757882</v>
       </c>
       <c r="CK45">
-        <v>1.785714285714286</v>
+        <v>1.79372197309417</v>
       </c>
       <c r="CL45">
         <v>0</v>
@@ -18520,10 +18520,10 @@
         <v>1.939393939393939</v>
       </c>
       <c r="CQ45">
-        <v>0.6305170239596469</v>
+        <v>0.6297626270166223</v>
       </c>
       <c r="CR45">
-        <v>2.927927927927928</v>
+        <v>2.934537246049661</v>
       </c>
       <c r="CS45">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>2.877697841726619</v>
       </c>
       <c r="CU45">
-        <v>1.075268817204301</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="CV45">
         <v>0</v>
@@ -18580,7 +18580,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="DK45">
-        <v>0.3634161114476075</v>
+        <v>0.3631961259079903</v>
       </c>
       <c r="DL45">
         <v>1.390644753476612</v>
@@ -18592,10 +18592,10 @@
         <v>0</v>
       </c>
       <c r="DO45">
-        <v>3.571428571428571</v>
+        <v>3.597122302158273</v>
       </c>
       <c r="DP45">
-        <v>1.075268817204301</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="DQ45">
         <v>14.28571428571428</v>
@@ -18612,7 +18612,7 @@
         <v>3204</v>
       </c>
       <c r="D46">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="E46">
         <v>41</v>
@@ -18621,7 +18621,7 @@
         <v>38</v>
       </c>
       <c r="G46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>15</v>
@@ -18633,13 +18633,13 @@
         <v>18</v>
       </c>
       <c r="K46">
-        <v>1.280649726691827</v>
+        <v>1.280049953168904</v>
       </c>
       <c r="L46">
         <v>1.181224743549891</v>
       </c>
       <c r="M46">
-        <v>1.428571428571429</v>
+        <v>1.404954813793986</v>
       </c>
       <c r="N46">
         <v>0.4667081518357187</v>
@@ -18648,7 +18648,7 @@
         <v>0.4037267080745341</v>
       </c>
       <c r="P46">
-        <v>0.5593536357986327</v>
+        <v>0.5595275101025801</v>
       </c>
       <c r="Q46">
         <v>1675</v>
@@ -18672,7 +18672,7 @@
         <v>8</v>
       </c>
       <c r="X46">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="Y46">
         <v>780</v>
@@ -18693,7 +18693,7 @@
         <v>6</v>
       </c>
       <c r="AE46">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="AF46">
         <v>787</v>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="CB46">
-        <v>1.433691756272401</v>
+        <v>1.432835820895522</v>
       </c>
       <c r="CC46">
         <v>0.3831417624521072</v>
@@ -18882,13 +18882,13 @@
         <v>0</v>
       </c>
       <c r="CP46">
-        <v>1.611940298507463</v>
+        <v>1.610978520286396</v>
       </c>
       <c r="CQ46">
-        <v>0.5148005148005148</v>
+        <v>0.5134788189987163</v>
       </c>
       <c r="CR46">
-        <v>2.460850111856823</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="CS46">
         <v>1.538461538461539</v>
@@ -18909,7 +18909,7 @@
         <v>0.8905852417302799</v>
       </c>
       <c r="CY46">
-        <v>0.6622516556291391</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="CZ46">
         <v>0</v>
@@ -18960,7 +18960,7 @@
         <v>3.52112676056338</v>
       </c>
       <c r="DP46">
-        <v>1.063829787234043</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="DQ46">
         <v>0</v>
@@ -18998,22 +18998,22 @@
         <v>21</v>
       </c>
       <c r="K47">
-        <v>1.481481481481482</v>
+        <v>1.481938870021612</v>
       </c>
       <c r="L47">
-        <v>1.386300278886753</v>
+        <v>1.385467980295567</v>
       </c>
       <c r="M47">
-        <v>1.605433775856746</v>
+        <v>1.606450523974762</v>
       </c>
       <c r="N47">
-        <v>0.584435558289757</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="O47">
-        <v>0.4942848316342292</v>
+        <v>0.4939796233405372</v>
       </c>
       <c r="P47">
-        <v>0.6493506493506493</v>
+        <v>0.6511829943213387</v>
       </c>
       <c r="Q47">
         <v>1697</v>
@@ -19070,7 +19070,7 @@
         <v>66</v>
       </c>
       <c r="AI47">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ47">
         <v>97</v>
@@ -19124,7 +19124,7 @@
         <v>23</v>
       </c>
       <c r="BA47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB47">
         <v>17</v>
@@ -19247,10 +19247,10 @@
         <v>0</v>
       </c>
       <c r="CP47">
-        <v>1.358535144713526</v>
+        <v>1.359338061465721</v>
       </c>
       <c r="CQ47">
-        <v>1.03359173126615</v>
+        <v>1.150895140664962</v>
       </c>
       <c r="CR47">
         <v>3.752759381898454</v>
@@ -19259,7 +19259,7 @@
         <v>1.515151515151515</v>
       </c>
       <c r="CT47">
-        <v>3.64963503649635</v>
+        <v>3.623188405797102</v>
       </c>
       <c r="CU47">
         <v>2.105263157894737</v>
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="DA47">
-        <v>1.470588235294118</v>
+        <v>1.481481481481482</v>
       </c>
       <c r="DB47">
         <v>0</v>
@@ -19301,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="DH47">
-        <v>0.7142857142857143</v>
+        <v>0.7194244604316548</v>
       </c>
       <c r="DI47">
         <v>0</v>
@@ -19310,7 +19310,7 @@
         <v>12.5</v>
       </c>
       <c r="DK47">
-        <v>0.3527336860670194</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="DL47">
         <v>0.7682458386683738</v>
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="DO47">
-        <v>2.91970802919708</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="DP47">
         <v>1.041666666666667</v>
@@ -19336,7 +19336,7 @@
         <v>2006</v>
       </c>
       <c r="B48">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="C48">
         <v>3260</v>
@@ -19360,10 +19360,10 @@
         <v>26</v>
       </c>
       <c r="J48">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K48">
-        <v>0.8570554025099479</v>
+        <v>0.8573178199632578</v>
       </c>
       <c r="L48">
         <v>0.7642922653622746</v>
@@ -19375,10 +19375,10 @@
         <v>0.8547008547008548</v>
       </c>
       <c r="O48">
-        <v>0.7929246721561453</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="P48">
-        <v>0.9211071749450626</v>
+        <v>0.9428367261134145</v>
       </c>
       <c r="Q48">
         <v>1713</v>
@@ -19405,7 +19405,7 @@
         <v>1707</v>
       </c>
       <c r="Y48">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z48">
         <v>459</v>
@@ -19489,7 +19489,7 @@
         <v>18</v>
       </c>
       <c r="BA48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB48">
         <v>12</v>
@@ -19570,7 +19570,7 @@
         <v>0</v>
       </c>
       <c r="CB48">
-        <v>0.8792497069167644</v>
+        <v>0.8782201405152225</v>
       </c>
       <c r="CC48">
         <v>0</v>
@@ -19615,7 +19615,7 @@
         <v>1.052016364699006</v>
       </c>
       <c r="CQ48">
-        <v>0.1285347043701799</v>
+        <v>0.2547933186013259</v>
       </c>
       <c r="CR48">
         <v>2.620087336244541</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="CT48">
-        <v>2.797202797202797</v>
+        <v>2.836879432624114</v>
       </c>
       <c r="CU48">
         <v>1.041666666666667</v>
@@ -19639,7 +19639,7 @@
         <v>0.8951406649616368</v>
       </c>
       <c r="CY48">
-        <v>1.295896328293737</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="CZ48">
         <v>1.492537313432836</v>
@@ -19654,13 +19654,13 @@
         <v>0</v>
       </c>
       <c r="DD48">
-        <v>0.4656577415599534</v>
+        <v>0.4653868528214078</v>
       </c>
       <c r="DE48">
         <v>0.8905852417302799</v>
       </c>
       <c r="DF48">
-        <v>1.271186440677966</v>
+        <v>1.273885350318471</v>
       </c>
       <c r="DG48">
         <v>1.492537313432836</v>
@@ -19675,19 +19675,19 @@
         <v>0</v>
       </c>
       <c r="DK48">
-        <v>0.5260081823495032</v>
+        <v>0.5257009345794392</v>
       </c>
       <c r="DL48">
-        <v>1.024327784891165</v>
+        <v>1.023017902813299</v>
       </c>
       <c r="DM48">
-        <v>1.702127659574468</v>
+        <v>1.705756929637527</v>
       </c>
       <c r="DN48">
         <v>1.492537313432836</v>
       </c>
       <c r="DO48">
-        <v>4.964539007092199</v>
+        <v>4.966312056737595</v>
       </c>
       <c r="DP48">
         <v>1.030927835051546</v>
@@ -19731,19 +19731,19 @@
         <v>1.314984709480122</v>
       </c>
       <c r="L49">
-        <v>1.222493887530562</v>
+        <v>1.222867624579639</v>
       </c>
       <c r="M49">
-        <v>1.438188494492044</v>
+        <v>1.437308868501529</v>
       </c>
       <c r="N49">
         <v>0.4272200183094294</v>
       </c>
       <c r="O49">
-        <v>0.3658536585365854</v>
+        <v>0.3656307129798903</v>
       </c>
       <c r="P49">
-        <v>0.4901960784313725</v>
+        <v>0.4904966278356836</v>
       </c>
       <c r="Q49">
         <v>1721</v>
@@ -19854,7 +19854,7 @@
         <v>27</v>
       </c>
       <c r="BA49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB49">
         <v>12</v>
@@ -19935,13 +19935,13 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>1.39697322467986</v>
+        <v>1.39778683750728</v>
       </c>
       <c r="CC49">
         <v>0.6451612903225806</v>
       </c>
       <c r="CD49">
-        <v>2.11864406779661</v>
+        <v>2.123142250530786</v>
       </c>
       <c r="CE49">
         <v>1.515151515151515</v>
@@ -19962,7 +19962,7 @@
         <v>0.6418485237483954</v>
       </c>
       <c r="CK49">
-        <v>1.694915254237288</v>
+        <v>1.691331923890063</v>
       </c>
       <c r="CL49">
         <v>1.515151515151515</v>
@@ -19977,13 +19977,13 @@
         <v>14.28571428571428</v>
       </c>
       <c r="CP49">
-        <v>1.570680628272251</v>
+        <v>1.569767441860465</v>
       </c>
       <c r="CQ49">
-        <v>0.9009009009009009</v>
+        <v>0.7772020725388601</v>
       </c>
       <c r="CR49">
-        <v>2.597402597402597</v>
+        <v>2.603036876355748</v>
       </c>
       <c r="CS49">
         <v>1.515151515151515</v>
@@ -20004,7 +20004,7 @@
         <v>0.2570694087403599</v>
       </c>
       <c r="CY49">
-        <v>0.6493506493506493</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="CZ49">
         <v>1.515151515151515</v>
@@ -20046,7 +20046,7 @@
         <v>0.3865979381443299</v>
       </c>
       <c r="DM49">
-        <v>1.068376068376068</v>
+        <v>1.070663811563169</v>
       </c>
       <c r="DN49">
         <v>1.515151515151515</v>
@@ -20066,7 +20066,7 @@
         <v>2008</v>
       </c>
       <c r="B50">
-        <v>3301.5</v>
+        <v>3302</v>
       </c>
       <c r="C50">
         <v>3291</v>
@@ -20093,22 +20093,22 @@
         <v>28</v>
       </c>
       <c r="K50">
-        <v>1.331719128329298</v>
+        <v>1.332122313048744</v>
       </c>
       <c r="L50">
         <v>1.2409200968523</v>
       </c>
       <c r="M50">
-        <v>1.452784503631961</v>
+        <v>1.452344931921331</v>
       </c>
       <c r="N50">
         <v>0.7589556769884639</v>
       </c>
       <c r="O50">
-        <v>0.6965475469412478</v>
+        <v>0.6967585580127235</v>
       </c>
       <c r="P50">
-        <v>0.8495145631067961</v>
+        <v>0.8497723823975721</v>
       </c>
       <c r="Q50">
         <v>1741</v>
@@ -20312,7 +20312,7 @@
         <v>1.515151515151515</v>
       </c>
       <c r="CF50">
-        <v>2.962962962962963</v>
+        <v>2.985074626865671</v>
       </c>
       <c r="CG50">
         <v>3.125</v>
@@ -20342,19 +20342,19 @@
         <v>12.5</v>
       </c>
       <c r="CP50">
-        <v>1.153402537485583</v>
+        <v>1.154101406070718</v>
       </c>
       <c r="CQ50">
         <v>0.3875968992248062</v>
       </c>
       <c r="CR50">
-        <v>3.397027600849257</v>
+        <v>3.404255319148936</v>
       </c>
       <c r="CS50">
         <v>1.515151515151515</v>
       </c>
       <c r="CT50">
-        <v>4.37956204379562</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="CU50">
         <v>4.166666666666666</v>
@@ -20366,10 +20366,10 @@
         <v>0.6307339449541285</v>
       </c>
       <c r="CX50">
-        <v>0.5128205128205128</v>
+        <v>0.5121638924455826</v>
       </c>
       <c r="CY50">
-        <v>1.247401247401247</v>
+        <v>1.25</v>
       </c>
       <c r="CZ50">
         <v>0</v>
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="DD50">
-        <v>0.573394495412844</v>
+        <v>0.5730659025787965</v>
       </c>
       <c r="DE50">
         <v>0.3841229193341869</v>
@@ -20417,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="DO50">
-        <v>2.898550724637681</v>
+        <v>2.91970802919708</v>
       </c>
       <c r="DP50">
         <v>4.123711340206185</v>
@@ -20443,7 +20443,7 @@
         <v>39</v>
       </c>
       <c r="F51">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>43</v>
@@ -20455,25 +20455,25 @@
         <v>16</v>
       </c>
       <c r="J51">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51">
-        <v>1.176470588235294</v>
+        <v>1.175761230027133</v>
       </c>
       <c r="L51">
-        <v>1.10942864898486</v>
+        <v>1.085318058486584</v>
       </c>
       <c r="M51">
-        <v>1.297153808833315</v>
+        <v>1.296743063932449</v>
       </c>
       <c r="N51">
-        <v>0.5709134615384615</v>
+        <v>0.5710850616170725</v>
       </c>
       <c r="O51">
         <v>0.482218203737191</v>
       </c>
       <c r="P51">
-        <v>0.6342494714587738</v>
+        <v>0.6608591168519075</v>
       </c>
       <c r="Q51">
         <v>1749</v>
@@ -20509,7 +20509,7 @@
         <v>67</v>
       </c>
       <c r="AB51">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC51">
         <v>94</v>
@@ -20518,7 +20518,7 @@
         <v>8</v>
       </c>
       <c r="AE51">
-        <v>1753.05</v>
+        <v>1754</v>
       </c>
       <c r="AF51">
         <v>781</v>
@@ -20686,7 +20686,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="CI51">
-        <v>1.084474885844749</v>
+        <v>1.083856246434683</v>
       </c>
       <c r="CJ51">
         <v>0.5121638924455826</v>
@@ -20707,13 +20707,13 @@
         <v>11.11111111111111</v>
       </c>
       <c r="CP51">
-        <v>1.262227851870003</v>
+        <v>1.262191623637407</v>
       </c>
       <c r="CQ51">
-        <v>0.6451612903225806</v>
+        <v>0.646830530401035</v>
       </c>
       <c r="CR51">
-        <v>2.5</v>
+        <v>2.505219206680585</v>
       </c>
       <c r="CS51">
         <v>0</v>
@@ -20728,19 +20728,19 @@
         <v>14.28571428571428</v>
       </c>
       <c r="CW51">
-        <v>0.2288984450624084</v>
+        <v>0.2288329519450801</v>
       </c>
       <c r="CX51">
         <v>0.8985879332477535</v>
       </c>
       <c r="CY51">
-        <v>1.428571428571429</v>
+        <v>1.422764227642276</v>
       </c>
       <c r="CZ51">
         <v>0</v>
       </c>
       <c r="DA51">
-        <v>0.7142857142857143</v>
+        <v>0.7092198581560284</v>
       </c>
       <c r="DB51">
         <v>0</v>
@@ -20770,13 +20770,13 @@
         <v>0</v>
       </c>
       <c r="DK51">
-        <v>0.2870264064293915</v>
+        <v>0.2871912693854107</v>
       </c>
       <c r="DL51">
         <v>1.030927835051546</v>
       </c>
       <c r="DM51">
-        <v>1.663201663201663</v>
+        <v>1.659751037344398</v>
       </c>
       <c r="DN51">
         <v>0</v>
@@ -20785,7 +20785,7 @@
         <v>1.470588235294118</v>
       </c>
       <c r="DP51">
-        <v>1.052631578947368</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="DQ51">
         <v>0</v>
@@ -20826,19 +20826,19 @@
         <v>0.8965929468021518</v>
       </c>
       <c r="L52">
-        <v>0.8062108091967751</v>
+        <v>0.8059701492537313</v>
       </c>
       <c r="M52">
-        <v>0.9900990099009901</v>
+        <v>0.9912886752778614</v>
       </c>
       <c r="N52">
-        <v>0.8992805755395683</v>
+        <v>0.8990110878034162</v>
       </c>
       <c r="O52">
-        <v>0.8365700627427548</v>
+        <v>0.8368200836820083</v>
       </c>
       <c r="P52">
-        <v>0.9898020395920816</v>
+        <v>0.9895052473763118</v>
       </c>
       <c r="Q52">
         <v>1765</v>
@@ -20883,7 +20883,7 @@
         <v>9</v>
       </c>
       <c r="AE52">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="AF52">
         <v>779</v>
@@ -21021,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="BY52">
-        <v>6.050000000000182</v>
+        <v>6</v>
       </c>
       <c r="BZ52">
         <v>2</v>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="CP52">
-        <v>1.07770845150312</v>
+        <v>1.078320090805902</v>
       </c>
       <c r="CQ52">
         <v>0.6476683937823834</v>
@@ -21084,10 +21084,10 @@
         <v>0</v>
       </c>
       <c r="CT52">
-        <v>1.470588235294118</v>
+        <v>1.45985401459854</v>
       </c>
       <c r="CU52">
-        <v>2.083333333333333</v>
+        <v>2.061855670103093</v>
       </c>
       <c r="CV52">
         <v>0</v>
@@ -21099,13 +21099,13 @@
         <v>1.15979381443299</v>
       </c>
       <c r="CY52">
-        <v>1.425661914460285</v>
+        <v>1.422764227642276</v>
       </c>
       <c r="CZ52">
         <v>0</v>
       </c>
       <c r="DA52">
-        <v>3.52112676056338</v>
+        <v>3.546099290780142</v>
       </c>
       <c r="DB52">
         <v>1.030927835051546</v>
@@ -21114,13 +21114,13 @@
         <v>0</v>
       </c>
       <c r="DD52">
-        <v>0.4524886877828055</v>
+        <v>0.4527447651386531</v>
       </c>
       <c r="DE52">
         <v>1.02960102960103</v>
       </c>
       <c r="DF52">
-        <v>1.026694045174538</v>
+        <v>1.024590163934426</v>
       </c>
       <c r="DG52">
         <v>0</v>
@@ -21129,7 +21129,7 @@
         <v>2.816901408450704</v>
       </c>
       <c r="DI52">
-        <v>1.020408163265306</v>
+        <v>1.019892805607092</v>
       </c>
       <c r="DJ52">
         <v>0</v>
@@ -21138,16 +21138,16 @@
         <v>0.5662514156285391</v>
       </c>
       <c r="DL52">
-        <v>1.290322580645161</v>
+        <v>1.291989664082687</v>
       </c>
       <c r="DM52">
-        <v>1.663201663201663</v>
+        <v>1.677148846960168</v>
       </c>
       <c r="DN52">
         <v>0</v>
       </c>
       <c r="DO52">
-        <v>4.4934573706809</v>
+        <v>4.37956204379562</v>
       </c>
       <c r="DP52">
         <v>2.083333333333333</v>
@@ -21188,19 +21188,19 @@
         <v>38</v>
       </c>
       <c r="K53">
-        <v>1.227544910179641</v>
+        <v>1.227177491768932</v>
       </c>
       <c r="L53">
         <v>1.137384016761449</v>
       </c>
       <c r="M53">
-        <v>1.347305389221557</v>
+        <v>1.346499102333932</v>
       </c>
       <c r="N53">
-        <v>1.047590541753966</v>
+        <v>1.047904191616766</v>
       </c>
       <c r="O53">
-        <v>0.961813021664239</v>
+        <v>0.9603697464584393</v>
       </c>
       <c r="P53">
         <v>1.137384016761449</v>
@@ -21254,7 +21254,7 @@
         <v>774</v>
       </c>
       <c r="AG53">
-        <v>492.0500000000002</v>
+        <v>492</v>
       </c>
       <c r="AH53">
         <v>67</v>
@@ -21314,7 +21314,7 @@
         <v>21</v>
       </c>
       <c r="BA53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB53">
         <v>13</v>
@@ -21398,7 +21398,7 @@
         <v>1.06981981981982</v>
       </c>
       <c r="CC53">
-        <v>0.6493506493506493</v>
+        <v>0.648508430609598</v>
       </c>
       <c r="CD53">
         <v>2.083333333333333</v>
@@ -21422,7 +21422,7 @@
         <v>0.6459948320413437</v>
       </c>
       <c r="CK53">
-        <v>1.832993890020367</v>
+        <v>1.836547653684692</v>
       </c>
       <c r="CL53">
         <v>1.492537313432836</v>
@@ -21440,7 +21440,7 @@
         <v>1.185770750988142</v>
       </c>
       <c r="CQ53">
-        <v>0.9067357512953367</v>
+        <v>0.7832898172323759</v>
       </c>
       <c r="CR53">
         <v>2.685950413223141</v>
@@ -21449,7 +21449,7 @@
         <v>1.492537313432836</v>
       </c>
       <c r="CT53">
-        <v>3.787878787878788</v>
+        <v>3.759398496240602</v>
       </c>
       <c r="CU53">
         <v>2.083333333333333</v>
@@ -21458,13 +21458,13 @@
         <v>0</v>
       </c>
       <c r="CW53">
-        <v>0.2257336343115124</v>
+        <v>0.2256063169768754</v>
       </c>
       <c r="CX53">
         <v>1.818181818181818</v>
       </c>
       <c r="CY53">
-        <v>2.439024390243902</v>
+        <v>2.443991853360489</v>
       </c>
       <c r="CZ53">
         <v>0</v>
@@ -21473,7 +21473,7 @@
         <v>2.898550724637681</v>
       </c>
       <c r="DB53">
-        <v>1.041666666666667</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="DC53">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2.072538860103627</v>
       </c>
       <c r="DM53">
-        <v>2.702984234234235</v>
+        <v>2.713987473903967</v>
       </c>
       <c r="DN53">
         <v>0</v>
@@ -21556,19 +21556,19 @@
         <v>1.343283582089552</v>
       </c>
       <c r="L54">
-        <v>1.253357206803939</v>
+        <v>1.253731343283582</v>
       </c>
       <c r="M54">
-        <v>1.43884892086331</v>
+        <v>1.437125748502994</v>
       </c>
       <c r="N54">
-        <v>1.138747377884327</v>
+        <v>1.138065289008685</v>
       </c>
       <c r="O54">
-        <v>1.075590080669256</v>
+        <v>1.0749477455957</v>
       </c>
       <c r="P54">
-        <v>1.252609603340292</v>
+        <v>1.252236135957066</v>
       </c>
       <c r="Q54">
         <v>1788</v>
@@ -21613,7 +21613,7 @@
         <v>9</v>
       </c>
       <c r="AE54">
-        <v>1791</v>
+        <v>1791.05</v>
       </c>
       <c r="AF54">
         <v>765</v>
@@ -21625,7 +21625,7 @@
         <v>68</v>
       </c>
       <c r="AI54">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ54">
         <v>98</v>
@@ -21787,13 +21787,13 @@
         <v>0.7843137254901961</v>
       </c>
       <c r="CK54">
-        <v>1.844262295081967</v>
+        <v>1.840490797546012</v>
       </c>
       <c r="CL54">
         <v>0</v>
       </c>
       <c r="CM54">
-        <v>3.571428571428571</v>
+        <v>3.597122302158273</v>
       </c>
       <c r="CN54">
         <v>2.040816326530612</v>
@@ -21802,10 +21802,10 @@
         <v>0</v>
       </c>
       <c r="CP54">
-        <v>1.233875490745934</v>
+        <v>1.233183856502242</v>
       </c>
       <c r="CQ54">
-        <v>0.9234828496042217</v>
+        <v>0.922266139657444</v>
       </c>
       <c r="CR54">
         <v>2.708333333333333</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="DD54">
-        <v>0.3910614525139665</v>
+        <v>0.3908431044109436</v>
       </c>
       <c r="DE54">
         <v>1.185770750988142</v>
@@ -21865,13 +21865,13 @@
         <v>0</v>
       </c>
       <c r="DK54">
-        <v>0.4494382022471911</v>
+        <v>0.4491858506457047</v>
       </c>
       <c r="DL54">
-        <v>1.703800786369594</v>
+        <v>1.706036745406824</v>
       </c>
       <c r="DM54">
-        <v>3.073770491803279</v>
+        <v>3.067484662576687</v>
       </c>
       <c r="DN54">
         <v>0</v>
@@ -21880,7 +21880,7 @@
         <v>5.109489051094891</v>
       </c>
       <c r="DP54">
-        <v>2.083333333333333</v>
+        <v>2.061855670103093</v>
       </c>
       <c r="DQ54">
         <v>0</v>
@@ -21924,16 +21924,16 @@
         <v>1.102174560619601</v>
       </c>
       <c r="M55">
-        <v>1.285116557083084</v>
+        <v>1.284732596354945</v>
       </c>
       <c r="N55">
         <v>0.6263048016701461</v>
       </c>
       <c r="O55">
-        <v>0.537795040334628</v>
+        <v>0.5385996409335727</v>
       </c>
       <c r="P55">
-        <v>0.7159904534606205</v>
+        <v>0.7155635062611807</v>
       </c>
       <c r="Q55">
         <v>1800</v>
@@ -21981,7 +21981,7 @@
         <v>1804</v>
       </c>
       <c r="AF55">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG55">
         <v>488</v>
@@ -22149,7 +22149,7 @@
         <v>1.164725457570716</v>
       </c>
       <c r="CJ55">
-        <v>0.3952569169960474</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="CK55">
         <v>1.646090534979424</v>
@@ -22170,7 +22170,7 @@
         <v>1.335559265442404</v>
       </c>
       <c r="CQ55">
-        <v>0.5305039787798408</v>
+        <v>0.5305392048076484</v>
       </c>
       <c r="CR55">
         <v>2.510460251046025</v>
@@ -22179,7 +22179,7 @@
         <v>0</v>
       </c>
       <c r="CT55">
-        <v>2.985074626865671</v>
+        <v>3.007518796992481</v>
       </c>
       <c r="CU55">
         <v>1.030927835051546</v>
@@ -22233,10 +22233,10 @@
         <v>0.4459308807134894</v>
       </c>
       <c r="DL55">
-        <v>0.3963011889035667</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="DM55">
-        <v>1.646090534979424</v>
+        <v>1.649484536082474</v>
       </c>
       <c r="DN55">
         <v>1.470588235294118</v>
@@ -22256,13 +22256,13 @@
         <v>2014</v>
       </c>
       <c r="B56">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="C56">
         <v>3364</v>
       </c>
       <c r="D56">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="E56">
         <v>46</v>
@@ -22280,13 +22280,13 @@
         <v>24</v>
       </c>
       <c r="J56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56">
         <v>1.362559241706161</v>
       </c>
       <c r="L56">
-        <v>1.273696682464455</v>
+        <v>1.274055204493593</v>
       </c>
       <c r="M56">
         <v>1.455733808674985</v>
@@ -22298,7 +22298,7 @@
         <v>0.7121661721068249</v>
       </c>
       <c r="P56">
-        <v>0.8880994671403196</v>
+        <v>0.861812778603269</v>
       </c>
       <c r="Q56">
         <v>1815</v>
@@ -22517,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="CK56">
-        <v>3.26530612244898</v>
+        <v>3.2719836400818</v>
       </c>
       <c r="CL56">
         <v>0</v>
@@ -22532,13 +22532,13 @@
         <v>0</v>
       </c>
       <c r="CP56">
-        <v>1.435670900055218</v>
+        <v>1.434878587196468</v>
       </c>
       <c r="CQ56">
         <v>0.1322751322751323</v>
       </c>
       <c r="CR56">
-        <v>4.149377593360995</v>
+        <v>4.140786749482402</v>
       </c>
       <c r="CS56">
         <v>0</v>
@@ -22586,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="DH56">
-        <v>4.477611940298507</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="DI56">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="DK56">
-        <v>0.2208724461623413</v>
+        <v>0.2207505518763797</v>
       </c>
       <c r="DL56">
-        <v>0.9271523178807948</v>
+        <v>0.9259259259259258</v>
       </c>
       <c r="DM56">
         <v>2.044989775051125</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="DO56">
-        <v>7.407407407407407</v>
+        <v>7.352941176470589</v>
       </c>
       <c r="DP56">
         <v>1.030927835051546</v>
@@ -22621,7 +22621,7 @@
         <v>2015</v>
       </c>
       <c r="B57">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="C57">
         <v>3384</v>
@@ -22654,13 +22654,13 @@
         <v>1.031535514294135</v>
       </c>
       <c r="M57">
-        <v>1.238207547169811</v>
+        <v>1.238572692421115</v>
       </c>
       <c r="N57">
         <v>0.9433962264150944</v>
       </c>
       <c r="O57">
-        <v>0.8836524300441826</v>
+        <v>0.8839127872716559</v>
       </c>
       <c r="P57">
         <v>1.030927835051546</v>
@@ -22690,7 +22690,7 @@
         <v>1832</v>
       </c>
       <c r="Y57">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z57">
         <v>492</v>
@@ -22975,7 +22975,7 @@
         <v>4.545454545454546</v>
       </c>
       <c r="DP57">
-        <v>1.030927835051546</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="DQ57">
         <v>0</v>
@@ -23001,7 +23001,7 @@
         <v>36</v>
       </c>
       <c r="G58">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H58">
         <v>28</v>
@@ -23019,16 +23019,16 @@
         <v>1.059135039717564</v>
       </c>
       <c r="M58">
-        <v>1.2393036293892</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="N58">
-        <v>0.8247422680412372</v>
+        <v>0.8249852681202121</v>
       </c>
       <c r="O58">
         <v>0.7653812187224022</v>
       </c>
       <c r="P58">
-        <v>0.9128386336866903</v>
+        <v>0.9125699146305564</v>
       </c>
       <c r="Q58">
         <v>1845</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="CB58">
-        <v>1.191765980498375</v>
+        <v>1.192411924119241</v>
       </c>
       <c r="CC58">
         <v>0.1333333333333333</v>
@@ -23262,19 +23262,19 @@
         <v>0</v>
       </c>
       <c r="CP58">
-        <v>1.302259981866416</v>
+        <v>1.302224633749322</v>
       </c>
       <c r="CQ58">
         <v>0.267379679144385</v>
       </c>
       <c r="CR58">
-        <v>2.244897959183673</v>
+        <v>2.249488752556237</v>
       </c>
       <c r="CS58">
         <v>2.985074626865671</v>
       </c>
       <c r="CT58">
-        <v>2.290076335877862</v>
+        <v>2.307692307692308</v>
       </c>
       <c r="CU58">
         <v>3.125</v>
@@ -23384,7 +23384,7 @@
         <v>0.8211143695014663</v>
       </c>
       <c r="M59">
-        <v>1.028202115158637</v>
+        <v>1.028504260946224</v>
       </c>
       <c r="N59">
         <v>0.9680258140217073</v>
@@ -23606,13 +23606,13 @@
         <v>0</v>
       </c>
       <c r="CI59">
-        <v>0.6985491671144546</v>
+        <v>0.6981740064446832</v>
       </c>
       <c r="CJ59">
         <v>0.4037685060565276</v>
       </c>
       <c r="CK59">
-        <v>2.012072434607646</v>
+        <v>2.007830922889957</v>
       </c>
       <c r="CL59">
         <v>0</v>
@@ -23654,7 +23654,7 @@
         <v>0.9433962264150944</v>
       </c>
       <c r="CY59">
-        <v>1.821862348178138</v>
+        <v>1.825557809330629</v>
       </c>
       <c r="CZ59">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="BG60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH60">
         <v>2</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="CW60">
-        <v>0.322234156820623</v>
+        <v>0.3755364806866953</v>
       </c>
       <c r="CX60">
         <v>0.2710027100271002</v>
@@ -24081,7 +24081,7 @@
         <v>2019</v>
       </c>
       <c r="B61">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="C61">
         <v>3405</v>
@@ -24108,7 +24108,7 @@
         <v>15</v>
       </c>
       <c r="K61">
-        <v>0.7048458149779736</v>
+        <v>0.7046388725778039</v>
       </c>
       <c r="L61">
         <v>0.7046388725778039</v>

--- a/data/report_data_01_08_2025/museums-over-time.xlsx
+++ b/data/report_data_01_08_2025/museums-over-time.xlsx
@@ -2546,7 +2546,7 @@
         <v>1960</v>
       </c>
       <c r="B2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C2">
         <v>1019</v>
@@ -2573,19 +2573,19 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>2.834799608993157</v>
+        <v>2.837573385518591</v>
       </c>
       <c r="L2">
-        <v>2.43427458617332</v>
+        <v>2.429543245869777</v>
       </c>
       <c r="M2">
-        <v>3.336604514229637</v>
+        <v>3.343330700919023</v>
       </c>
       <c r="N2">
         <v>0.09765625</v>
       </c>
       <c r="O2">
-        <v>0.0970873786407767</v>
+        <v>0.09718172983479105</v>
       </c>
       <c r="P2">
         <v>0.1951219512195122</v>
@@ -2834,7 +2834,7 @@
         <v>8.571428571428571</v>
       </c>
       <c r="CT2">
-        <v>13.79310344827586</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="CU2">
         <v>6.25</v>
@@ -2938,13 +2938,13 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3.04038073366337</v>
+        <v>3.041825095057034</v>
       </c>
       <c r="L3">
         <v>2.669208770257388</v>
       </c>
       <c r="M3">
-        <v>3.431839847473785</v>
+        <v>3.43839541547278</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="X3">
-        <v>424.95</v>
+        <v>424</v>
       </c>
       <c r="Y3">
         <v>383</v>
@@ -2998,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="AE3">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF3">
         <v>386</v>
@@ -3193,13 +3193,13 @@
         <v>2.34375</v>
       </c>
       <c r="CR3">
-        <v>4.878048780487805</v>
+        <v>4.880047980807684</v>
       </c>
       <c r="CS3">
         <v>2.702702702702703</v>
       </c>
       <c r="CT3">
-        <v>9.67741935483871</v>
+        <v>10</v>
       </c>
       <c r="CU3">
         <v>2</v>
@@ -3318,7 +3318,7 @@
         <v>0.09157509157509157</v>
       </c>
       <c r="P4">
-        <v>0.1845018450184502</v>
+        <v>0.184331797235023</v>
       </c>
       <c r="Q4">
         <v>447</v>
@@ -3369,7 +3369,7 @@
         <v>394</v>
       </c>
       <c r="AG4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH4">
         <v>38</v>
@@ -3516,7 +3516,7 @@
         <v>1.790281329923274</v>
       </c>
       <c r="CD4">
-        <v>3.90625</v>
+        <v>3.937007874015748</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>2.295918367346939</v>
       </c>
       <c r="CR4">
-        <v>6.301712285964263</v>
+        <v>6.4</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="DO4">
-        <v>3.846153846153846</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="DP4">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>1120</v>
       </c>
       <c r="C5">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D5">
         <v>1128</v>
@@ -3656,7 +3656,7 @@
         <v>35</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3668,13 +3668,13 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>3.398926654740608</v>
+        <v>3.401969561324977</v>
       </c>
       <c r="L5">
-        <v>3.105590062111801</v>
+        <v>3.100088573959256</v>
       </c>
       <c r="M5">
-        <v>3.787366574108135</v>
+        <v>3.825622775800712</v>
       </c>
       <c r="N5">
         <v>0.08936550491510277</v>
@@ -3902,7 +3902,7 @@
         <v>1.496259351620948</v>
       </c>
       <c r="CK5">
-        <v>3.937007874015748</v>
+        <v>3.968253968253968</v>
       </c>
       <c r="CL5">
         <v>2.631578947368421</v>
@@ -3917,19 +3917,19 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>4.496788008565311</v>
+        <v>4.506437768240343</v>
       </c>
       <c r="CQ5">
         <v>2.005012531328321</v>
       </c>
       <c r="CR5">
-        <v>8.461538461538462</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="CS5">
         <v>2.631578947368421</v>
       </c>
       <c r="CT5">
-        <v>9.375</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="CU5">
         <v>8</v>
@@ -4036,7 +4036,7 @@
         <v>2.4263431542461</v>
       </c>
       <c r="L6">
-        <v>2.145922746781116</v>
+        <v>2.144082332761578</v>
       </c>
       <c r="M6">
         <v>2.844827586206897</v>
@@ -4048,7 +4048,7 @@
         <v>0.1716738197424893</v>
       </c>
       <c r="P6">
-        <v>0.2592912705272256</v>
+        <v>0.259515570934256</v>
       </c>
       <c r="Q6">
         <v>488</v>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="X6">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y6">
         <v>404</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="AB6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC6">
         <v>52</v>
@@ -4246,7 +4246,7 @@
         <v>1.481481481481482</v>
       </c>
       <c r="CD6">
-        <v>4.285714285714286</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="CE6">
         <v>2.564102564102564</v>
@@ -4267,7 +4267,7 @@
         <v>1.470588235294118</v>
       </c>
       <c r="CK6">
-        <v>2.255639097744361</v>
+        <v>2.238805970149254</v>
       </c>
       <c r="CL6">
         <v>2.564102564102564</v>
@@ -4282,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="CP6">
-        <v>2.68041237113402</v>
+        <v>2.685950413223141</v>
       </c>
       <c r="CQ6">
         <v>1.975308641975309</v>
       </c>
       <c r="CR6">
-        <v>6.474820143884892</v>
+        <v>6.385258358662623</v>
       </c>
       <c r="CS6">
         <v>2.564102564102564</v>
@@ -4398,10 +4398,10 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2.356902356902357</v>
+        <v>2.345058626465661</v>
       </c>
       <c r="L7">
-        <v>2.023608768971332</v>
+        <v>2.018502943650126</v>
       </c>
       <c r="M7">
         <v>2.711864406779661</v>
@@ -4605,13 +4605,13 @@
         <v>0</v>
       </c>
       <c r="CB7">
-        <v>1.611280586746284</v>
+        <v>1.616161616161616</v>
       </c>
       <c r="CC7">
         <v>0.9732360097323601</v>
       </c>
       <c r="CD7">
-        <v>5.88235294117647</v>
+        <v>5.839416058394161</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>0.9638554216867471</v>
       </c>
       <c r="CK7">
-        <v>4.285714285714286</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="CL7">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="CP7">
-        <v>2.208835341365462</v>
+        <v>2.217741935483871</v>
       </c>
       <c r="CQ7">
         <v>1.456310679611651</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="DM7">
-        <v>0.699546931941299</v>
+        <v>0.6993006993006993</v>
       </c>
       <c r="DN7">
         <v>0</v>
@@ -4769,10 +4769,10 @@
         <v>2.725020644095789</v>
       </c>
       <c r="M8">
-        <v>3.405457148932763</v>
+        <v>3.40531561461794</v>
       </c>
       <c r="N8">
-        <v>0.1654259718775848</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="O8">
         <v>0.1640689089417555</v>
@@ -4871,7 +4871,7 @@
         <v>6</v>
       </c>
       <c r="AU8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>1.44578313253012</v>
       </c>
       <c r="CD8">
-        <v>3.973509933774835</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="CE8">
         <v>0</v>
@@ -4997,7 +4997,7 @@
         <v>1.431980906921241</v>
       </c>
       <c r="CK8">
-        <v>2.563285970929283</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -5018,13 +5018,13 @@
         <v>1.923076923076923</v>
       </c>
       <c r="CR8">
-        <v>6.04026845637584</v>
+        <v>6.081081081081082</v>
       </c>
       <c r="CS8">
         <v>0</v>
       </c>
       <c r="CT8">
-        <v>10</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="CU8">
         <v>5.454545454545454</v>
@@ -5078,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="DL8">
-        <v>0.2415458937198068</v>
+        <v>0.2421307506053269</v>
       </c>
       <c r="DM8">
-        <v>1.31578947368421</v>
+        <v>1.30718954248366</v>
       </c>
       <c r="DN8">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>1967</v>
       </c>
       <c r="B9">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C9">
         <v>1235</v>
@@ -5116,7 +5116,7 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -5128,19 +5128,19 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>3.04975922953451</v>
+        <v>3.052208835341366</v>
       </c>
       <c r="L9">
         <v>2.730923694779117</v>
       </c>
       <c r="M9">
-        <v>3.40632603406326</v>
+        <v>3.440137710168135</v>
       </c>
       <c r="N9">
         <v>0.2413515687851971</v>
       </c>
       <c r="O9">
-        <v>0.239224918507787</v>
+        <v>0.2392344497607655</v>
       </c>
       <c r="P9">
         <v>0.3225806451612903</v>
@@ -5203,7 +5203,7 @@
         <v>44</v>
       </c>
       <c r="AJ9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK9">
         <v>5</v>
@@ -5341,7 +5341,7 @@
         <v>1.187648456057007</v>
       </c>
       <c r="CD9">
-        <v>5.095541401273886</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>1.176470588235294</v>
       </c>
       <c r="CK9">
-        <v>3.333333333333333</v>
+        <v>3.401360544217687</v>
       </c>
       <c r="CL9">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="DM9">
-        <v>1.899338869628318</v>
+        <v>1.910828025477707</v>
       </c>
       <c r="DN9">
         <v>0</v>
@@ -5466,10 +5466,10 @@
         <v>1968</v>
       </c>
       <c r="B10">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C10">
-        <v>1269.95</v>
+        <v>1269</v>
       </c>
       <c r="D10">
         <v>1290</v>
@@ -5493,19 +5493,19 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>3.401103926594017</v>
+        <v>3.408210689388071</v>
       </c>
       <c r="L10">
         <v>3.115264797507788</v>
       </c>
       <c r="M10">
-        <v>3.764853633761197</v>
+        <v>3.761755485893417</v>
       </c>
       <c r="N10">
         <v>0.3129890453834116</v>
       </c>
       <c r="O10">
-        <v>0.310077519379845</v>
+        <v>0.3103180760279286</v>
       </c>
       <c r="P10">
         <v>0.392156862745098</v>
@@ -5706,7 +5706,7 @@
         <v>1.173708920187793</v>
       </c>
       <c r="CD10">
-        <v>4.907975460122699</v>
+        <v>4.938271604938271</v>
       </c>
       <c r="CE10">
         <v>0</v>
@@ -5727,7 +5727,7 @@
         <v>1.162790697674419</v>
       </c>
       <c r="CK10">
-        <v>3.225806451612903</v>
+        <v>3.267973856209151</v>
       </c>
       <c r="CL10">
         <v>0</v>
@@ -5742,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="CP10">
-        <v>4.735883424408015</v>
+        <v>4.744525547445255</v>
       </c>
       <c r="CQ10">
         <v>1.639344262295082</v>
       </c>
       <c r="CR10">
-        <v>6.833148983238326</v>
+        <v>6.875000000000001</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="CW10">
-        <v>0.1833182108411466</v>
+        <v>0.1831501831501831</v>
       </c>
       <c r="CX10">
         <v>0.2336448598130841</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="DD10">
-        <v>0.1811594202898551</v>
+        <v>0.1814882032667877</v>
       </c>
       <c r="DE10">
         <v>0.2320185614849188</v>
@@ -5811,7 +5811,7 @@
         <v>0.2358490566037736</v>
       </c>
       <c r="DM10">
-        <v>1.863354037267081</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="DN10">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>3.378378378378379</v>
+        <v>3.38855421686747</v>
       </c>
       <c r="L11">
-        <v>3.094339622641509</v>
+        <v>3.09901738473167</v>
       </c>
       <c r="M11">
-        <v>3.717895317794731</v>
+        <v>3.726235741444866</v>
       </c>
       <c r="N11">
         <v>0.1518602885345482</v>
       </c>
       <c r="O11">
-        <v>0.150483432056439</v>
+        <v>0.1504890895410083</v>
       </c>
       <c r="P11">
-        <v>0.2281368821292776</v>
+        <v>0.228310502283105</v>
       </c>
       <c r="Q11">
         <v>568</v>
@@ -6071,7 +6071,7 @@
         <v>2.078521939953811</v>
       </c>
       <c r="CD11">
-        <v>4.347826086956522</v>
+        <v>4.320987654320987</v>
       </c>
       <c r="CE11">
         <v>2.5</v>
@@ -6092,7 +6092,7 @@
         <v>1.84331797235023</v>
       </c>
       <c r="CK11">
-        <v>3.03030303030303</v>
+        <v>3.048780487804878</v>
       </c>
       <c r="CL11">
         <v>2.5</v>
@@ -6107,10 +6107,10 @@
         <v>20</v>
       </c>
       <c r="CP11">
-        <v>4.378283712784588</v>
+        <v>4.363001745200698</v>
       </c>
       <c r="CQ11">
-        <v>2.336722186959663</v>
+        <v>2.331002331002331</v>
       </c>
       <c r="CR11">
         <v>6.25</v>
@@ -6119,7 +6119,7 @@
         <v>2.5</v>
       </c>
       <c r="CT11">
-        <v>10.63829787234043</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="CU11">
         <v>3.174603174603174</v>
@@ -6134,7 +6134,7 @@
         <v>0.2314814814814815</v>
       </c>
       <c r="CY11">
-        <v>0.6097560975609756</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="CZ11">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="DL11">
-        <v>0.2336448598130841</v>
+        <v>0.234192037470726</v>
       </c>
       <c r="DM11">
-        <v>1.183431952662722</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="DN11">
         <v>0</v>
@@ -6196,13 +6196,13 @@
         <v>1970</v>
       </c>
       <c r="B12">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C12">
         <v>1351</v>
       </c>
       <c r="D12">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -6223,22 +6223,22 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <v>2.932551319648094</v>
+        <v>2.928257686676428</v>
       </c>
       <c r="L12">
         <v>2.639296187683284</v>
       </c>
       <c r="M12">
-        <v>3.252032520325204</v>
+        <v>3.247352384897556</v>
       </c>
       <c r="N12">
         <v>0.07358351729212656</v>
       </c>
       <c r="O12">
-        <v>0.0728862973760933</v>
+        <v>0.07293946024799416</v>
       </c>
       <c r="P12">
-        <v>0.147819660014782</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="Q12">
         <v>590</v>
@@ -6268,7 +6268,7 @@
         <v>437</v>
       </c>
       <c r="Z12">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA12">
         <v>41</v>
@@ -6286,7 +6286,7 @@
         <v>596</v>
       </c>
       <c r="AF12">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG12">
         <v>179</v>
@@ -6436,7 +6436,7 @@
         <v>0.6802721088435374</v>
       </c>
       <c r="CD12">
-        <v>9.090909090909092</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="CE12">
         <v>2.439024390243902</v>
@@ -6457,7 +6457,7 @@
         <v>0.4514672686230248</v>
       </c>
       <c r="CK12">
-        <v>7.734806629834254</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CL12">
         <v>2.439024390243902</v>
@@ -6472,19 +6472,19 @@
         <v>0</v>
       </c>
       <c r="CP12">
-        <v>2.866779089376054</v>
+        <v>2.861952861952862</v>
       </c>
       <c r="CQ12">
         <v>0.9153318077803204</v>
       </c>
       <c r="CR12">
-        <v>10.98265895953757</v>
+        <v>11.04294478527607</v>
       </c>
       <c r="CS12">
         <v>2.439024390243902</v>
       </c>
       <c r="CT12">
-        <v>14.28571428571428</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="CU12">
         <v>3.125</v>
@@ -6567,7 +6567,7 @@
         <v>1389</v>
       </c>
       <c r="D13">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E13">
         <v>44</v>
@@ -6588,22 +6588,22 @@
         <v>4</v>
       </c>
       <c r="K13">
-        <v>3.154121863799284</v>
+        <v>3.156384505021521</v>
       </c>
       <c r="L13">
-        <v>2.903682719546742</v>
+        <v>2.907801418439716</v>
       </c>
       <c r="M13">
-        <v>3.49002849002849</v>
+        <v>3.502501786990707</v>
       </c>
       <c r="N13">
         <v>0.2147458840372226</v>
       </c>
       <c r="O13">
-        <v>0.2126151665485471</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="P13">
-        <v>0.2881844380403458</v>
+        <v>0.2879769618430525</v>
       </c>
       <c r="Q13">
         <v>604</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AZ13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA13">
         <v>11</v>
@@ -6801,7 +6801,7 @@
         <v>2.036199095022624</v>
       </c>
       <c r="CD13">
-        <v>6.282722513089005</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="CE13">
         <v>2.380952380952381</v>
@@ -6816,13 +6816,13 @@
         <v>0</v>
       </c>
       <c r="CI13">
-        <v>2.97029702970297</v>
+        <v>2.975206611570248</v>
       </c>
       <c r="CJ13">
         <v>2.017937219730942</v>
       </c>
       <c r="CK13">
-        <v>4.918032786885246</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="CL13">
         <v>2.380952380952381</v>
@@ -6837,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="CP13">
-        <v>3.789126853377265</v>
+        <v>3.691585358975806</v>
       </c>
       <c r="CQ13">
-        <v>2.472188480615448</v>
+        <v>2.477477477477477</v>
       </c>
       <c r="CR13">
         <v>7.936507936507936</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="DM13">
-        <v>1.639794631597912</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="DN13">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>4.230235783633842</v>
       </c>
       <c r="M14">
-        <v>4.808362369337979</v>
+        <v>4.821802935010482</v>
       </c>
       <c r="N14">
         <v>0.1390820584144645</v>
@@ -6977,7 +6977,7 @@
         <v>452</v>
       </c>
       <c r="S14">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T14">
         <v>43</v>
@@ -7019,7 +7019,7 @@
         <v>456</v>
       </c>
       <c r="AG14">
-        <v>203.0500000000002</v>
+        <v>203</v>
       </c>
       <c r="AH14">
         <v>43</v>
@@ -7160,13 +7160,13 @@
         <v>0</v>
       </c>
       <c r="CB14">
-        <v>4.361873990306947</v>
+        <v>4.368932038834951</v>
       </c>
       <c r="CC14">
         <v>3.325942350332594</v>
       </c>
       <c r="CD14">
-        <v>6.930693069306932</v>
+        <v>6.951871657754011</v>
       </c>
       <c r="CE14">
         <v>4.651162790697675</v>
@@ -7184,16 +7184,16 @@
         <v>4.032258064516129</v>
       </c>
       <c r="CJ14">
-        <v>3.289473684210526</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="CK14">
-        <v>5.759162303664922</v>
+        <v>5.729166666666666</v>
       </c>
       <c r="CL14">
         <v>4.651162790697675</v>
       </c>
       <c r="CM14">
-        <v>8.333333333333332</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="CN14">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="CP14">
-        <v>4.838709677419355</v>
+        <v>4.846526655896607</v>
       </c>
       <c r="CQ14">
         <v>3.752759381898454</v>
@@ -7318,22 +7318,22 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>3.402268178785857</v>
+        <v>3.397734843437708</v>
       </c>
       <c r="L15">
-        <v>3.139612558450234</v>
+        <v>3.1438127090301</v>
       </c>
       <c r="M15">
-        <v>3.725881570192947</v>
+        <v>3.708609271523179</v>
       </c>
       <c r="N15">
         <v>0.2666666666666667</v>
       </c>
       <c r="O15">
-        <v>0.2642007926023778</v>
+        <v>0.264026402640264</v>
       </c>
       <c r="P15">
-        <v>0.3351206434316354</v>
+        <v>0.3348961821835231</v>
       </c>
       <c r="Q15">
         <v>650</v>
@@ -7552,7 +7552,7 @@
         <v>1.279317697228145</v>
       </c>
       <c r="CK15">
-        <v>3.398058252427184</v>
+        <v>3.414634146341464</v>
       </c>
       <c r="CL15">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>1.724137931034483</v>
       </c>
       <c r="CR15">
-        <v>6.074766355140187</v>
+        <v>6.103286384976526</v>
       </c>
       <c r="CS15">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         <v>0.2127659574468085</v>
       </c>
       <c r="DF15">
-        <v>0.4629629629629629</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="DG15">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="DK15">
-        <v>0.1555209953343701</v>
+        <v>0.1557632398753894</v>
       </c>
       <c r="DL15">
         <v>0.2164502164502164</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="DO15">
-        <v>1.754385964912281</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="DP15">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>5.512820512820513</v>
       </c>
       <c r="M16">
-        <v>6.100012211706817</v>
+        <v>6.080293947620807</v>
       </c>
       <c r="N16">
         <v>0.193923723335488</v>
@@ -7698,7 +7698,7 @@
         <v>0.1920614596670935</v>
       </c>
       <c r="P16">
-        <v>0.2604166666666666</v>
+        <v>0.2602557064628064</v>
       </c>
       <c r="Q16">
         <v>678</v>
@@ -7743,7 +7743,7 @@
         <v>5</v>
       </c>
       <c r="AE16">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF16">
         <v>476</v>
@@ -7896,7 +7896,7 @@
         <v>6.13107822410148</v>
       </c>
       <c r="CD16">
-        <v>9.25925925925926</v>
+        <v>9.223300970873787</v>
       </c>
       <c r="CE16">
         <v>0</v>
@@ -7914,10 +7914,10 @@
         <v>4.431314623338257</v>
       </c>
       <c r="CJ16">
-        <v>5.894736842105263</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="CK16">
-        <v>8.108108108108109</v>
+        <v>8.095238095238095</v>
       </c>
       <c r="CL16">
         <v>0</v>
@@ -7932,13 +7932,13 @@
         <v>0</v>
       </c>
       <c r="CP16">
-        <v>5.185185185185185</v>
+        <v>5.200594353640416</v>
       </c>
       <c r="CQ16">
-        <v>6.382978723404255</v>
+        <v>6.396588486140725</v>
       </c>
       <c r="CR16">
-        <v>10.74766355140187</v>
+        <v>10.73250512878961</v>
       </c>
       <c r="CS16">
         <v>0</v>
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="CX16">
-        <v>0.6355932203389831</v>
+        <v>0.6342494714587738</v>
       </c>
       <c r="CY16">
         <v>0</v>
@@ -8048,13 +8048,13 @@
         <v>4</v>
       </c>
       <c r="K17">
-        <v>4.892966360856269</v>
+        <v>4.901960784313726</v>
       </c>
       <c r="L17">
-        <v>4.628501827040195</v>
+        <v>4.636973764490543</v>
       </c>
       <c r="M17">
-        <v>5.217925107427869</v>
+        <v>5.211556397822492</v>
       </c>
       <c r="N17">
         <v>0.1228501228501229</v>
@@ -8069,7 +8069,7 @@
         <v>710</v>
       </c>
       <c r="R17">
-        <v>498.5</v>
+        <v>498</v>
       </c>
       <c r="S17">
         <v>237</v>
@@ -8261,7 +8261,7 @@
         <v>5.01002004008016</v>
       </c>
       <c r="CD17">
-        <v>7.234042553191489</v>
+        <v>7.26151089054315</v>
       </c>
       <c r="CE17">
         <v>4.444444444444445</v>
@@ -8276,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="CI17">
-        <v>3.05980528511822</v>
+        <v>3.063853774005215</v>
       </c>
       <c r="CJ17">
         <v>4.790419161676647</v>
@@ -8300,10 +8300,10 @@
         <v>3.79746835443038</v>
       </c>
       <c r="CQ17">
-        <v>5.241935483870968</v>
+        <v>5.252525252525253</v>
       </c>
       <c r="CR17">
-        <v>8.658008658008658</v>
+        <v>8.733624454148471</v>
       </c>
       <c r="CS17">
         <v>4.444444444444445</v>
@@ -8413,22 +8413,22 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <v>5.26623756582797</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L18">
-        <v>5.029239766081871</v>
+        <v>5.026285215351376</v>
       </c>
       <c r="M18">
-        <v>5.552308591466979</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="N18">
         <v>0.3490401396160558</v>
       </c>
       <c r="O18">
-        <v>0.2901831101798649</v>
+        <v>0.2901915264074289</v>
       </c>
       <c r="P18">
-        <v>0.4619071062529103</v>
+        <v>0.4624277456647399</v>
       </c>
       <c r="Q18">
         <v>734</v>
@@ -8452,7 +8452,7 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Y18">
         <v>518</v>
@@ -8626,13 +8626,13 @@
         <v>4.406130268199234</v>
       </c>
       <c r="CD18">
-        <v>5.263157894736842</v>
+        <v>5.284552845528456</v>
       </c>
       <c r="CE18">
         <v>10.63829787234043</v>
       </c>
       <c r="CF18">
-        <v>7.142857142857142</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="CG18">
         <v>2.941176470588235</v>
@@ -8647,7 +8647,7 @@
         <v>4.198473282442748</v>
       </c>
       <c r="CK18">
-        <v>4.347826086956522</v>
+        <v>4.382470119521913</v>
       </c>
       <c r="CL18">
         <v>10.63829787234043</v>
@@ -8665,10 +8665,10 @@
         <v>5.898491083676269</v>
       </c>
       <c r="CQ18">
-        <v>4.633204633204633</v>
+        <v>4.633652718759103</v>
       </c>
       <c r="CR18">
-        <v>6.477732793522267</v>
+        <v>6.514270075846434</v>
       </c>
       <c r="CS18">
         <v>10.63829787234043</v>
@@ -8728,10 +8728,10 @@
         <v>0.1377410468319559</v>
       </c>
       <c r="DL18">
-        <v>0.1934235976789168</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="DM18">
-        <v>1.195219123505976</v>
+        <v>1.2</v>
       </c>
       <c r="DN18">
         <v>0</v>
@@ -8781,19 +8781,19 @@
         <v>3.93569844789357</v>
       </c>
       <c r="L19">
-        <v>3.715925846673382</v>
+        <v>3.716028840820854</v>
       </c>
       <c r="M19">
-        <v>4.178272980501393</v>
+        <v>4.182933630786391</v>
       </c>
       <c r="N19">
-        <v>0.2218524681087077</v>
+        <v>0.2219755826859046</v>
       </c>
       <c r="O19">
-        <v>0.165929203539823</v>
+        <v>0.1660164380408539</v>
       </c>
       <c r="P19">
-        <v>0.3316749585406302</v>
+        <v>0.3309523200724715</v>
       </c>
       <c r="Q19">
         <v>774</v>
@@ -8856,7 +8856,7 @@
         <v>74</v>
       </c>
       <c r="AK19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL19">
         <v>38</v>
@@ -8985,19 +8985,19 @@
         <v>1</v>
       </c>
       <c r="CB19">
-        <v>4.94148244473342</v>
+        <v>4.935064935064935</v>
       </c>
       <c r="CC19">
         <v>2.398523985239852</v>
       </c>
       <c r="CD19">
-        <v>3.474903474903475</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="CE19">
         <v>1.923076923076923</v>
       </c>
       <c r="CF19">
-        <v>8.888888888888889</v>
+        <v>8.988764044943821</v>
       </c>
       <c r="CG19">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="CI19">
-        <v>4.66321243523316</v>
+        <v>4.657179818887451</v>
       </c>
       <c r="CJ19">
         <v>2.376599634369287</v>
       </c>
       <c r="CK19">
-        <v>2.671247786840043</v>
+        <v>2.661596958174905</v>
       </c>
       <c r="CL19">
         <v>1.923076923076923</v>
@@ -9048,13 +9048,13 @@
         <v>0</v>
       </c>
       <c r="CW19">
-        <v>0.1291989664082688</v>
+        <v>0.129366106080207</v>
       </c>
       <c r="CX19">
         <v>0.1841620626151013</v>
       </c>
       <c r="CY19">
-        <v>0.3802281368821293</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="CZ19">
         <v>0</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="DK19">
-        <v>0.1305483028720627</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="DL19">
         <v>0.3669724770642202</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="DO19">
-        <v>1.204819277108434</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="DP19">
         <v>0</v>
@@ -9143,22 +9143,22 @@
         <v>5</v>
       </c>
       <c r="K20">
-        <v>3.823371028540657</v>
+        <v>3.817204301075269</v>
       </c>
       <c r="L20">
-        <v>3.632478632478633</v>
+        <v>3.624733475479744</v>
       </c>
       <c r="M20">
-        <v>4.07725321888412</v>
+        <v>4.075067024128686</v>
       </c>
       <c r="N20">
         <v>0.160427807486631</v>
       </c>
       <c r="O20">
-        <v>0.1067235859124867</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="P20">
-        <v>0.2665316275764037</v>
+        <v>0.2653927813163482</v>
       </c>
       <c r="Q20">
         <v>811</v>
@@ -9167,7 +9167,7 @@
         <v>556</v>
       </c>
       <c r="S20">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T20">
         <v>53</v>
@@ -9377,7 +9377,7 @@
         <v>3.041144901610018</v>
       </c>
       <c r="CK20">
-        <v>5.147058823529411</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="CL20">
         <v>0</v>
@@ -9395,10 +9395,10 @@
         <v>4.074074074074074</v>
       </c>
       <c r="CQ20">
-        <v>3.411131059245961</v>
+        <v>3.41726618705036</v>
       </c>
       <c r="CR20">
-        <v>7.116104868913857</v>
+        <v>7.168458781362006</v>
       </c>
       <c r="CS20">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>8.163265306122449</v>
       </c>
       <c r="CU20">
-        <v>2.898550724637681</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="CV20">
         <v>0</v>
@@ -9458,16 +9458,16 @@
         <v>0</v>
       </c>
       <c r="DL20">
-        <v>0.1795332136445242</v>
+        <v>0.1792114695340502</v>
       </c>
       <c r="DM20">
-        <v>0.7407407407407408</v>
+        <v>0.7380073800738007</v>
       </c>
       <c r="DN20">
         <v>0</v>
       </c>
       <c r="DO20">
-        <v>2.197802197802198</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="DP20">
         <v>0</v>
@@ -9511,19 +9511,19 @@
         <v>3.669250645994832</v>
       </c>
       <c r="L21">
-        <v>3.487179487179487</v>
+        <v>3.485392106611994</v>
       </c>
       <c r="M21">
-        <v>3.909465020576132</v>
+        <v>3.895471519766753</v>
       </c>
       <c r="N21">
-        <v>0.15527950310559</v>
+        <v>0.1553599171413775</v>
       </c>
       <c r="O21">
-        <v>0.1030396702730551</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="P21">
-        <v>0.2589331952356292</v>
+        <v>0.2586652871184687</v>
       </c>
       <c r="Q21">
         <v>841</v>
@@ -9547,13 +9547,13 @@
         <v>6</v>
       </c>
       <c r="X21">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Y21">
         <v>569</v>
       </c>
       <c r="Z21">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA21">
         <v>53</v>
@@ -9718,7 +9718,7 @@
         <v>5.112960760998811</v>
       </c>
       <c r="CC21">
-        <v>1.223776223776224</v>
+        <v>1.225919439579685</v>
       </c>
       <c r="CD21">
         <v>4.593639575971731</v>
@@ -9727,7 +9727,7 @@
         <v>1.886792452830189</v>
       </c>
       <c r="CF21">
-        <v>3.96039603960396</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="CG21">
         <v>1.36986301369863</v>
@@ -9739,7 +9739,7 @@
         <v>4.863582443653618</v>
       </c>
       <c r="CJ21">
-        <v>1.215172467745042</v>
+        <v>1.215277777777778</v>
       </c>
       <c r="CK21">
         <v>3.819444444444445</v>
@@ -9748,7 +9748,7 @@
         <v>1.886792452830189</v>
       </c>
       <c r="CM21">
-        <v>2.912621359223301</v>
+        <v>2.884615384615385</v>
       </c>
       <c r="CN21">
         <v>1.333333333333333</v>
@@ -9757,13 +9757,13 @@
         <v>14.28571428571428</v>
       </c>
       <c r="CP21">
-        <v>5.476190476190476</v>
+        <v>5.463182897862233</v>
       </c>
       <c r="CQ21">
         <v>1.570680628272251</v>
       </c>
       <c r="CR21">
-        <v>5.673758865248227</v>
+        <v>5.653710247349824</v>
       </c>
       <c r="CS21">
         <v>1.886792452830189</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="DO21">
-        <v>1.063829787234043</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="DP21">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>2003</v>
       </c>
       <c r="C22">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D22">
         <v>2016</v>
@@ -9873,19 +9873,19 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>4.027846842366982</v>
+        <v>4.029850746268656</v>
       </c>
       <c r="L22">
-        <v>3.82894082545997</v>
+        <v>3.832752613240418</v>
       </c>
       <c r="M22">
-        <v>4.254254254254255</v>
+        <v>4.252126063031516</v>
       </c>
       <c r="N22">
         <v>0.399002493765586</v>
       </c>
       <c r="O22">
-        <v>0.2992518703241895</v>
+        <v>0.2994011976047904</v>
       </c>
       <c r="P22">
         <v>0.501002004008016</v>
@@ -9939,7 +9939,7 @@
         <v>583</v>
       </c>
       <c r="AG22">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AH22">
         <v>54</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="AZ22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BA22">
         <v>16</v>
@@ -10092,7 +10092,7 @@
         <v>3.703703703703703</v>
       </c>
       <c r="CF22">
-        <v>5.660377358490567</v>
+        <v>5.607476635514018</v>
       </c>
       <c r="CG22">
         <v>1.351351351351351</v>
@@ -10122,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="CP22">
-        <v>4.606741573033708</v>
+        <v>4.555808656036446</v>
       </c>
       <c r="CQ22">
-        <v>2.768166089965398</v>
+        <v>2.763385146804836</v>
       </c>
       <c r="CR22">
         <v>7.482993197278912</v>
@@ -10134,7 +10134,7 @@
         <v>3.703703703703703</v>
       </c>
       <c r="CT22">
-        <v>7.07070707070707</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="CU22">
         <v>2.73972602739726</v>
@@ -10185,19 +10185,19 @@
         <v>0</v>
       </c>
       <c r="DK22">
-        <v>0.1136363636363636</v>
+        <v>0.1137656427758817</v>
       </c>
       <c r="DL22">
         <v>0.3454231433506045</v>
       </c>
       <c r="DM22">
-        <v>2.356902356902357</v>
+        <v>2.348993288590604</v>
       </c>
       <c r="DN22">
         <v>0</v>
       </c>
       <c r="DO22">
-        <v>1.981188118811885</v>
+        <v>1.98019801980198</v>
       </c>
       <c r="DP22">
         <v>0</v>
@@ -10238,13 +10238,13 @@
         <v>7</v>
       </c>
       <c r="K23">
-        <v>3.204824023213805</v>
+        <v>3.207276208712303</v>
       </c>
       <c r="L23">
-        <v>3.028846153846154</v>
+        <v>3.025936599423631</v>
       </c>
       <c r="M23">
-        <v>3.428295509415741</v>
+        <v>3.421686746987952</v>
       </c>
       <c r="N23">
         <v>0.2405002405002405</v>
@@ -10253,7 +10253,7 @@
         <v>0.1445086705202312</v>
       </c>
       <c r="P23">
-        <v>0.3376748673420164</v>
+        <v>0.3384994839230087</v>
       </c>
       <c r="Q23">
         <v>922</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BA23">
         <v>14</v>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="CF23">
-        <v>6.363636363636363</v>
+        <v>6.306306306306306</v>
       </c>
       <c r="CG23">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="CI23">
-        <v>3.571428571428571</v>
+        <v>3.575297941495124</v>
       </c>
       <c r="CJ23">
         <v>2.010050251256281</v>
@@ -10487,19 +10487,19 @@
         <v>0</v>
       </c>
       <c r="CP23">
-        <v>4.052573932092004</v>
+        <v>4.099466217459886</v>
       </c>
       <c r="CQ23">
-        <v>2.360876897133221</v>
+        <v>2.361076295519803</v>
       </c>
       <c r="CR23">
-        <v>4.88599348534202</v>
+        <v>4.870129870129871</v>
       </c>
       <c r="CS23">
         <v>0</v>
       </c>
       <c r="CT23">
-        <v>7.766990291262135</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CU23">
         <v>1.333333333333333</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.9345794392523363</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="DB23">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="DH23">
-        <v>0.9009009009009009</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="DI23">
         <v>0</v>
@@ -10550,13 +10550,13 @@
         <v>0</v>
       </c>
       <c r="DK23">
-        <v>0.1089324618736384</v>
+        <v>0.109051254089422</v>
       </c>
       <c r="DL23">
         <v>0.5059021922428331</v>
       </c>
       <c r="DM23">
-        <v>0.964630225080386</v>
+        <v>0.9647858106005608</v>
       </c>
       <c r="DN23">
         <v>0</v>
@@ -10603,25 +10603,25 @@
         <v>11</v>
       </c>
       <c r="K24">
-        <v>2.950819672131148</v>
+        <v>2.953586497890295</v>
       </c>
       <c r="L24">
-        <v>2.793296089385475</v>
+        <v>2.79459711224965</v>
       </c>
       <c r="M24">
         <v>3.171641791044776</v>
       </c>
       <c r="N24">
-        <v>0.4197761194029851</v>
+        <v>0.4199720018665422</v>
       </c>
       <c r="O24">
         <v>0.3258845437616387</v>
       </c>
       <c r="P24">
-        <v>0.5159474671669794</v>
+        <v>0.5159595729264155</v>
       </c>
       <c r="Q24">
-        <v>956.5</v>
+        <v>957</v>
       </c>
       <c r="R24">
         <v>604</v>
@@ -10675,7 +10675,7 @@
         <v>56</v>
       </c>
       <c r="AI24">
-        <v>117.0500000000002</v>
+        <v>118</v>
       </c>
       <c r="AJ24">
         <v>78</v>
@@ -10696,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AZ24">
-        <v>32.05000000000018</v>
+        <v>32</v>
       </c>
       <c r="BA24">
         <v>13</v>
@@ -10816,13 +10816,13 @@
         <v>1.827242524916944</v>
       </c>
       <c r="CD24">
-        <v>4.294478527607362</v>
+        <v>4.281345565749235</v>
       </c>
       <c r="CE24">
         <v>3.571428571428571</v>
       </c>
       <c r="CF24">
-        <v>3.389830508474576</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="CG24">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>1.80921052631579</v>
       </c>
       <c r="CK24">
-        <v>3.592814371257485</v>
+        <v>3.603603603603604</v>
       </c>
       <c r="CL24">
         <v>3.571428571428571</v>
@@ -10852,13 +10852,13 @@
         <v>25</v>
       </c>
       <c r="CP24">
-        <v>3.394915802396349</v>
+        <v>3.379449444919351</v>
       </c>
       <c r="CQ24">
         <v>2.152317880794702</v>
       </c>
       <c r="CR24">
-        <v>5.279503105590062</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="CS24">
         <v>3.571428571428571</v>
@@ -10918,7 +10918,7 @@
         <v>0.1054852320675105</v>
       </c>
       <c r="DL24">
-        <v>0.4934616968698519</v>
+        <v>0.4942339373970346</v>
       </c>
       <c r="DM24">
         <v>1.857585139318885</v>
@@ -10947,7 +10947,7 @@
         <v>2179</v>
       </c>
       <c r="D25">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E25">
         <v>70</v>
@@ -10968,25 +10968,25 @@
         <v>17</v>
       </c>
       <c r="K25">
-        <v>3.209536909674461</v>
+        <v>3.211009174311927</v>
       </c>
       <c r="L25">
         <v>3.046839472487494</v>
       </c>
       <c r="M25">
-        <v>3.419972640218878</v>
+        <v>3.423094477407576</v>
       </c>
       <c r="N25">
-        <v>0.6381039197812215</v>
+        <v>0.6383948928408573</v>
       </c>
       <c r="O25">
         <v>0.5457025920873124</v>
       </c>
       <c r="P25">
-        <v>0.7716749886518384</v>
+        <v>0.7720429694866632</v>
       </c>
       <c r="Q25">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R25">
         <v>615</v>
@@ -11019,7 +11019,7 @@
         <v>58</v>
       </c>
       <c r="AB25">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC25">
         <v>73</v>
@@ -11175,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="CB25">
-        <v>2.947154471544716</v>
+        <v>2.950152594099695</v>
       </c>
       <c r="CC25">
-        <v>2.61437908496732</v>
+        <v>2.610114192495922</v>
       </c>
       <c r="CD25">
         <v>3.560830860534125</v>
@@ -11199,16 +11199,16 @@
         <v>2.738336713995943</v>
       </c>
       <c r="CJ25">
-        <v>2.588996763754046</v>
+        <v>2.584814216478191</v>
       </c>
       <c r="CK25">
-        <v>2.906976744186046</v>
+        <v>2.890173410404624</v>
       </c>
       <c r="CL25">
         <v>3.448275862068965</v>
       </c>
       <c r="CM25">
-        <v>7.627118644067797</v>
+        <v>7.563025210084033</v>
       </c>
       <c r="CN25">
         <v>1.282051282051282</v>
@@ -11244,7 +11244,7 @@
         <v>0.3257328990228013</v>
       </c>
       <c r="CY25">
-        <v>1.21580547112462</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="CZ25">
         <v>0</v>
@@ -11280,19 +11280,19 @@
         <v>0</v>
       </c>
       <c r="DK25">
-        <v>0.3070624360286591</v>
+        <v>0.3073770491803279</v>
       </c>
       <c r="DL25">
         <v>0.6472491909385114</v>
       </c>
       <c r="DM25">
-        <v>1.812688821752266</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="DN25">
         <v>0</v>
       </c>
       <c r="DO25">
-        <v>4.958677685950414</v>
+        <v>5.042016806722689</v>
       </c>
       <c r="DP25">
         <v>0</v>
@@ -11327,25 +11327,25 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26">
         <v>18</v>
       </c>
       <c r="K26">
-        <v>4.044444444444444</v>
+        <v>4.048042704626335</v>
       </c>
       <c r="L26">
-        <v>3.871829105473965</v>
+        <v>3.870106761565836</v>
       </c>
       <c r="M26">
-        <v>4.256319091783293</v>
+        <v>4.26098535286285</v>
       </c>
       <c r="N26">
-        <v>0.7070260715863897</v>
+        <v>0.7071823549797553</v>
       </c>
       <c r="O26">
-        <v>0.5819158460161146</v>
+        <v>0.617828773168579</v>
       </c>
       <c r="P26">
         <v>0.8021390374331552</v>
@@ -11372,7 +11372,7 @@
         <v>9</v>
       </c>
       <c r="X26">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="Y26">
         <v>625</v>
@@ -11399,7 +11399,7 @@
         <v>633</v>
       </c>
       <c r="AG26">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH26">
         <v>60</v>
@@ -11540,19 +11540,19 @@
         <v>0</v>
       </c>
       <c r="CB26">
-        <v>4.965243296921549</v>
+        <v>4.975124378109453</v>
       </c>
       <c r="CC26">
         <v>2.535657686212361</v>
       </c>
       <c r="CD26">
-        <v>4.63768115942029</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="CE26">
         <v>1.666666666666667</v>
       </c>
       <c r="CF26">
-        <v>5.982905982905983</v>
+        <v>6.03448275862069</v>
       </c>
       <c r="CG26">
         <v>0</v>
@@ -11561,13 +11561,13 @@
         <v>0</v>
       </c>
       <c r="CI26">
-        <v>4.752475247524752</v>
+        <v>4.757185332011893</v>
       </c>
       <c r="CJ26">
         <v>2.373417721518988</v>
       </c>
       <c r="CK26">
-        <v>3.977272727272727</v>
+        <v>3.965445495430611</v>
       </c>
       <c r="CL26">
         <v>1.666666666666667</v>
@@ -11585,10 +11585,10 @@
         <v>5.263157894736842</v>
       </c>
       <c r="CQ26">
-        <v>2.72</v>
+        <v>2.715654952076677</v>
       </c>
       <c r="CR26">
-        <v>5.571847507331378</v>
+        <v>5.588235294117648</v>
       </c>
       <c r="CS26">
         <v>1.666666666666667</v>
@@ -11630,7 +11630,7 @@
         <v>0.4746835443037975</v>
       </c>
       <c r="DF26">
-        <v>1.159420289855073</v>
+        <v>1.162790697674419</v>
       </c>
       <c r="DG26">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>0.7987220447284344</v>
       </c>
       <c r="DM26">
-        <v>2.064896755162242</v>
+        <v>2.071005917159764</v>
       </c>
       <c r="DN26">
         <v>0</v>
@@ -11671,7 +11671,7 @@
         <v>1985</v>
       </c>
       <c r="B27">
-        <v>2324.5</v>
+        <v>2324</v>
       </c>
       <c r="C27">
         <v>2311</v>
@@ -11686,7 +11686,7 @@
         <v>74</v>
       </c>
       <c r="G27">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27">
         <v>17</v>
@@ -11698,22 +11698,22 @@
         <v>20</v>
       </c>
       <c r="K27">
-        <v>3.356282271944923</v>
+        <v>3.356136038266429</v>
       </c>
       <c r="L27">
-        <v>3.188280913399397</v>
+        <v>3.184165232358004</v>
       </c>
       <c r="M27">
-        <v>3.550042771599657</v>
+        <v>3.557651093013288</v>
       </c>
       <c r="N27">
-        <v>0.7307114027597078</v>
+        <v>0.730554361839278</v>
       </c>
       <c r="O27">
-        <v>0.6423982869379015</v>
+        <v>0.6429489927132447</v>
       </c>
       <c r="P27">
-        <v>0.8576329331046313</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="Q27">
         <v>1061</v>
@@ -11740,7 +11740,7 @@
         <v>1054</v>
       </c>
       <c r="Y27">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Z27">
         <v>344</v>
@@ -11821,13 +11821,13 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BA27">
         <v>13</v>
       </c>
       <c r="BB27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -11911,13 +11911,13 @@
         <v>1.866251944012442</v>
       </c>
       <c r="CD27">
-        <v>4.696132596685083</v>
+        <v>4.709141274238227</v>
       </c>
       <c r="CE27">
         <v>0</v>
       </c>
       <c r="CF27">
-        <v>4.838709677419355</v>
+        <v>4.8</v>
       </c>
       <c r="CG27">
         <v>2.597402597402597</v>
@@ -11926,13 +11926,13 @@
         <v>0</v>
       </c>
       <c r="CI27">
-        <v>3.686200378071833</v>
+        <v>3.68968779564806</v>
       </c>
       <c r="CJ27">
         <v>1.708074534161491</v>
       </c>
       <c r="CK27">
-        <v>4.011461318051576</v>
+        <v>3.988603988603988</v>
       </c>
       <c r="CL27">
         <v>0</v>
@@ -11947,13 +11947,13 @@
         <v>0</v>
       </c>
       <c r="CP27">
-        <v>4.174573055028463</v>
+        <v>4.21762986824591</v>
       </c>
       <c r="CQ27">
-        <v>2.040816326530612</v>
+        <v>2.037617554858934</v>
       </c>
       <c r="CR27">
-        <v>5.540166204986149</v>
+        <v>5.605382652215706</v>
       </c>
       <c r="CS27">
         <v>0</v>
@@ -11995,13 +11995,13 @@
         <v>0.1555209953343701</v>
       </c>
       <c r="DF27">
-        <v>0.842578604475498</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="DG27">
         <v>0</v>
       </c>
       <c r="DH27">
-        <v>5.555555555555555</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="DI27">
         <v>0</v>
@@ -12013,7 +12013,7 @@
         <v>0.285171102661597</v>
       </c>
       <c r="DL27">
-        <v>0.6230529595015576</v>
+        <v>0.62402496099844</v>
       </c>
       <c r="DM27">
         <v>1.69971671388102</v>
@@ -12036,7 +12036,7 @@
         <v>1986</v>
       </c>
       <c r="B28">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C28">
         <v>2372</v>
@@ -12063,22 +12063,22 @@
         <v>16</v>
       </c>
       <c r="K28">
-        <v>4.238355014687369</v>
+        <v>4.240134340890008</v>
       </c>
       <c r="L28">
-        <v>4.07563025210084</v>
+        <v>4.072208228379513</v>
       </c>
       <c r="M28">
-        <v>4.435146443514645</v>
+        <v>4.446308724832215</v>
       </c>
       <c r="N28">
-        <v>0.5448449287510477</v>
+        <v>0.5450733752620545</v>
       </c>
       <c r="O28">
-        <v>0.4590984974958264</v>
+        <v>0.4600585529067336</v>
       </c>
       <c r="P28">
-        <v>0.6697362913352868</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="Q28">
         <v>1100</v>
@@ -12093,7 +12093,7 @@
         <v>61</v>
       </c>
       <c r="U28">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V28">
         <v>79</v>
@@ -12102,7 +12102,7 @@
         <v>9</v>
       </c>
       <c r="X28">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="Y28">
         <v>646</v>
@@ -12273,7 +12273,7 @@
         <v>4.909090909090909</v>
       </c>
       <c r="CC28">
-        <v>4.141104294478527</v>
+        <v>4.134762633996937</v>
       </c>
       <c r="CD28">
         <v>3.32409972299169</v>
@@ -12291,13 +12291,13 @@
         <v>0</v>
       </c>
       <c r="CI28">
-        <v>4.705669609615998</v>
+        <v>4.701627486437613</v>
       </c>
       <c r="CJ28">
         <v>3.975535168195719</v>
       </c>
       <c r="CK28">
-        <v>2.747252747252747</v>
+        <v>2.73972602739726</v>
       </c>
       <c r="CL28">
         <v>0</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="CT28">
-        <v>6.896551724137931</v>
+        <v>6.837606837606838</v>
       </c>
       <c r="CU28">
         <v>2.564102564102564</v>
@@ -12339,7 +12339,7 @@
         <v>0.3067484662576687</v>
       </c>
       <c r="CY28">
-        <v>2.13903743315508</v>
+        <v>2.144772117962467</v>
       </c>
       <c r="CZ28">
         <v>1.639344262295082</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="DL28">
-        <v>0.610733711511077</v>
+        <v>0.6106870229007634</v>
       </c>
       <c r="DM28">
         <v>2.486187845303867</v>
@@ -12404,7 +12404,7 @@
         <v>2474</v>
       </c>
       <c r="C29">
-        <v>2460</v>
+        <v>2460.95</v>
       </c>
       <c r="D29">
         <v>2487</v>
@@ -12416,7 +12416,7 @@
         <v>59</v>
       </c>
       <c r="G29">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -12425,31 +12425,31 @@
         <v>12</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K29">
-        <v>2.544426494345719</v>
+        <v>2.546483427647535</v>
       </c>
       <c r="L29">
         <v>2.38480194017785</v>
       </c>
       <c r="M29">
-        <v>2.727711727255869</v>
+        <v>2.738677803584926</v>
       </c>
       <c r="N29">
-        <v>0.6036217303822937</v>
+        <v>0.6041079339508658</v>
       </c>
       <c r="O29">
-        <v>0.4854368932038834</v>
+        <v>0.4856333468231485</v>
       </c>
       <c r="P29">
-        <v>0.7237635705669482</v>
+        <v>0.6921824104234527</v>
       </c>
       <c r="Q29">
         <v>1154</v>
       </c>
       <c r="R29">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S29">
         <v>370</v>
@@ -12479,7 +12479,7 @@
         <v>60</v>
       </c>
       <c r="AB29">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC29">
         <v>78</v>
@@ -12638,16 +12638,16 @@
         <v>3.035559410234172</v>
       </c>
       <c r="CC29">
-        <v>1.931649331352155</v>
+        <v>1.928783382789317</v>
       </c>
       <c r="CD29">
-        <v>3.005464480874317</v>
+        <v>3.009581555505652</v>
       </c>
       <c r="CE29">
         <v>1.666666666666667</v>
       </c>
       <c r="CF29">
-        <v>1.574803149606299</v>
+        <v>1.5625</v>
       </c>
       <c r="CG29">
         <v>0</v>
@@ -12656,13 +12656,13 @@
         <v>0</v>
       </c>
       <c r="CI29">
-        <v>2.844827586206897</v>
+        <v>2.847282139775669</v>
       </c>
       <c r="CJ29">
         <v>1.911764705882353</v>
       </c>
       <c r="CK29">
-        <v>2.425876010781671</v>
+        <v>2.432432432432432</v>
       </c>
       <c r="CL29">
         <v>1.666666666666667</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="CP29">
-        <v>3.304491618420555</v>
+        <v>3.304347826086956</v>
       </c>
       <c r="CQ29">
         <v>2.222222222222222</v>
@@ -12689,7 +12689,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="CT29">
-        <v>2.5</v>
+        <v>2.479338842975207</v>
       </c>
       <c r="CU29">
         <v>1.265822784810127</v>
@@ -12698,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="CW29">
-        <v>0.3436426116838488</v>
+        <v>0.3442340791738382</v>
       </c>
       <c r="CX29">
         <v>0.2958579881656805</v>
@@ -12740,19 +12740,19 @@
         <v>0</v>
       </c>
       <c r="DK29">
-        <v>0.3487358326068004</v>
+        <v>0.3484472445920126</v>
       </c>
       <c r="DL29">
-        <v>0.5873715124816447</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="DM29">
-        <v>1.643835616438356</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="DN29">
         <v>3.333333333333333</v>
       </c>
       <c r="DO29">
-        <v>3.225806451612903</v>
+        <v>3.252032520325204</v>
       </c>
       <c r="DP29">
         <v>0</v>
@@ -12781,34 +12781,34 @@
         <v>65</v>
       </c>
       <c r="G30">
-        <v>72.05000000000018</v>
+        <v>73</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>9</v>
       </c>
       <c r="J30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30">
         <v>2.699483922191346</v>
       </c>
       <c r="L30">
-        <v>2.567140600315956</v>
+        <v>2.563091482649842</v>
       </c>
       <c r="M30">
-        <v>2.880820836621941</v>
+        <v>2.887715363942835</v>
       </c>
       <c r="N30">
-        <v>0.4729996058336618</v>
+        <v>0.4392094405438325</v>
       </c>
       <c r="O30">
         <v>0.3568596352101507</v>
       </c>
       <c r="P30">
-        <v>0.5903187721369539</v>
+        <v>0.5575579006157767</v>
       </c>
       <c r="Q30">
         <v>1186</v>
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="CB30">
-        <v>2.714164546225615</v>
+        <v>2.718776550552251</v>
       </c>
       <c r="CC30">
         <v>1.897810218978102</v>
@@ -13012,7 +13012,7 @@
         <v>3.389830508474576</v>
       </c>
       <c r="CF30">
-        <v>6.299212598425196</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="CG30">
         <v>1.25</v>
@@ -13021,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="CI30">
-        <v>2.533783783783784</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="CJ30">
         <v>1.881331403762663</v>
@@ -13042,10 +13042,10 @@
         <v>0</v>
       </c>
       <c r="CP30">
-        <v>2.971137521222411</v>
+        <v>2.968617472434266</v>
       </c>
       <c r="CQ30">
-        <v>2.183406113537118</v>
+        <v>2.186588921282799</v>
       </c>
       <c r="CR30">
         <v>3.74331550802139</v>
@@ -13054,7 +13054,7 @@
         <v>3.389830508474576</v>
       </c>
       <c r="CT30">
-        <v>7.5</v>
+        <v>7.563025210084033</v>
       </c>
       <c r="CU30">
         <v>2.531645569620253</v>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="CW30">
-        <v>0.1675041876046901</v>
+        <v>0.1672240802675585</v>
       </c>
       <c r="CX30">
         <v>0.1447178002894356</v>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="DA30">
-        <v>2.4</v>
+        <v>2.419354838709677</v>
       </c>
       <c r="DB30">
         <v>1.25</v>
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="DH30">
-        <v>1.574803149606299</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="DI30">
         <v>1.219512195121951</v>
@@ -13120,7 +13120,7 @@
         <v>3.968253968253968</v>
       </c>
       <c r="DP30">
-        <v>1.298701298701299</v>
+        <v>1.299555707450447</v>
       </c>
       <c r="DQ30">
         <v>0</v>
@@ -13134,7 +13134,7 @@
         <v>2579</v>
       </c>
       <c r="C31">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="D31">
         <v>2592</v>
@@ -13158,19 +13158,19 @@
         <v>19</v>
       </c>
       <c r="K31">
-        <v>3.057275541795665</v>
+        <v>3.056092843326886</v>
       </c>
       <c r="L31">
-        <v>2.901353965183752</v>
+        <v>2.903600464576074</v>
       </c>
       <c r="M31">
-        <v>3.229634841033393</v>
+        <v>3.229571984435798</v>
       </c>
       <c r="N31">
         <v>0.6194347657762291</v>
       </c>
       <c r="O31">
-        <v>0.5050505050505051</v>
+        <v>0.5052467936261174</v>
       </c>
       <c r="P31">
         <v>0.7361487795428129</v>
@@ -13266,7 +13266,7 @@
         <v>18</v>
       </c>
       <c r="AU31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>43.05000000000018</v>
+        <v>43</v>
       </c>
       <c r="BA31">
         <v>20</v>
@@ -13365,19 +13365,19 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>3.352412101390025</v>
+        <v>3.349673202614379</v>
       </c>
       <c r="CC31">
         <v>2.578796561604585</v>
       </c>
       <c r="CD31">
-        <v>4.392764857881136</v>
+        <v>4.370179948586118</v>
       </c>
       <c r="CE31">
         <v>0</v>
       </c>
       <c r="CF31">
-        <v>1.515151515151515</v>
+        <v>1.526717557251908</v>
       </c>
       <c r="CG31">
         <v>1.25</v>
@@ -13386,13 +13386,13 @@
         <v>0</v>
       </c>
       <c r="CI31">
-        <v>3.130148270181219</v>
+        <v>3.127572016460905</v>
       </c>
       <c r="CJ31">
         <v>2.556818181818182</v>
       </c>
       <c r="CK31">
-        <v>3.713527851458886</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CL31">
         <v>0</v>
@@ -13407,13 +13407,13 @@
         <v>0</v>
       </c>
       <c r="CP31">
-        <v>3.578094332574963</v>
+        <v>3.565505804311774</v>
       </c>
       <c r="CQ31">
-        <v>2.861230329041488</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="CR31">
-        <v>5.221932114882506</v>
+        <v>5.194805194805195</v>
       </c>
       <c r="CS31">
         <v>0</v>
@@ -13428,13 +13428,13 @@
         <v>0</v>
       </c>
       <c r="CW31">
-        <v>0.1638001638001638</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="CX31">
         <v>0.1422475106685633</v>
       </c>
       <c r="CY31">
-        <v>2.894736842105263</v>
+        <v>2.887139107611548</v>
       </c>
       <c r="CZ31">
         <v>0</v>
@@ -13470,19 +13470,19 @@
         <v>0</v>
       </c>
       <c r="DK31">
-        <v>0.2469135802469136</v>
+        <v>0.2467105263157895</v>
       </c>
       <c r="DL31">
         <v>0.2861230329041488</v>
       </c>
       <c r="DM31">
-        <v>3.403141361256544</v>
+        <v>3.39425587467363</v>
       </c>
       <c r="DN31">
         <v>0</v>
       </c>
       <c r="DO31">
-        <v>3.076923076923077</v>
+        <v>3.053435114503817</v>
       </c>
       <c r="DP31">
         <v>0</v>
@@ -13526,19 +13526,19 @@
         <v>2.766199317923456</v>
       </c>
       <c r="L32">
-        <v>2.632568634825122</v>
+        <v>2.640513013956997</v>
       </c>
       <c r="M32">
-        <v>2.932216298552933</v>
+        <v>2.928870292887029</v>
       </c>
       <c r="N32">
-        <v>0.4561003420752566</v>
+        <v>0.456968773800457</v>
       </c>
       <c r="O32">
-        <v>0.3782148260211801</v>
+        <v>0.3780718336483932</v>
       </c>
       <c r="P32">
-        <v>0.6001838424307543</v>
+        <v>0.6024209833685024</v>
       </c>
       <c r="Q32">
         <v>1256</v>
@@ -13547,7 +13547,7 @@
         <v>718</v>
       </c>
       <c r="S32">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T32">
         <v>61</v>
@@ -13583,7 +13583,7 @@
         <v>8</v>
       </c>
       <c r="AE32">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AF32">
         <v>722</v>
@@ -13730,13 +13730,13 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>3.117505995203837</v>
+        <v>3.12</v>
       </c>
       <c r="CC32">
-        <v>1.258741258741259</v>
+        <v>1.256983240223464</v>
       </c>
       <c r="CD32">
-        <v>4.485488126649076</v>
+        <v>4.450261780104712</v>
       </c>
       <c r="CE32">
         <v>0</v>
@@ -13757,7 +13757,7 @@
         <v>1.248266296809986</v>
       </c>
       <c r="CK32">
-        <v>3.896103896103896</v>
+        <v>3.91644908616188</v>
       </c>
       <c r="CL32">
         <v>0</v>
@@ -13766,13 +13766,13 @@
         <v>3.03030303030303</v>
       </c>
       <c r="CN32">
-        <v>2.409638554216868</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="CO32">
         <v>0</v>
       </c>
       <c r="CP32">
-        <v>3.357314148681055</v>
+        <v>3.36</v>
       </c>
       <c r="CQ32">
         <v>1.534170153417015</v>
@@ -13796,10 +13796,10 @@
         <v>0.0794912559618442</v>
       </c>
       <c r="CX32">
-        <v>0.2789400278940028</v>
+        <v>0.2793296089385475</v>
       </c>
       <c r="CY32">
-        <v>1.312335958005249</v>
+        <v>1.308900523560209</v>
       </c>
       <c r="CZ32">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0.2773925104022191</v>
       </c>
       <c r="DF32">
-        <v>1.023017902813299</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="DG32">
         <v>0</v>
@@ -13841,13 +13841,13 @@
         <v>0.4195804195804196</v>
       </c>
       <c r="DM32">
-        <v>2.040816326530612</v>
+        <v>2.025573475550987</v>
       </c>
       <c r="DN32">
         <v>0</v>
       </c>
       <c r="DO32">
-        <v>4.545454545454546</v>
+        <v>4.580152671755725</v>
       </c>
       <c r="DP32">
         <v>0</v>
@@ -13864,7 +13864,7 @@
         <v>2703</v>
       </c>
       <c r="C33">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="D33">
         <v>2716</v>
@@ -13876,7 +13876,7 @@
         <v>47</v>
       </c>
       <c r="G33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33">
         <v>12</v>
@@ -13888,22 +13888,22 @@
         <v>15</v>
       </c>
       <c r="K33">
-        <v>1.85459940652819</v>
+        <v>1.855976243504083</v>
       </c>
       <c r="L33">
-        <v>1.736239379386775</v>
+        <v>1.737523105360443</v>
       </c>
       <c r="M33">
-        <v>2.011922503725782</v>
+        <v>2.029520295202952</v>
       </c>
       <c r="N33">
         <v>0.4434589800443459</v>
       </c>
       <c r="O33">
-        <v>0.368052999631947</v>
+        <v>0.3684598378776713</v>
       </c>
       <c r="P33">
-        <v>0.5541189508681197</v>
+        <v>0.5547337278106509</v>
       </c>
       <c r="Q33">
         <v>1295</v>
@@ -13912,7 +13912,7 @@
         <v>725</v>
       </c>
       <c r="S33">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T33">
         <v>61</v>
@@ -14101,7 +14101,7 @@
         <v>1.659751037344398</v>
       </c>
       <c r="CD33">
-        <v>2.222222222222222</v>
+        <v>2.227722772277227</v>
       </c>
       <c r="CE33">
         <v>0</v>
@@ -14116,13 +14116,13 @@
         <v>0</v>
       </c>
       <c r="CI33">
-        <v>1.698841698841699</v>
+        <v>1.70015455950541</v>
       </c>
       <c r="CJ33">
         <v>1.646090534979424</v>
       </c>
       <c r="CK33">
-        <v>1.732673267326733</v>
+        <v>1.73697270471464</v>
       </c>
       <c r="CL33">
         <v>0</v>
@@ -14137,13 +14137,13 @@
         <v>0</v>
       </c>
       <c r="CP33">
-        <v>2.093023255813954</v>
+        <v>2.089783281733746</v>
       </c>
       <c r="CQ33">
-        <v>1.931034482758621</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="CR33">
-        <v>2.785163528882607</v>
+        <v>2.798982188295165</v>
       </c>
       <c r="CS33">
         <v>0</v>
@@ -14203,10 +14203,10 @@
         <v>0.07763975155279502</v>
       </c>
       <c r="DL33">
-        <v>0.8333333333333334</v>
+        <v>0.8344923504867872</v>
       </c>
       <c r="DM33">
-        <v>1.530612244897959</v>
+        <v>1.534526854219949</v>
       </c>
       <c r="DN33">
         <v>0</v>
@@ -14232,7 +14232,7 @@
         <v>2728</v>
       </c>
       <c r="D34">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="E34">
         <v>65</v>
@@ -14241,7 +14241,7 @@
         <v>62</v>
       </c>
       <c r="G34">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34">
         <v>14</v>
@@ -14253,22 +14253,22 @@
         <v>17</v>
       </c>
       <c r="K34">
-        <v>2.377903865914742</v>
+        <v>2.377468910021946</v>
       </c>
       <c r="L34">
-        <v>2.258652094717668</v>
+        <v>2.257829570284049</v>
       </c>
       <c r="M34">
-        <v>2.548280836592975</v>
+        <v>2.53025302530253</v>
       </c>
       <c r="N34">
-        <v>0.5105762217359592</v>
+        <v>0.5103900838497994</v>
       </c>
       <c r="O34">
-        <v>0.4363636363636364</v>
+        <v>0.4362050163576882</v>
       </c>
       <c r="P34">
-        <v>0.6206644760861628</v>
+        <v>0.6202116016052536</v>
       </c>
       <c r="Q34">
         <v>1319</v>
@@ -14445,7 +14445,7 @@
         <v>2</v>
       </c>
       <c r="BW34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX34">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>2.054794520547945</v>
       </c>
       <c r="CD34">
-        <v>2.941176470588235</v>
+        <v>2.93398533007335</v>
       </c>
       <c r="CE34">
         <v>0</v>
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="CI34">
-        <v>2.274450341167551</v>
+        <v>2.276176024279211</v>
       </c>
       <c r="CJ34">
         <v>2.03804347826087</v>
@@ -14508,7 +14508,7 @@
         <v>2.325581395348837</v>
       </c>
       <c r="CR34">
-        <v>3.508771929824561</v>
+        <v>3.517587939698493</v>
       </c>
       <c r="CS34">
         <v>0</v>
@@ -14529,13 +14529,13 @@
         <v>0</v>
       </c>
       <c r="CY34">
-        <v>1.246882793017456</v>
+        <v>1.25</v>
       </c>
       <c r="CZ34">
         <v>0</v>
       </c>
       <c r="DA34">
-        <v>2.985074626865671</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="DB34">
         <v>0</v>
@@ -14565,13 +14565,13 @@
         <v>0</v>
       </c>
       <c r="DK34">
-        <v>0.3810975609756098</v>
+        <v>0.3808073115003808</v>
       </c>
       <c r="DL34">
         <v>0.2728512960436562</v>
       </c>
       <c r="DM34">
-        <v>1.937046004842615</v>
+        <v>1.763224181360202</v>
       </c>
       <c r="DN34">
         <v>0</v>
@@ -14594,16 +14594,16 @@
         <v>2793</v>
       </c>
       <c r="C35">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="D35">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E35">
         <v>68</v>
       </c>
       <c r="F35">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35">
         <v>72</v>
@@ -14621,19 +14621,19 @@
         <v>2.436402723038337</v>
       </c>
       <c r="L35">
-        <v>2.317249260878459</v>
+        <v>2.304620408921871</v>
       </c>
       <c r="M35">
         <v>2.586206896551724</v>
       </c>
       <c r="N35">
-        <v>0.6071428571428571</v>
+        <v>0.6077940650697176</v>
       </c>
       <c r="O35">
-        <v>0.5017831252271445</v>
+        <v>0.5017921146953405</v>
       </c>
       <c r="P35">
-        <v>0.7158196134574087</v>
+        <v>0.7163323782234957</v>
       </c>
       <c r="Q35">
         <v>1347</v>
@@ -14642,7 +14642,7 @@
         <v>747</v>
       </c>
       <c r="S35">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T35">
         <v>61</v>
@@ -14651,7 +14651,7 @@
         <v>134</v>
       </c>
       <c r="V35">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W35">
         <v>9</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="CB35">
-        <v>3.048327137546468</v>
+        <v>3.050595238095238</v>
       </c>
       <c r="CC35">
         <v>1.208053691275168</v>
@@ -14846,13 +14846,13 @@
         <v>0</v>
       </c>
       <c r="CI35">
-        <v>2.89532293986637</v>
+        <v>2.893175074183976</v>
       </c>
       <c r="CJ35">
         <v>1.198402130492676</v>
       </c>
       <c r="CK35">
-        <v>1.707317073170732</v>
+        <v>1.70316301703163</v>
       </c>
       <c r="CL35">
         <v>3.278688524590164</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="CP35">
-        <v>3.273809523809524</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="CQ35">
         <v>1.474530831099196</v>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="DK35">
-        <v>0.2237136465324385</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="DL35">
         <v>0.53475935828877</v>
@@ -14968,7 +14968,7 @@
         <v>60</v>
       </c>
       <c r="F36">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>64</v>
@@ -14983,19 +14983,19 @@
         <v>17</v>
       </c>
       <c r="K36">
-        <v>2.10896309314587</v>
+        <v>2.108222066057625</v>
       </c>
       <c r="L36">
-        <v>1.993006993006993</v>
+        <v>1.97946308238624</v>
       </c>
       <c r="M36">
-        <v>2.257495590828924</v>
+        <v>2.255943896714432</v>
       </c>
       <c r="N36">
         <v>0.4912280701754386</v>
       </c>
       <c r="O36">
-        <v>0.3865073787772312</v>
+        <v>0.3863716192483316</v>
       </c>
       <c r="P36">
         <v>0.5983808518127419</v>
@@ -15076,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="CB36">
-        <v>2.597402597402597</v>
+        <v>2.595529920692141</v>
       </c>
       <c r="CC36">
         <v>1.19047619047619</v>
@@ -15202,7 +15202,7 @@
         <v>1.587301587301587</v>
       </c>
       <c r="CF36">
-        <v>0.7936507936507936</v>
+        <v>1.45985401459854</v>
       </c>
       <c r="CG36">
         <v>1.176470588235294</v>
@@ -15232,19 +15232,19 @@
         <v>0</v>
       </c>
       <c r="CP36">
-        <v>2.805755395683453</v>
+        <v>2.805856394797769</v>
       </c>
       <c r="CQ36">
-        <v>1.33155792276964</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="CR36">
-        <v>3.40632603406326</v>
+        <v>3.39847164150899</v>
       </c>
       <c r="CS36">
         <v>1.587301587301587</v>
       </c>
       <c r="CT36">
-        <v>2.307692307692308</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="CU36">
         <v>2.352941176470588</v>
@@ -15259,7 +15259,7 @@
         <v>0.2659574468085106</v>
       </c>
       <c r="CY36">
-        <v>1.201923076923077</v>
+        <v>1.199040767386091</v>
       </c>
       <c r="CZ36">
         <v>0</v>
@@ -15280,7 +15280,7 @@
         <v>0.1324503311258278</v>
       </c>
       <c r="DF36">
-        <v>0.7246376811594203</v>
+        <v>0.7263922518159807</v>
       </c>
       <c r="DG36">
         <v>0</v>
@@ -15301,7 +15301,7 @@
         <v>0.5312084993359893</v>
       </c>
       <c r="DM36">
-        <v>1.694915254237288</v>
+        <v>1.690821256038647</v>
       </c>
       <c r="DN36">
         <v>0</v>
@@ -15351,19 +15351,19 @@
         <v>2.007615091727241</v>
       </c>
       <c r="L37">
-        <v>1.895244658855961</v>
+        <v>1.893254859966856</v>
       </c>
       <c r="M37">
-        <v>2.154273801250869</v>
+        <v>2.15203054494967</v>
       </c>
       <c r="N37">
-        <v>0.4490500863557859</v>
+        <v>0.4488950276243094</v>
       </c>
       <c r="O37">
-        <v>0.3456619426201175</v>
+        <v>0.3454231433506045</v>
       </c>
       <c r="P37">
-        <v>0.5546023359622323</v>
+        <v>0.5542085209560097</v>
       </c>
       <c r="Q37">
         <v>1421</v>
@@ -15372,7 +15372,7 @@
         <v>760</v>
       </c>
       <c r="S37">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T37">
         <v>64</v>
@@ -15501,7 +15501,7 @@
         <v>7</v>
       </c>
       <c r="BJ37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK37">
         <v>2</v>
@@ -15555,19 +15555,19 @@
         <v>0</v>
       </c>
       <c r="CB37">
-        <v>1.897399859451862</v>
+        <v>1.896067415730337</v>
       </c>
       <c r="CC37">
         <v>1.717305151915456</v>
       </c>
       <c r="CD37">
-        <v>2.60047281323877</v>
+        <v>2.59433962264151</v>
       </c>
       <c r="CE37">
         <v>1.5625</v>
       </c>
       <c r="CF37">
-        <v>4.545454545454546</v>
+        <v>4.511278195488721</v>
       </c>
       <c r="CG37">
         <v>0</v>
@@ -15576,13 +15576,13 @@
         <v>0</v>
       </c>
       <c r="CI37">
-        <v>1.756851721714687</v>
+        <v>1.75561797752809</v>
       </c>
       <c r="CJ37">
         <v>1.574803149606299</v>
       </c>
       <c r="CK37">
-        <v>2.122641509433962</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="CL37">
         <v>1.5625</v>
@@ -15597,7 +15597,7 @@
         <v>0</v>
       </c>
       <c r="CP37">
-        <v>2.052443518201084</v>
+        <v>2.053824362606233</v>
       </c>
       <c r="CQ37">
         <v>1.981505944517834</v>
@@ -15621,13 +15621,13 @@
         <v>0</v>
       </c>
       <c r="CX37">
-        <v>0.1324503311258278</v>
+        <v>0.132538162910394</v>
       </c>
       <c r="CY37">
         <v>1.682692307692308</v>
       </c>
       <c r="CZ37">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="DA37">
         <v>1.550387596899225</v>
@@ -15645,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="DF37">
-        <v>1.418439716312057</v>
+        <v>1.415094339622642</v>
       </c>
       <c r="DG37">
         <v>1.5625</v>
@@ -15663,7 +15663,7 @@
         <v>0.07052186177715092</v>
       </c>
       <c r="DL37">
-        <v>0.3963011889035667</v>
+        <v>0.395778364116095</v>
       </c>
       <c r="DM37">
         <v>2.179176755447942</v>
@@ -15672,7 +15672,7 @@
         <v>3.125</v>
       </c>
       <c r="DO37">
-        <v>3.076923076923077</v>
+        <v>3.07811568276685</v>
       </c>
       <c r="DP37">
         <v>0</v>
@@ -15689,10 +15689,10 @@
         <v>2936</v>
       </c>
       <c r="C38">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="D38">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="E38">
         <v>67</v>
@@ -15713,13 +15713,13 @@
         <v>22</v>
       </c>
       <c r="K38">
-        <v>2.275815217391304</v>
+        <v>2.276588515120625</v>
       </c>
       <c r="L38">
-        <v>2.144279380764911</v>
+        <v>2.14431586113002</v>
       </c>
       <c r="M38">
-        <v>2.421555252387449</v>
+        <v>2.424035506998976</v>
       </c>
       <c r="N38">
         <v>0.6464783940115686</v>
@@ -15728,7 +15728,7 @@
         <v>0.5447735784814436</v>
       </c>
       <c r="P38">
-        <v>0.7511095937179925</v>
+        <v>0.7506098746714828</v>
       </c>
       <c r="Q38">
         <v>1447</v>
@@ -15740,7 +15740,7 @@
         <v>424</v>
       </c>
       <c r="T38">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U38">
         <v>133</v>
@@ -15767,7 +15767,7 @@
         <v>128</v>
       </c>
       <c r="AC38">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD38">
         <v>8</v>
@@ -15866,7 +15866,7 @@
         <v>8</v>
       </c>
       <c r="BJ38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK38">
         <v>2</v>
@@ -15920,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="CB38">
-        <v>2.558782849239281</v>
+        <v>2.557014512785073</v>
       </c>
       <c r="CC38">
         <v>2.080624187256177</v>
@@ -15929,7 +15929,7 @@
         <v>1.635514018691589</v>
       </c>
       <c r="CE38">
-        <v>1.587301587301587</v>
+        <v>1.5625</v>
       </c>
       <c r="CF38">
         <v>3.007518796992481</v>
@@ -15947,13 +15947,13 @@
         <v>1.935483870967742</v>
       </c>
       <c r="CK38">
-        <v>1.17096018735363</v>
+        <v>1.168224299065421</v>
       </c>
       <c r="CL38">
         <v>1.5625</v>
       </c>
       <c r="CM38">
-        <v>2.222222222222222</v>
+        <v>2.205882352941177</v>
       </c>
       <c r="CN38">
         <v>1.123595505617978</v>
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="CP38">
-        <v>2.762430939226519</v>
+        <v>2.7643400138217</v>
       </c>
       <c r="CQ38">
         <v>2.34375</v>
@@ -15992,7 +15992,7 @@
         <v>1.895734597156398</v>
       </c>
       <c r="CZ38">
-        <v>1.587301587301587</v>
+        <v>3.125</v>
       </c>
       <c r="DA38">
         <v>1.515151515151515</v>
@@ -16010,7 +16010,7 @@
         <v>0.516795865633075</v>
       </c>
       <c r="DF38">
-        <v>1.639152750114907</v>
+        <v>1.635514018691589</v>
       </c>
       <c r="DG38">
         <v>1.587301587301587</v>
@@ -16025,19 +16025,19 @@
         <v>0</v>
       </c>
       <c r="DK38">
-        <v>0.2070393374741201</v>
+        <v>0.2071823204419889</v>
       </c>
       <c r="DL38">
         <v>0.9067357512953367</v>
       </c>
       <c r="DM38">
-        <v>2.369668246445498</v>
+        <v>2.375296912114014</v>
       </c>
       <c r="DN38">
         <v>3.125</v>
       </c>
       <c r="DO38">
-        <v>2.986196835372016</v>
+        <v>3.007518796992481</v>
       </c>
       <c r="DP38">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>2983</v>
       </c>
       <c r="C39">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="D39">
         <v>2996</v>
@@ -16078,22 +16078,22 @@
         <v>18</v>
       </c>
       <c r="K39">
-        <v>1.683501683501683</v>
+        <v>1.681237390719569</v>
       </c>
       <c r="L39">
-        <v>1.57190635451505</v>
+        <v>1.571380809093949</v>
       </c>
       <c r="M39">
-        <v>1.843781428092524</v>
+        <v>1.843163538873994</v>
       </c>
       <c r="N39">
-        <v>0.5028494803888702</v>
+        <v>0.5030181086519114</v>
       </c>
       <c r="O39">
-        <v>0.4034969737726967</v>
+        <v>0.4037685060565276</v>
       </c>
       <c r="P39">
-        <v>0.6050420168067226</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="Q39">
         <v>1483</v>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="CI39">
-        <v>1.888064733648011</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="CJ39">
         <v>0.7633587786259541</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="CM39">
-        <v>2.18978102189781</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="CN39">
         <v>1.111111111111111</v>
@@ -16330,16 +16330,16 @@
         <v>2.228224172856178</v>
       </c>
       <c r="CQ39">
-        <v>1.149425287356322</v>
+        <v>1.149498780021754</v>
       </c>
       <c r="CR39">
-        <v>2.398081534772182</v>
+        <v>2.403846153846154</v>
       </c>
       <c r="CS39">
         <v>0</v>
       </c>
       <c r="CT39">
-        <v>4.477611940298507</v>
+        <v>4.511278195488721</v>
       </c>
       <c r="CU39">
         <v>2.298850574712644</v>
@@ -16348,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="CW39">
-        <v>0.06724949562878278</v>
+        <v>0.06720430107526883</v>
       </c>
       <c r="CX39">
         <v>0.6385696040868455</v>
@@ -16360,7 +16360,7 @@
         <v>1.587301587301587</v>
       </c>
       <c r="DA39">
-        <v>2.222222222222222</v>
+        <v>2.238805970149254</v>
       </c>
       <c r="DB39">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="DE39">
-        <v>0.5095541401273885</v>
+        <v>0.5089058524173028</v>
       </c>
       <c r="DF39">
         <v>0.9389671361502347</v>
@@ -16390,13 +16390,13 @@
         <v>0</v>
       </c>
       <c r="DK39">
-        <v>0.1347708894878706</v>
+        <v>0.1346801346801347</v>
       </c>
       <c r="DL39">
         <v>0.8928571428571428</v>
       </c>
       <c r="DM39">
-        <v>1.66270783847981</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="DN39">
         <v>1.587301587301587</v>
@@ -16443,7 +16443,7 @@
         <v>18</v>
       </c>
       <c r="K40">
-        <v>1.588877855014896</v>
+        <v>1.589403973509934</v>
       </c>
       <c r="L40">
         <v>1.457436237164624</v>
@@ -16452,16 +16452,16 @@
         <v>1.728723404255319</v>
       </c>
       <c r="N40">
-        <v>0.4973474801061007</v>
+        <v>0.4975124378109453</v>
       </c>
       <c r="O40">
-        <v>0.4287598944591029</v>
+        <v>0.4286185295087372</v>
       </c>
       <c r="P40">
-        <v>0.5978080371969445</v>
+        <v>0.5980066445182725</v>
       </c>
       <c r="Q40">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="R40">
         <v>786</v>
@@ -16473,7 +16473,7 @@
         <v>62</v>
       </c>
       <c r="U40">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V40">
         <v>89</v>
@@ -16509,7 +16509,7 @@
         <v>790</v>
       </c>
       <c r="AG40">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH40">
         <v>62</v>
@@ -16677,7 +16677,7 @@
         <v>0.5069708491761723</v>
       </c>
       <c r="CK40">
-        <v>1.631701631701632</v>
+        <v>1.635514018691589</v>
       </c>
       <c r="CL40">
         <v>0</v>
@@ -16692,10 +16692,10 @@
         <v>0</v>
       </c>
       <c r="CP40">
-        <v>1.976349722903276</v>
+        <v>1.97504859396264</v>
       </c>
       <c r="CQ40">
-        <v>0.89171974522293</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="CR40">
         <v>2.631578947368421</v>
@@ -16758,7 +16758,7 @@
         <v>0.06622516556291391</v>
       </c>
       <c r="DL40">
-        <v>0.8894536213468869</v>
+        <v>0.8905852417302799</v>
       </c>
       <c r="DM40">
         <v>1.401869158878505</v>
@@ -16781,7 +16781,7 @@
         <v>1999</v>
       </c>
       <c r="B41">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C41">
         <v>3039</v>
@@ -16811,7 +16811,7 @@
         <v>1.901016060308096</v>
       </c>
       <c r="L41">
-        <v>1.794453507340946</v>
+        <v>1.793283338767525</v>
       </c>
       <c r="M41">
         <v>2.036793692509855</v>
@@ -16820,10 +16820,10 @@
         <v>0.6898817345597897</v>
       </c>
       <c r="O41">
-        <v>0.6213109692934529</v>
+        <v>0.6211180124223602</v>
       </c>
       <c r="P41">
-        <v>0.8161932745674175</v>
+        <v>0.8159402120312431</v>
       </c>
       <c r="Q41">
         <v>1539</v>
@@ -16871,10 +16871,10 @@
         <v>1546</v>
       </c>
       <c r="AF41">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG41">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH41">
         <v>61</v>
@@ -17036,13 +17036,13 @@
         <v>0</v>
       </c>
       <c r="CI41">
-        <v>2.080624187256177</v>
+        <v>2.081977878985036</v>
       </c>
       <c r="CJ41">
         <v>1.140684410646388</v>
       </c>
       <c r="CK41">
-        <v>1.38568129330254</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="CL41">
         <v>1.639344262295082</v>
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="CP41">
-        <v>2.410423452768729</v>
+        <v>2.408854166666667</v>
       </c>
       <c r="CQ41">
         <v>1.40485312899106</v>
@@ -17099,13 +17099,13 @@
         <v>0</v>
       </c>
       <c r="DD41">
-        <v>0.3883495145631068</v>
+        <v>0.388098318240621</v>
       </c>
       <c r="DE41">
         <v>0.6345177664974619</v>
       </c>
       <c r="DF41">
-        <v>0.9174311926605505</v>
+        <v>0.9153318077803204</v>
       </c>
       <c r="DG41">
         <v>0</v>
@@ -17126,7 +17126,7 @@
         <v>0.8928571428571428</v>
       </c>
       <c r="DM41">
-        <v>1.85614849187935</v>
+        <v>1.864801864801865</v>
       </c>
       <c r="DN41">
         <v>0</v>
@@ -17173,22 +17173,22 @@
         <v>25</v>
       </c>
       <c r="K42">
-        <v>2.133160956690368</v>
+        <v>2.132471728594507</v>
       </c>
       <c r="L42">
-        <v>2.032913843175218</v>
+        <v>2.033570045190445</v>
       </c>
       <c r="M42">
-        <v>2.263174911089557</v>
+        <v>2.2646759199639</v>
       </c>
       <c r="N42">
         <v>0.7147498375568551</v>
       </c>
       <c r="O42">
-        <v>0.6474587245063127</v>
+        <v>0.6476683937823834</v>
       </c>
       <c r="P42">
-        <v>0.8106355382619975</v>
+        <v>0.8111615833874107</v>
       </c>
       <c r="Q42">
         <v>1567</v>
@@ -17203,7 +17203,7 @@
         <v>62</v>
       </c>
       <c r="U42">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V42">
         <v>90</v>
@@ -17218,13 +17218,13 @@
         <v>786</v>
       </c>
       <c r="Z42">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA42">
         <v>62</v>
       </c>
       <c r="AB42">
-        <v>135</v>
+        <v>134.95</v>
       </c>
       <c r="AC42">
         <v>88</v>
@@ -17239,7 +17239,7 @@
         <v>793</v>
       </c>
       <c r="AG42">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AH42">
         <v>62</v>
@@ -17401,13 +17401,13 @@
         <v>0</v>
       </c>
       <c r="CI42">
-        <v>1.910828025477707</v>
+        <v>1.909611712285169</v>
       </c>
       <c r="CJ42">
         <v>1.261034047919294</v>
       </c>
       <c r="CK42">
-        <v>3.218390804597701</v>
+        <v>3.211009174311927</v>
       </c>
       <c r="CL42">
         <v>1.612903225806452</v>
@@ -17428,7 +17428,7 @@
         <v>1.517067003792667</v>
       </c>
       <c r="CR42">
-        <v>4.235294117647059</v>
+        <v>4.275534441805226</v>
       </c>
       <c r="CS42">
         <v>1.612903225806452</v>
@@ -17470,7 +17470,7 @@
         <v>0.8838383838383838</v>
       </c>
       <c r="DF42">
-        <v>1.631511898953759</v>
+        <v>1.631701631701632</v>
       </c>
       <c r="DG42">
         <v>0</v>
@@ -17485,13 +17485,13 @@
         <v>0</v>
       </c>
       <c r="DK42">
-        <v>0.1283738270908721</v>
+        <v>0.1282873636946761</v>
       </c>
       <c r="DL42">
-        <v>1.133501259445844</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="DM42">
-        <v>2.534562211981567</v>
+        <v>2.54041570438799</v>
       </c>
       <c r="DN42">
         <v>0</v>
@@ -17517,7 +17517,7 @@
         <v>3120</v>
       </c>
       <c r="D43">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="E43">
         <v>47</v>
@@ -17535,25 +17535,25 @@
         <v>15</v>
       </c>
       <c r="J43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>1.495862507956715</v>
+        <v>1.497292131251991</v>
       </c>
       <c r="L43">
-        <v>1.398156974896727</v>
+        <v>1.399046104928458</v>
       </c>
       <c r="M43">
-        <v>1.606735466485919</v>
+        <v>1.605136436597111</v>
       </c>
       <c r="N43">
         <v>0.5424377791959157</v>
       </c>
       <c r="O43">
-        <v>0.4778591908251035</v>
+        <v>0.4781638508128785</v>
       </c>
       <c r="P43">
-        <v>0.6097854786771447</v>
+        <v>0.6369426751592357</v>
       </c>
       <c r="Q43">
         <v>1598</v>
@@ -17727,7 +17727,7 @@
         <v>4</v>
       </c>
       <c r="BV43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW43">
         <v>6</v>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="CB43">
-        <v>1.807416816214914</v>
+        <v>1.809107922645041</v>
       </c>
       <c r="CC43">
         <v>0.6321112515802781</v>
@@ -17772,7 +17772,7 @@
         <v>0.628140703517588</v>
       </c>
       <c r="CK43">
-        <v>0.904977375565611</v>
+        <v>0.9029345372460496</v>
       </c>
       <c r="CL43">
         <v>1.587301587301587</v>
@@ -17790,10 +17790,10 @@
         <v>1.943573667711599</v>
       </c>
       <c r="CQ43">
-        <v>0.8816120906801008</v>
+        <v>0.8827238335435058</v>
       </c>
       <c r="CR43">
-        <v>1.85614849187935</v>
+        <v>1.86937774956773</v>
       </c>
       <c r="CS43">
         <v>1.587301587301587</v>
@@ -17802,7 +17802,7 @@
         <v>3.623188405797102</v>
       </c>
       <c r="CU43">
-        <v>3.296703296703297</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="CV43">
         <v>0</v>
@@ -17820,7 +17820,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>2.857142857142857</v>
+        <v>2.877697841726619</v>
       </c>
       <c r="DB43">
         <v>0</v>
@@ -17841,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="DH43">
-        <v>2.127659574468085</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="DI43">
         <v>0</v>
@@ -17850,13 +17850,13 @@
         <v>0</v>
       </c>
       <c r="DK43">
-        <v>0.2520478890989288</v>
+        <v>0.2517306482064192</v>
       </c>
       <c r="DL43">
-        <v>0.7537688442211055</v>
+        <v>0.6353240152477764</v>
       </c>
       <c r="DM43">
-        <v>1.38568129330254</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="DN43">
         <v>0</v>
@@ -17891,7 +17891,7 @@
         <v>44</v>
       </c>
       <c r="G44">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44">
         <v>14</v>
@@ -17903,19 +17903,19 @@
         <v>17</v>
       </c>
       <c r="K44">
-        <v>1.490171211160431</v>
+        <v>1.491589971437639</v>
       </c>
       <c r="L44">
-        <v>1.390644753476612</v>
+        <v>1.391964568174628</v>
       </c>
       <c r="M44">
-        <v>1.618533798794033</v>
+        <v>1.641414141414142</v>
       </c>
       <c r="N44">
-        <v>0.4435994930291508</v>
+        <v>0.4434589800443459</v>
       </c>
       <c r="O44">
-        <v>0.3792667509481669</v>
+        <v>0.379386658235852</v>
       </c>
       <c r="P44">
         <v>0.5376344086021506</v>
@@ -17927,7 +17927,7 @@
         <v>793</v>
       </c>
       <c r="S44">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T44">
         <v>64</v>
@@ -17948,7 +17948,7 @@
         <v>790</v>
       </c>
       <c r="Z44">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AA44">
         <v>64</v>
@@ -18026,10 +18026,10 @@
         <v>0</v>
       </c>
       <c r="AZ44">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BA44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB44">
         <v>13</v>
@@ -18152,10 +18152,10 @@
         <v>0</v>
       </c>
       <c r="CP44">
-        <v>2.085953594173097</v>
+        <v>2.043343653250774</v>
       </c>
       <c r="CQ44">
-        <v>0.5025125628140703</v>
+        <v>0.3816793893129771</v>
       </c>
       <c r="CR44">
         <v>2.974828375286041</v>
@@ -18227,7 +18227,7 @@
         <v>0</v>
       </c>
       <c r="DO44">
-        <v>2.112676056338028</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="DP44">
         <v>0</v>
@@ -18250,7 +18250,7 @@
         <v>3206</v>
       </c>
       <c r="E45">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45">
         <v>42</v>
@@ -18268,13 +18268,13 @@
         <v>27</v>
       </c>
       <c r="K45">
-        <v>1.415539477823215</v>
+        <v>1.434586032075421</v>
       </c>
       <c r="L45">
         <v>1.314965560425798</v>
       </c>
       <c r="M45">
-        <v>1.559575795383656</v>
+        <v>1.562988433885589</v>
       </c>
       <c r="N45">
         <v>0.7817385866166353</v>
@@ -18283,7 +18283,7 @@
         <v>0.718525460793502</v>
       </c>
       <c r="P45">
-        <v>0.8488163886729549</v>
+        <v>0.8506616257088847</v>
       </c>
       <c r="Q45">
         <v>1650</v>
@@ -18298,7 +18298,7 @@
         <v>65</v>
       </c>
       <c r="U45">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V45">
         <v>93</v>
@@ -18307,7 +18307,7 @@
         <v>9</v>
       </c>
       <c r="X45">
-        <v>1643</v>
+        <v>1643.95</v>
       </c>
       <c r="Y45">
         <v>786</v>
@@ -18394,7 +18394,7 @@
         <v>32</v>
       </c>
       <c r="BA45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB45">
         <v>13</v>
@@ -18475,7 +18475,7 @@
         <v>1</v>
       </c>
       <c r="CB45">
-        <v>1.757575757575757</v>
+        <v>1.758641600970285</v>
       </c>
       <c r="CC45">
         <v>0.3802281368821293</v>
@@ -18487,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="CF45">
-        <v>1.43884892086331</v>
+        <v>1.449275362318841</v>
       </c>
       <c r="CG45">
         <v>0</v>
@@ -18502,7 +18502,7 @@
         <v>0.3783102143757882</v>
       </c>
       <c r="CK45">
-        <v>1.79372197309417</v>
+        <v>1.789709172259508</v>
       </c>
       <c r="CL45">
         <v>0</v>
@@ -18520,10 +18520,10 @@
         <v>1.939393939393939</v>
       </c>
       <c r="CQ45">
-        <v>0.6297626270166223</v>
+        <v>0.5089058524173028</v>
       </c>
       <c r="CR45">
-        <v>2.934537246049661</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="CS45">
         <v>0</v>
@@ -18580,10 +18580,10 @@
         <v>11.11111111111111</v>
       </c>
       <c r="DK45">
-        <v>0.3631961259079903</v>
+        <v>0.3634161114476075</v>
       </c>
       <c r="DL45">
-        <v>1.390644753476612</v>
+        <v>1.392405063291139</v>
       </c>
       <c r="DM45">
         <v>1.576576576576576</v>
@@ -18592,10 +18592,10 @@
         <v>0</v>
       </c>
       <c r="DO45">
-        <v>3.597122302158273</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="DP45">
-        <v>1.063829787234043</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="DQ45">
         <v>14.28571428571428</v>
@@ -18612,7 +18612,7 @@
         <v>3204</v>
       </c>
       <c r="D46">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="E46">
         <v>41</v>
@@ -18633,16 +18633,16 @@
         <v>18</v>
       </c>
       <c r="K46">
-        <v>1.280049953168904</v>
+        <v>1.278852152214598</v>
       </c>
       <c r="L46">
-        <v>1.181224743549891</v>
+        <v>1.181592039800995</v>
       </c>
       <c r="M46">
-        <v>1.404954813793986</v>
+        <v>1.4058106841612</v>
       </c>
       <c r="N46">
-        <v>0.4667081518357187</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="O46">
         <v>0.4037267080745341</v>
@@ -18684,7 +18684,7 @@
         <v>65</v>
       </c>
       <c r="AB46">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC46">
         <v>91</v>
@@ -18693,7 +18693,7 @@
         <v>6</v>
       </c>
       <c r="AE46">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="AF46">
         <v>787</v>
@@ -18861,13 +18861,13 @@
         <v>0</v>
       </c>
       <c r="CI46">
-        <v>1.312649164677804</v>
+        <v>1.311866428145498</v>
       </c>
       <c r="CJ46">
         <v>0.3811944091486658</v>
       </c>
       <c r="CK46">
-        <v>1.333333333333333</v>
+        <v>1.330376940133038</v>
       </c>
       <c r="CL46">
         <v>1.538461538461539</v>
@@ -18882,10 +18882,10 @@
         <v>0</v>
       </c>
       <c r="CP46">
-        <v>1.610978520286396</v>
+        <v>1.611940298507463</v>
       </c>
       <c r="CQ46">
-        <v>0.5134788189987163</v>
+        <v>0.5141388174807198</v>
       </c>
       <c r="CR46">
         <v>2.455357142857143</v>
@@ -18951,7 +18951,7 @@
         <v>1.020408163265306</v>
       </c>
       <c r="DM46">
-        <v>0.8928571428571428</v>
+        <v>0.8929570150207737</v>
       </c>
       <c r="DN46">
         <v>0</v>
@@ -18977,7 +18977,7 @@
         <v>3230</v>
       </c>
       <c r="D47">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E47">
         <v>48</v>
@@ -18998,22 +18998,22 @@
         <v>21</v>
       </c>
       <c r="K47">
-        <v>1.481938870021612</v>
+        <v>1.481481481481482</v>
       </c>
       <c r="L47">
-        <v>1.385467980295567</v>
+        <v>1.386748844375963</v>
       </c>
       <c r="M47">
-        <v>1.606450523974762</v>
+        <v>1.606425702811245</v>
       </c>
       <c r="N47">
-        <v>0.5846153846153846</v>
+        <v>0.5840762373193975</v>
       </c>
       <c r="O47">
-        <v>0.4939796233405372</v>
+        <v>0.4941321803582459</v>
       </c>
       <c r="P47">
-        <v>0.6511829943213387</v>
+        <v>0.6501547987616099</v>
       </c>
       <c r="Q47">
         <v>1697</v>
@@ -19037,7 +19037,7 @@
         <v>8</v>
       </c>
       <c r="X47">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="Y47">
         <v>777</v>
@@ -19055,7 +19055,7 @@
         <v>93</v>
       </c>
       <c r="AD47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE47">
         <v>1703</v>
@@ -19124,7 +19124,7 @@
         <v>23</v>
       </c>
       <c r="BA47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB47">
         <v>17</v>
@@ -19232,7 +19232,7 @@
         <v>0.8928571428571428</v>
       </c>
       <c r="CK47">
-        <v>2.62582056892779</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="CL47">
         <v>1.515151515151515</v>
@@ -19247,10 +19247,10 @@
         <v>0</v>
       </c>
       <c r="CP47">
-        <v>1.359338061465721</v>
+        <v>1.358535144713526</v>
       </c>
       <c r="CQ47">
-        <v>1.150895140664962</v>
+        <v>1.03359173126615</v>
       </c>
       <c r="CR47">
         <v>3.752759381898454</v>
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
       <c r="CW47">
-        <v>0.2364066193853428</v>
+        <v>0.2365464222353637</v>
       </c>
       <c r="CX47">
         <v>0.639386189258312</v>
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="DA47">
-        <v>1.481481481481482</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="DB47">
         <v>0</v>
@@ -19310,7 +19310,7 @@
         <v>12.5</v>
       </c>
       <c r="DK47">
-        <v>0.3529411764705883</v>
+        <v>0.3527336860670194</v>
       </c>
       <c r="DL47">
         <v>0.7682458386683738</v>
@@ -19322,13 +19322,13 @@
         <v>0</v>
       </c>
       <c r="DO47">
-        <v>2.941176470588235</v>
+        <v>2.91970802919708</v>
       </c>
       <c r="DP47">
         <v>1.041666666666667</v>
       </c>
       <c r="DQ47">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="48">
@@ -19336,7 +19336,7 @@
         <v>2006</v>
       </c>
       <c r="B48">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="C48">
         <v>3260</v>
@@ -19363,22 +19363,22 @@
         <v>31</v>
       </c>
       <c r="K48">
-        <v>0.8573178199632578</v>
+        <v>0.8575803981623278</v>
       </c>
       <c r="L48">
-        <v>0.7642922653622746</v>
+        <v>0.7656967840735069</v>
       </c>
       <c r="M48">
-        <v>0.9800918836140888</v>
+        <v>0.9801068972765217</v>
       </c>
       <c r="N48">
         <v>0.8547008547008548</v>
       </c>
       <c r="O48">
-        <v>0.7926829268292683</v>
+        <v>0.7929246721561453</v>
       </c>
       <c r="P48">
-        <v>0.9428367261134145</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="Q48">
         <v>1713</v>
@@ -19435,7 +19435,7 @@
         <v>67</v>
       </c>
       <c r="AI48">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ48">
         <v>98</v>
@@ -19489,7 +19489,7 @@
         <v>18</v>
       </c>
       <c r="BA48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB48">
         <v>12</v>
@@ -19570,13 +19570,13 @@
         <v>0</v>
       </c>
       <c r="CB48">
-        <v>0.8782201405152225</v>
+        <v>0.8787346221441126</v>
       </c>
       <c r="CC48">
         <v>0</v>
       </c>
       <c r="CD48">
-        <v>2.136752136752137</v>
+        <v>2.134474149399523</v>
       </c>
       <c r="CE48">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="CI48">
-        <v>0.8153756552125802</v>
+        <v>0.8158508158508158</v>
       </c>
       <c r="CJ48">
         <v>0</v>
@@ -19612,19 +19612,19 @@
         <v>0</v>
       </c>
       <c r="CP48">
-        <v>1.052016364699006</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="CQ48">
-        <v>0.2547933186013259</v>
+        <v>0.1287001287001287</v>
       </c>
       <c r="CR48">
-        <v>2.620087336244541</v>
+        <v>2.61437908496732</v>
       </c>
       <c r="CS48">
         <v>0</v>
       </c>
       <c r="CT48">
-        <v>2.836879432624114</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CU48">
         <v>1.041666666666667</v>
@@ -19654,13 +19654,13 @@
         <v>0</v>
       </c>
       <c r="DD48">
-        <v>0.4653868528214078</v>
+        <v>0.4656577415599534</v>
       </c>
       <c r="DE48">
         <v>0.8905852417302799</v>
       </c>
       <c r="DF48">
-        <v>1.273885350318471</v>
+        <v>1.271186440677966</v>
       </c>
       <c r="DG48">
         <v>1.492537313432836</v>
@@ -19687,7 +19687,7 @@
         <v>1.492537313432836</v>
       </c>
       <c r="DO48">
-        <v>4.966312056737595</v>
+        <v>5</v>
       </c>
       <c r="DP48">
         <v>1.030927835051546</v>
@@ -19725,16 +19725,16 @@
         <v>12</v>
       </c>
       <c r="J49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K49">
-        <v>1.314984709480122</v>
+        <v>1.314582696423112</v>
       </c>
       <c r="L49">
-        <v>1.222867624579639</v>
+        <v>1.222493887530562</v>
       </c>
       <c r="M49">
-        <v>1.437308868501529</v>
+        <v>1.437748546956256</v>
       </c>
       <c r="N49">
         <v>0.4272200183094294</v>
@@ -19743,7 +19743,7 @@
         <v>0.3656307129798903</v>
       </c>
       <c r="P49">
-        <v>0.4904966278356836</v>
+        <v>0.517976843388178</v>
       </c>
       <c r="Q49">
         <v>1721</v>
@@ -19854,7 +19854,7 @@
         <v>27</v>
       </c>
       <c r="BA49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB49">
         <v>12</v>
@@ -19935,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>1.39778683750728</v>
+        <v>1.39697322467986</v>
       </c>
       <c r="CC49">
         <v>0.6451612903225806</v>
@@ -19962,7 +19962,7 @@
         <v>0.6418485237483954</v>
       </c>
       <c r="CK49">
-        <v>1.691331923890063</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CL49">
         <v>1.515151515151515</v>
@@ -19980,16 +19980,16 @@
         <v>1.569767441860465</v>
       </c>
       <c r="CQ49">
-        <v>0.7772020725388601</v>
+        <v>0.8997429305912596</v>
       </c>
       <c r="CR49">
-        <v>2.603036876355748</v>
+        <v>2.597402597402597</v>
       </c>
       <c r="CS49">
         <v>1.515151515151515</v>
       </c>
       <c r="CT49">
-        <v>2.158273381294964</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="CU49">
         <v>1.041666666666667</v>
@@ -20004,7 +20004,7 @@
         <v>0.2570694087403599</v>
       </c>
       <c r="CY49">
-        <v>0.6535947712418301</v>
+        <v>0.6507592190889371</v>
       </c>
       <c r="CZ49">
         <v>1.515151515151515</v>
@@ -20025,7 +20025,7 @@
         <v>0.1285347043701799</v>
       </c>
       <c r="DF49">
-        <v>0.6329113924050633</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="DG49">
         <v>1.515151515151515</v>
@@ -20046,13 +20046,13 @@
         <v>0.3865979381443299</v>
       </c>
       <c r="DM49">
-        <v>1.070663811563169</v>
+        <v>1.068376068376068</v>
       </c>
       <c r="DN49">
         <v>1.515151515151515</v>
       </c>
       <c r="DO49">
-        <v>3.623188405797102</v>
+        <v>3.64963503649635</v>
       </c>
       <c r="DP49">
         <v>1.030927835051546</v>
@@ -20093,22 +20093,22 @@
         <v>28</v>
       </c>
       <c r="K50">
-        <v>1.332122313048744</v>
+        <v>1.331719128329298</v>
       </c>
       <c r="L50">
-        <v>1.2409200968523</v>
+        <v>1.24054462934947</v>
       </c>
       <c r="M50">
-        <v>1.452344931921331</v>
+        <v>1.450172969626917</v>
       </c>
       <c r="N50">
-        <v>0.7589556769884639</v>
+        <v>0.7586102435287359</v>
       </c>
       <c r="O50">
-        <v>0.6967585580127235</v>
+        <v>0.6965475469412478</v>
       </c>
       <c r="P50">
-        <v>0.8497723823975721</v>
+        <v>0.8487420430433464</v>
       </c>
       <c r="Q50">
         <v>1741</v>
@@ -20219,7 +20219,7 @@
         <v>20</v>
       </c>
       <c r="BA50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB50">
         <v>16</v>
@@ -20228,7 +20228,7 @@
         <v>1</v>
       </c>
       <c r="BD50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE50">
         <v>4</v>
@@ -20306,7 +20306,7 @@
         <v>0.2567394094993581</v>
       </c>
       <c r="CD50">
-        <v>2.922755741127348</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="CE50">
         <v>1.515151515151515</v>
@@ -20342,19 +20342,19 @@
         <v>12.5</v>
       </c>
       <c r="CP50">
-        <v>1.154101406070718</v>
+        <v>1.152737752161383</v>
       </c>
       <c r="CQ50">
-        <v>0.3875968992248062</v>
+        <v>0.5121638924455826</v>
       </c>
       <c r="CR50">
-        <v>3.404255319148936</v>
+        <v>3.411513859275053</v>
       </c>
       <c r="CS50">
         <v>1.515151515151515</v>
       </c>
       <c r="CT50">
-        <v>4.347826086956522</v>
+        <v>3.877483042635664</v>
       </c>
       <c r="CU50">
         <v>4.166666666666666</v>
@@ -20369,7 +20369,7 @@
         <v>0.5121638924455826</v>
       </c>
       <c r="CY50">
-        <v>1.25</v>
+        <v>1.247401247401247</v>
       </c>
       <c r="CZ50">
         <v>0</v>
@@ -20411,7 +20411,7 @@
         <v>0.6426735218508998</v>
       </c>
       <c r="DM50">
-        <v>1.483050847457627</v>
+        <v>1.479915433403805</v>
       </c>
       <c r="DN50">
         <v>0</v>
@@ -20458,22 +20458,22 @@
         <v>22</v>
       </c>
       <c r="K51">
-        <v>1.175761230027133</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="L51">
-        <v>1.085318058486584</v>
+        <v>1.08499095840868</v>
       </c>
       <c r="M51">
-        <v>1.296743063932449</v>
+        <v>1.296352125414531</v>
       </c>
       <c r="N51">
-        <v>0.5710850616170725</v>
+        <v>0.5709134615384615</v>
       </c>
       <c r="O51">
         <v>0.482218203737191</v>
       </c>
       <c r="P51">
-        <v>0.6608591168519075</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="Q51">
         <v>1749</v>
@@ -20671,7 +20671,7 @@
         <v>0.5141388174807198</v>
       </c>
       <c r="CD51">
-        <v>2.049180327868852</v>
+        <v>2.053388090349076</v>
       </c>
       <c r="CE51">
         <v>0</v>
@@ -20686,7 +20686,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="CI51">
-        <v>1.083856246434683</v>
+        <v>1.084474885844749</v>
       </c>
       <c r="CJ51">
         <v>0.5121638924455826</v>
@@ -20707,10 +20707,10 @@
         <v>11.11111111111111</v>
       </c>
       <c r="CP51">
-        <v>1.262191623637407</v>
+        <v>1.261467889908257</v>
       </c>
       <c r="CQ51">
-        <v>0.646830530401035</v>
+        <v>0.6459948320413437</v>
       </c>
       <c r="CR51">
         <v>2.505219206680585</v>
@@ -20734,13 +20734,13 @@
         <v>0.8985879332477535</v>
       </c>
       <c r="CY51">
-        <v>1.422764227642276</v>
+        <v>1.425661914460285</v>
       </c>
       <c r="CZ51">
         <v>0</v>
       </c>
       <c r="DA51">
-        <v>0.7092198581560284</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="DB51">
         <v>0</v>
@@ -20770,19 +20770,19 @@
         <v>0</v>
       </c>
       <c r="DK51">
-        <v>0.2871912693854107</v>
+        <v>0.2870264064293915</v>
       </c>
       <c r="DL51">
         <v>1.030927835051546</v>
       </c>
       <c r="DM51">
-        <v>1.659751037344398</v>
+        <v>1.663201663201663</v>
       </c>
       <c r="DN51">
         <v>0</v>
       </c>
       <c r="DO51">
-        <v>1.470588235294118</v>
+        <v>1.45985401459854</v>
       </c>
       <c r="DP51">
         <v>1.041666666666667</v>
@@ -20829,16 +20829,16 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="M52">
-        <v>0.9912886752778614</v>
+        <v>0.9924961320268181</v>
       </c>
       <c r="N52">
         <v>0.8990110878034162</v>
       </c>
       <c r="O52">
-        <v>0.8368200836820083</v>
+        <v>0.8365700627427548</v>
       </c>
       <c r="P52">
-        <v>0.9895052473763118</v>
+        <v>0.9892086330935251</v>
       </c>
       <c r="Q52">
         <v>1765</v>
@@ -20886,7 +20886,7 @@
         <v>1770</v>
       </c>
       <c r="AF52">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AG52">
         <v>493</v>
@@ -21021,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="BY52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BZ52">
         <v>2</v>
@@ -21036,7 +21036,7 @@
         <v>0.5161290322580645</v>
       </c>
       <c r="CD52">
-        <v>1.25</v>
+        <v>1.247401247401247</v>
       </c>
       <c r="CE52">
         <v>0</v>
@@ -21054,10 +21054,10 @@
         <v>0.8488964346349746</v>
       </c>
       <c r="CJ52">
-        <v>0.5134788189987163</v>
+        <v>0.5141388174807198</v>
       </c>
       <c r="CK52">
-        <v>1.018329938900204</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="CL52">
         <v>0</v>
@@ -21072,13 +21072,13 @@
         <v>0</v>
       </c>
       <c r="CP52">
-        <v>1.078320090805902</v>
+        <v>1.07770845150312</v>
       </c>
       <c r="CQ52">
         <v>0.6476683937823834</v>
       </c>
       <c r="CR52">
-        <v>1.859504132231405</v>
+        <v>1.863354037267081</v>
       </c>
       <c r="CS52">
         <v>0</v>
@@ -21099,7 +21099,7 @@
         <v>1.15979381443299</v>
       </c>
       <c r="CY52">
-        <v>1.422764227642276</v>
+        <v>1.425661914460285</v>
       </c>
       <c r="CZ52">
         <v>0</v>
@@ -21120,7 +21120,7 @@
         <v>1.02960102960103</v>
       </c>
       <c r="DF52">
-        <v>1.024590163934426</v>
+        <v>1.026694045174538</v>
       </c>
       <c r="DG52">
         <v>0</v>
@@ -21129,7 +21129,7 @@
         <v>2.816901408450704</v>
       </c>
       <c r="DI52">
-        <v>1.019892805607092</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="DJ52">
         <v>0</v>
@@ -21141,16 +21141,16 @@
         <v>1.291989664082687</v>
       </c>
       <c r="DM52">
-        <v>1.677148846960168</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="DN52">
         <v>0</v>
       </c>
       <c r="DO52">
-        <v>4.37956204379562</v>
+        <v>4.827586206896552</v>
       </c>
       <c r="DP52">
-        <v>2.083333333333333</v>
+        <v>2.061855670103093</v>
       </c>
       <c r="DQ52">
         <v>0</v>
@@ -21188,19 +21188,19 @@
         <v>38</v>
       </c>
       <c r="K53">
-        <v>1.227177491768932</v>
+        <v>1.227544910179641</v>
       </c>
       <c r="L53">
         <v>1.137384016761449</v>
       </c>
       <c r="M53">
-        <v>1.346499102333932</v>
+        <v>1.346096320670057</v>
       </c>
       <c r="N53">
         <v>1.047904191616766</v>
       </c>
       <c r="O53">
-        <v>0.9603697464584393</v>
+        <v>0.9612496245118655</v>
       </c>
       <c r="P53">
         <v>1.137384016761449</v>
@@ -21254,7 +21254,7 @@
         <v>774</v>
       </c>
       <c r="AG53">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AH53">
         <v>67</v>
@@ -21401,7 +21401,7 @@
         <v>0.648508430609598</v>
       </c>
       <c r="CD53">
-        <v>2.083333333333333</v>
+        <v>2.074688796680498</v>
       </c>
       <c r="CE53">
         <v>1.492537313432836</v>
@@ -21422,7 +21422,7 @@
         <v>0.6459948320413437</v>
       </c>
       <c r="CK53">
-        <v>1.836547653684692</v>
+        <v>1.836734693877551</v>
       </c>
       <c r="CL53">
         <v>1.492537313432836</v>
@@ -21437,10 +21437,10 @@
         <v>0</v>
       </c>
       <c r="CP53">
-        <v>1.185770750988142</v>
+        <v>1.18510158013544</v>
       </c>
       <c r="CQ53">
-        <v>0.7832898172323759</v>
+        <v>0.7822685788787485</v>
       </c>
       <c r="CR53">
         <v>2.685950413223141</v>
@@ -21449,7 +21449,7 @@
         <v>1.492537313432836</v>
       </c>
       <c r="CT53">
-        <v>3.759398496240602</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="CU53">
         <v>2.083333333333333</v>
@@ -21461,7 +21461,7 @@
         <v>0.2256063169768754</v>
       </c>
       <c r="CX53">
-        <v>1.818181818181818</v>
+        <v>1.820546163849155</v>
       </c>
       <c r="CY53">
         <v>2.443991853360489</v>
@@ -21506,7 +21506,7 @@
         <v>2.072538860103627</v>
       </c>
       <c r="DM53">
-        <v>2.713987473903967</v>
+        <v>2.738297872340431</v>
       </c>
       <c r="DN53">
         <v>0</v>
@@ -21515,7 +21515,7 @@
         <v>3.731343283582089</v>
       </c>
       <c r="DP53">
-        <v>2.083333333333333</v>
+        <v>2.061855670103093</v>
       </c>
       <c r="DQ53">
         <v>0</v>
@@ -21556,19 +21556,19 @@
         <v>1.343283582089552</v>
       </c>
       <c r="L54">
-        <v>1.253731343283582</v>
+        <v>1.253357206803939</v>
       </c>
       <c r="M54">
-        <v>1.437125748502994</v>
+        <v>1.437556154537287</v>
       </c>
       <c r="N54">
         <v>1.138065289008685</v>
       </c>
       <c r="O54">
-        <v>1.0749477455957</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="P54">
-        <v>1.252236135957066</v>
+        <v>1.252983293556086</v>
       </c>
       <c r="Q54">
         <v>1788</v>
@@ -21604,7 +21604,7 @@
         <v>68</v>
       </c>
       <c r="AB54">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC54">
         <v>95</v>
@@ -21613,7 +21613,7 @@
         <v>9</v>
       </c>
       <c r="AE54">
-        <v>1791.05</v>
+        <v>1792</v>
       </c>
       <c r="AF54">
         <v>765</v>
@@ -21625,7 +21625,7 @@
         <v>68</v>
       </c>
       <c r="AI54">
-        <v>139</v>
+        <v>139.0500000000002</v>
       </c>
       <c r="AJ54">
         <v>98</v>
@@ -21802,13 +21802,13 @@
         <v>0</v>
       </c>
       <c r="CP54">
-        <v>1.233183856502242</v>
+        <v>1.233875490745934</v>
       </c>
       <c r="CQ54">
-        <v>0.922266139657444</v>
+        <v>0.9234828496042217</v>
       </c>
       <c r="CR54">
-        <v>2.708333333333333</v>
+        <v>2.697095435684647</v>
       </c>
       <c r="CS54">
         <v>0</v>
@@ -21826,7 +21826,7 @@
         <v>0.446677833612507</v>
       </c>
       <c r="CX54">
-        <v>1.445466491458607</v>
+        <v>1.443569553805774</v>
       </c>
       <c r="CY54">
         <v>2.691511387163561</v>
@@ -21847,7 +21847,7 @@
         <v>0.3908431044109436</v>
       </c>
       <c r="DE54">
-        <v>1.185770750988142</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="DF54">
         <v>2.653061224489796</v>
@@ -21868,10 +21868,10 @@
         <v>0.4491858506457047</v>
       </c>
       <c r="DL54">
-        <v>1.706036745406824</v>
+        <v>1.703800786369594</v>
       </c>
       <c r="DM54">
-        <v>3.067484662576687</v>
+        <v>3.073770491803279</v>
       </c>
       <c r="DN54">
         <v>0</v>
@@ -21880,7 +21880,7 @@
         <v>5.109489051094891</v>
       </c>
       <c r="DP54">
-        <v>2.061855670103093</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="DQ54">
         <v>0</v>
@@ -21924,13 +21924,13 @@
         <v>1.102174560619601</v>
       </c>
       <c r="M55">
-        <v>1.284732596354945</v>
+        <v>1.285116557083084</v>
       </c>
       <c r="N55">
-        <v>0.6263048016701461</v>
+        <v>0.6264916467780429</v>
       </c>
       <c r="O55">
-        <v>0.5385996409335727</v>
+        <v>0.5384385282680227</v>
       </c>
       <c r="P55">
         <v>0.7155635062611807</v>
@@ -22146,10 +22146,10 @@
         <v>10</v>
       </c>
       <c r="CI55">
-        <v>1.164725457570716</v>
+        <v>1.164693175823</v>
       </c>
       <c r="CJ55">
-        <v>0.3947368421052632</v>
+        <v>0.3952309132515082</v>
       </c>
       <c r="CK55">
         <v>1.646090534979424</v>
@@ -22170,16 +22170,16 @@
         <v>1.335559265442404</v>
       </c>
       <c r="CQ55">
-        <v>0.5305392048076484</v>
+        <v>0.5305039787798408</v>
       </c>
       <c r="CR55">
-        <v>2.510460251046025</v>
+        <v>2.515723270440252</v>
       </c>
       <c r="CS55">
         <v>0</v>
       </c>
       <c r="CT55">
-        <v>3.007518796992481</v>
+        <v>2.985074626865671</v>
       </c>
       <c r="CU55">
         <v>1.030927835051546</v>
@@ -22230,19 +22230,19 @@
         <v>0</v>
       </c>
       <c r="DK55">
-        <v>0.4459308807134894</v>
+        <v>0.4456824512534819</v>
       </c>
       <c r="DL55">
         <v>0.3968253968253968</v>
       </c>
       <c r="DM55">
-        <v>1.649484536082474</v>
+        <v>1.646090534979424</v>
       </c>
       <c r="DN55">
         <v>1.470588235294118</v>
       </c>
       <c r="DO55">
-        <v>4.347826086956522</v>
+        <v>4.349412884798483</v>
       </c>
       <c r="DP55">
         <v>1.030927835051546</v>
@@ -22256,7 +22256,7 @@
         <v>2014</v>
       </c>
       <c r="B56">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="C56">
         <v>3364</v>
@@ -22274,31 +22274,31 @@
         <v>49</v>
       </c>
       <c r="H56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I56">
         <v>24</v>
       </c>
       <c r="J56">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K56">
-        <v>1.362559241706161</v>
+        <v>1.362155759549896</v>
       </c>
       <c r="L56">
-        <v>1.274055204493593</v>
+        <v>1.273696682464455</v>
       </c>
       <c r="M56">
-        <v>1.455733808674985</v>
+        <v>1.455301455301455</v>
       </c>
       <c r="N56">
-        <v>0.7988165680473372</v>
+        <v>0.7731192387749034</v>
       </c>
       <c r="O56">
-        <v>0.7121661721068249</v>
+        <v>0.7119549095223969</v>
       </c>
       <c r="P56">
-        <v>0.861812778603269</v>
+        <v>0.8865248226950355</v>
       </c>
       <c r="Q56">
         <v>1815</v>
@@ -22532,13 +22532,13 @@
         <v>0</v>
       </c>
       <c r="CP56">
-        <v>1.434878587196468</v>
+        <v>1.435670900055218</v>
       </c>
       <c r="CQ56">
         <v>0.1322751322751323</v>
       </c>
       <c r="CR56">
-        <v>4.140786749482402</v>
+        <v>4.149377593360995</v>
       </c>
       <c r="CS56">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0.2207505518763797</v>
       </c>
       <c r="DL56">
-        <v>0.9259259259259258</v>
+        <v>0.9247027741083224</v>
       </c>
       <c r="DM56">
         <v>2.044989775051125</v>
@@ -22651,7 +22651,7 @@
         <v>1.120613388381009</v>
       </c>
       <c r="L57">
-        <v>1.031535514294135</v>
+        <v>1.031824417224141</v>
       </c>
       <c r="M57">
         <v>1.238572692421115</v>
@@ -22663,7 +22663,7 @@
         <v>0.8839127872716559</v>
       </c>
       <c r="P57">
-        <v>1.030927835051546</v>
+        <v>1.03032087135708</v>
       </c>
       <c r="Q57">
         <v>1836</v>
@@ -22861,7 +22861,7 @@
         <v>0.398936170212766</v>
       </c>
       <c r="CD57">
-        <v>1.405622489959839</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CE57">
         <v>0</v>
@@ -22966,13 +22966,13 @@
         <v>0.9296148738379815</v>
       </c>
       <c r="DM57">
-        <v>2.208835341365462</v>
+        <v>2.204408817635271</v>
       </c>
       <c r="DN57">
         <v>0</v>
       </c>
       <c r="DO57">
-        <v>4.545454545454546</v>
+        <v>4.511278195488721</v>
       </c>
       <c r="DP57">
         <v>1.020408163265306</v>
@@ -23016,13 +23016,13 @@
         <v>1.148071828083603</v>
       </c>
       <c r="L58">
-        <v>1.059135039717564</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="M58">
         <v>1.265822784810127</v>
       </c>
       <c r="N58">
-        <v>0.8249852681202121</v>
+        <v>0.8247422680412372</v>
       </c>
       <c r="O58">
         <v>0.7653812187224022</v>
@@ -23031,13 +23031,13 @@
         <v>0.9125699146305564</v>
       </c>
       <c r="Q58">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="R58">
         <v>750</v>
       </c>
       <c r="S58">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T58">
         <v>67</v>
@@ -23052,7 +23052,7 @@
         <v>11</v>
       </c>
       <c r="X58">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="Y58">
         <v>748</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="CB58">
-        <v>1.192411924119241</v>
+        <v>1.191765980498375</v>
       </c>
       <c r="CC58">
         <v>0.1333333333333333</v>
@@ -23268,7 +23268,7 @@
         <v>0.267379679144385</v>
       </c>
       <c r="CR58">
-        <v>2.249488752556237</v>
+        <v>2.244897959183673</v>
       </c>
       <c r="CS58">
         <v>2.985074626865671</v>
@@ -23319,7 +23319,7 @@
         <v>0.7633587786259541</v>
       </c>
       <c r="DI58">
-        <v>1.01010101010101</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="DJ58">
         <v>0</v>
@@ -23328,7 +23328,7 @@
         <v>0.4340748779164406</v>
       </c>
       <c r="DL58">
-        <v>1.333333333333333</v>
+        <v>1.33155792276964</v>
       </c>
       <c r="DM58">
         <v>1.829268292682927</v>
@@ -23384,7 +23384,7 @@
         <v>0.8211143695014663</v>
       </c>
       <c r="M59">
-        <v>1.028504260946224</v>
+        <v>1.028202115158637</v>
       </c>
       <c r="N59">
         <v>0.9680258140217073</v>
@@ -23393,7 +23393,7 @@
         <v>0.881057268722467</v>
       </c>
       <c r="P59">
-        <v>1.055408970976253</v>
+        <v>1.055718475073314</v>
       </c>
       <c r="Q59">
         <v>1860</v>
@@ -23459,7 +23459,7 @@
         <v>11</v>
       </c>
       <c r="AL59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM59">
         <v>3</v>
@@ -23585,13 +23585,13 @@
         <v>1</v>
       </c>
       <c r="CB59">
-        <v>0.8060182697474476</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="CC59">
         <v>0.4043126684636119</v>
       </c>
       <c r="CD59">
-        <v>2.419354838709677</v>
+        <v>2.414486921529175</v>
       </c>
       <c r="CE59">
         <v>0</v>
@@ -23606,13 +23606,13 @@
         <v>0</v>
       </c>
       <c r="CI59">
-        <v>0.6981740064446832</v>
+        <v>0.6985491671144546</v>
       </c>
       <c r="CJ59">
         <v>0.4037685060565276</v>
       </c>
       <c r="CK59">
-        <v>2.007830922889957</v>
+        <v>2.008032128514056</v>
       </c>
       <c r="CL59">
         <v>0</v>
@@ -23654,7 +23654,7 @@
         <v>0.9433962264150944</v>
       </c>
       <c r="CY59">
-        <v>1.825557809330629</v>
+        <v>1.821862348178138</v>
       </c>
       <c r="CZ59">
         <v>0</v>
@@ -23725,7 +23725,7 @@
         <v>3408</v>
       </c>
       <c r="E60">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F60">
         <v>23</v>
@@ -23743,7 +23743,7 @@
         <v>26</v>
       </c>
       <c r="K60">
-        <v>0.7048458149779736</v>
+        <v>0.7337833871441151</v>
       </c>
       <c r="L60">
         <v>0.6748826291079812</v>
@@ -23887,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="BG60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH60">
         <v>2</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="CW60">
-        <v>0.3755364806866953</v>
+        <v>0.322234156820623</v>
       </c>
       <c r="CX60">
         <v>0.2710027100271002</v>
@@ -24081,7 +24081,7 @@
         <v>2019</v>
       </c>
       <c r="B61">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="C61">
         <v>3405</v>
@@ -24108,7 +24108,7 @@
         <v>15</v>
       </c>
       <c r="K61">
-        <v>0.7046388725778039</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="L61">
         <v>0.7046388725778039</v>
@@ -24132,7 +24132,7 @@
         <v>738</v>
       </c>
       <c r="S61">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T61">
         <v>70</v>
@@ -24321,7 +24321,7 @@
         <v>0.2710027100271002</v>
       </c>
       <c r="CD61">
-        <v>1.214574898785425</v>
+        <v>1.217038539553752</v>
       </c>
       <c r="CE61">
         <v>0</v>
